--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="317">
   <si>
     <t>Region</t>
   </si>
@@ -792,6 +792,114 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Dorris+Neuroscience+Center+(DNC),+The+Scripps+Research+Institute/@32.8945205,-117.2399002,17z/data=!3m1!4b1!4m5!3m4!1s0x80dc06ee05421e91:0x30fe2adb5283df19!8m2!3d32.8945205!4d-117.2377115</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>Kyoto University</t>
+  </si>
+  <si>
+    <t>http://www.cicasp.pri.kyoto-u.ac.jp/research/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kyoto+University/@35.0262444,135.7786331,17z/data=!3m1!4b1!4m5!3m4!1s0x60010857fbd64b75:0x11921ef4ea8c2443!8m2!3d35.0262444!4d135.7808218</t>
+  </si>
+  <si>
+    <t>Sendai</t>
+  </si>
+  <si>
+    <t>Tohoku University</t>
+  </si>
+  <si>
+    <t>https://www.med.tohoku.ac.jp/english/index.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tohoku+University/@38.2538382,140.8718853,17z/data=!3m1!4b1!4m5!3m4!1s0x5f8a2814e6d423fd:0x28ed9e7741060480!8m2!3d38.253834!4d140.874074</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>University of Tokyo</t>
+  </si>
+  <si>
+    <t>http://neurosci.umin.jp/e/index.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Tokyo/@35.7126818,139.7598003,17z/data=!3m1!4b1!4m5!3m4!1s0x60188c2ffa206ea3:0x30e407498313ba95!8m2!3d35.7126775!4d139.761989</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Seoul National University</t>
+  </si>
+  <si>
+    <t>https://snumrc.snu.ac.kr/nri/en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Seoul+National+University/@37.4565095,126.9321611,14z/data=!4m8!1m2!2m1!1sNeuroscience+Research+Institute,+SNU!3m4!1s0x357c9fe8a0a1e2a5:0xa1e2eebc04f0c5e7!8m2!3d37.4565095!4d126.9500385</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Peking</t>
+  </si>
+  <si>
+    <t>Peking University</t>
+  </si>
+  <si>
+    <t>http://nri.bjmu.edu.cn/english/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Peking+University/@39.986913,116.270855,13z/data=!4m8!1m2!2m1!1speking+neuroscience!3m4!1s0x35f0514b0d02a275:0x7bc19cd881ca04cb!8m2!3d39.986913!4d116.3058739</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shanghai Institutes for Biological Sciences</t>
+  </si>
+  <si>
+    <t>http://www.ion.ac.cn/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shanghai+Institutes+for+Biological+Sciences/@31.1622842,121.4047059,17z/data=!3m1!4b1!4m5!3m4!1s0x35b2648ea2678199:0xad8a1f12491b4bda!8m2!3d31.1622842!4d121.4068946</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Chinese Institute For Brain Research</t>
+  </si>
+  <si>
+    <t>http://en.cibr.ac.cn/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/China+International+Institute+of+Neuroscience/@39.8770921,116.3832055,13z/data=!4m8!1m2!2m1!1sChina+international+neuroscience!3m4!1s0x35f04d8532f9420d:0x8809df9b11eaf3e0!8m2!3d39.889762!4d116.362423</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Institute for Brain Research Huazhong University of Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=Institute+for+Brain+Research+HUST&amp;safe=active&amp;sxsrf=ALeKk03AoKrlF5kLSumQE-Z5N5hJQlk1JA%3A1616256779526&amp;ei=Cx9WYOSsH47rrgT3iKnwDg&amp;oq=Institute+for+Brain+Research+HUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBwghEAoQoAEyBwghEAoQoAE6BggAEBYQHjoICCEQFhAdEB46BQghEKABUNIfWJwnYKUsaABwAngAgAGPAogBzQeSAQUwLjMuMpgBAKABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwik3tXZob_vAhWOtYsKHXdECu4Q4dUDCA4&amp;uact=5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Institute+for+Brain+Research+Huazhong+University+of+Science+%26+Technology/@30.4571118,113.8488827,9.81z/data=!4m5!3m4!1s0x342eae8ccf356c79:0x8111a528d9ebb80b!8m2!3d30.580727!4d114.26218</t>
   </si>
   <si>
     <t>Medical University of South Carolina</t>
@@ -861,7 +969,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -876,7 +984,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -888,6 +995,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -923,34 +1035,34 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1309,19 +1421,19 @@
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>182000.0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="6"/>
@@ -1353,16 +1465,16 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>693000.0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="6"/>
@@ -1394,7 +1506,7 @@
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="4">
         <v>284000.0</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1435,16 +1547,16 @@
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="4">
         <v>350000.0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="6"/>
@@ -1476,16 +1588,16 @@
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="4">
         <v>632000.0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="6"/>
@@ -1517,16 +1629,16 @@
       <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="4">
         <v>974000.0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="6"/>
@@ -1558,16 +1670,16 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="4">
         <v>125000.0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="6"/>
@@ -1599,16 +1711,16 @@
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="4">
         <v>648000.0</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="6"/>
@@ -1634,16 +1746,16 @@
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="4">
         <v>77000.0</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1716,16 +1828,16 @@
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>204234.0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1757,16 +1869,16 @@
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="4">
         <v>331577.0</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1798,16 +1910,16 @@
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>504718.0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1845,16 +1957,16 @@
       <c r="C17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="4">
         <v>872000.0</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="6"/>
@@ -1886,16 +1998,16 @@
       <c r="C18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="4">
         <v>125000.0</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="6"/>
@@ -1927,16 +2039,16 @@
       <c r="C19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="4">
         <v>358000.0</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>93</v>
       </c>
       <c r="H19" s="6"/>
@@ -1968,16 +2080,16 @@
       <c r="C20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="4">
         <v>177000.0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="6"/>
@@ -2009,16 +2121,16 @@
       <c r="C21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="4">
         <v>651000.0</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="6"/>
@@ -2050,16 +2162,16 @@
       <c r="C22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="4">
         <v>3670000.0</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6"/>
@@ -2091,16 +2203,16 @@
       <c r="C23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="4">
         <v>3670000.0</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H23" s="6"/>
@@ -2129,19 +2241,19 @@
       <c r="B24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="4">
         <v>140000.0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H24" s="6"/>
@@ -2173,16 +2285,16 @@
       <c r="C25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="4">
         <v>83000.0</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>117</v>
       </c>
       <c r="H25" s="6"/>
@@ -2214,16 +2326,16 @@
       <c r="C26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="4">
         <v>160000.0</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H26" s="6"/>
@@ -2255,16 +2367,16 @@
       <c r="C27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="4">
         <v>241000.0</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="6"/>
@@ -2296,16 +2408,16 @@
       <c r="C28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="4">
         <v>667000.0</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>129</v>
       </c>
       <c r="H28" s="6"/>
@@ -2337,16 +2449,16 @@
       <c r="C29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="4">
         <v>330000.0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>133</v>
       </c>
       <c r="H29" s="6"/>
@@ -2378,16 +2490,16 @@
       <c r="C30" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="4">
         <v>330000.0</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>136</v>
       </c>
       <c r="H30" s="6"/>
@@ -2419,16 +2531,16 @@
       <c r="C31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="4">
         <v>366000.0</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>140</v>
       </c>
       <c r="H31" s="6"/>
@@ -2460,16 +2572,16 @@
       <c r="C32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="4">
         <v>1400000.0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>145</v>
       </c>
       <c r="H32" s="6"/>
@@ -2501,16 +2613,16 @@
       <c r="C33" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="4">
         <v>552000.0</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>149</v>
       </c>
       <c r="H33" s="6"/>
@@ -2542,16 +2654,16 @@
       <c r="C34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="4">
         <v>552000.0</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>152</v>
       </c>
       <c r="H34" s="6"/>
@@ -2583,16 +2695,16 @@
       <c r="C35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="4">
         <v>427000.0</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>156</v>
       </c>
       <c r="H35" s="6"/>
@@ -2706,7 +2818,7 @@
       <c r="C38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="4">
         <v>872000.0</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -2946,16 +3058,16 @@
       <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D44" s="4">
         <v>8982000.0</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>189</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -2987,22 +3099,22 @@
       <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D45" s="4">
         <v>518000.0</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>196</v>
       </c>
       <c r="H45" s="6"/>
@@ -3028,16 +3140,16 @@
       <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D46" s="4">
         <v>545000.0</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -3069,16 +3181,16 @@
       <c r="A47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D47" s="4">
         <v>100244.0</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -3110,16 +3222,16 @@
       <c r="A48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D48" s="4">
         <v>587857.0</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -3151,16 +3263,16 @@
       <c r="A49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D49" s="4">
         <v>176545.0</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="3" t="s">
         <v>212</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -3192,16 +3304,16 @@
       <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D50" s="4">
         <v>796273.0</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="3" t="s">
         <v>216</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3230,19 +3342,19 @@
       <c r="Y50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>221</v>
       </c>
       <c r="D51" s="4">
         <v>1780000.0</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -3271,19 +3383,19 @@
       <c r="Y51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D52" s="4">
         <v>404699.0</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="3" t="s">
         <v>225</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -3312,19 +3424,19 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="3" t="s">
         <v>228</v>
       </c>
       <c r="D53" s="4">
         <v>675218.0</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3353,19 +3465,19 @@
       <c r="Y53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D54" s="4">
         <v>2930000.0</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="3" t="s">
         <v>233</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -3394,19 +3506,19 @@
       <c r="Y54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="4">
         <v>2930000.0</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -3435,19 +3547,19 @@
       <c r="Y55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D56" s="4">
         <v>724305.0</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="3" t="s">
         <v>241</v>
       </c>
       <c r="F56" s="5" t="s">
@@ -3476,19 +3588,19 @@
       <c r="Y56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>244</v>
       </c>
       <c r="D57" s="4">
         <v>67542.0</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="3" t="s">
         <v>245</v>
       </c>
       <c r="F57" s="5" t="s">
@@ -3517,19 +3629,19 @@
       <c r="Y57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>248</v>
       </c>
       <c r="D58" s="4">
         <v>49848.0</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="3" t="s">
         <v>249</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -3558,19 +3670,19 @@
       <c r="Y58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="3" t="s">
         <v>252</v>
       </c>
       <c r="D59" s="4">
         <v>64565.0</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="3" t="s">
         <v>253</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3599,19 +3711,19 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>256</v>
       </c>
       <c r="D60" s="4">
         <v>1410000.0</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="3" t="s">
         <v>257</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3640,13 +3752,27 @@
       <c r="Y60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="A61" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1450000.0</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3667,13 +3793,27 @@
       <c r="Y61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="A62" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1091000.0</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3694,13 +3834,27 @@
       <c r="Y62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="A63" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1.3960236E7</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3721,13 +3875,27 @@
       <c r="Y63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="A64" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="12">
+        <v>9700000.0</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3748,13 +3916,27 @@
       <c r="Y64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="A65" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" s="12">
+        <v>2.1E7</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -3775,13 +3957,27 @@
       <c r="Y65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="A66" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2.448E7</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -3802,13 +3998,27 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="A67" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2.1E7</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -3829,13 +4039,27 @@
       <c r="Y67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="A68" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1.1E7</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -28356,8 +28580,24 @@
     <hyperlink r:id="rId116" ref="G59"/>
     <hyperlink r:id="rId117" ref="F60"/>
     <hyperlink r:id="rId118" ref="G60"/>
+    <hyperlink r:id="rId119" ref="F61"/>
+    <hyperlink r:id="rId120" ref="G61"/>
+    <hyperlink r:id="rId121" ref="F62"/>
+    <hyperlink r:id="rId122" ref="G62"/>
+    <hyperlink r:id="rId123" ref="F63"/>
+    <hyperlink r:id="rId124" ref="G63"/>
+    <hyperlink r:id="rId125" ref="F64"/>
+    <hyperlink r:id="rId126" ref="G64"/>
+    <hyperlink r:id="rId127" ref="F65"/>
+    <hyperlink r:id="rId128" ref="G65"/>
+    <hyperlink r:id="rId129" ref="F66"/>
+    <hyperlink r:id="rId130" ref="G66"/>
+    <hyperlink r:id="rId131" ref="F67"/>
+    <hyperlink r:id="rId132" ref="G67"/>
+    <hyperlink r:id="rId133" ref="F68"/>
+    <hyperlink r:id="rId134" ref="G68"/>
   </hyperlinks>
-  <drawing r:id="rId119"/>
+  <drawing r:id="rId135"/>
 </worksheet>
 </file>
 
@@ -28376,12 +28616,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
@@ -28391,7 +28631,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
@@ -28401,7 +28641,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7">
@@ -28411,27 +28651,27 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13">
@@ -28441,37 +28681,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21">
@@ -28481,7 +28721,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23">
@@ -28496,7 +28736,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26">
@@ -28506,12 +28746,12 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29">
@@ -28531,7 +28771,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="379">
   <si>
     <t>Region</t>
   </si>
@@ -35,6 +35,144 @@
     <t>Url_With_Coordinates</t>
   </si>
   <si>
+    <t>Asia, East</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kyoto</t>
+  </si>
+  <si>
+    <t>Kyoto University</t>
+  </si>
+  <si>
+    <t>http://www.cicasp.pri.kyoto-u.ac.jp/research/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Kyoto+University/@35.0262444,135.7786331,17z/data=!3m1!4b1!4m5!3m4!1s0x60010857fbd64b75:0x11921ef4ea8c2443!8m2!3d35.0262444!4d135.7808218</t>
+  </si>
+  <si>
+    <t>Sendai</t>
+  </si>
+  <si>
+    <t>Tohoku University</t>
+  </si>
+  <si>
+    <t>https://www.med.tohoku.ac.jp/english/index.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tohoku+University/@38.2538382,140.8718853,17z/data=!3m1!4b1!4m5!3m4!1s0x5f8a2814e6d423fd:0x28ed9e7741060480!8m2!3d38.253834!4d140.874074</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>University of Tokyo</t>
+  </si>
+  <si>
+    <t>http://neurosci.umin.jp/e/index.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Tokyo/@35.7126818,139.7598003,17z/data=!3m1!4b1!4m5!3m4!1s0x60188c2ffa206ea3:0x30e407498313ba95!8m2!3d35.7126775!4d139.761989</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Seoul National University</t>
+  </si>
+  <si>
+    <t>https://snumrc.snu.ac.kr/nri/en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Seoul+National+University/@37.4565095,126.9321611,14z/data=!4m8!1m2!2m1!1sNeuroscience+Research+Institute,+SNU!3m4!1s0x357c9fe8a0a1e2a5:0xa1e2eebc04f0c5e7!8m2!3d37.4565095!4d126.9500385</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Peking</t>
+  </si>
+  <si>
+    <t>Peking University</t>
+  </si>
+  <si>
+    <t>http://nri.bjmu.edu.cn/english/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Peking+University/@39.986913,116.270855,13z/data=!4m8!1m2!2m1!1speking+neuroscience!3m4!1s0x35f0514b0d02a275:0x7bc19cd881ca04cb!8m2!3d39.986913!4d116.3058739</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shanghai Institutes for Biological Sciences</t>
+  </si>
+  <si>
+    <t>http://www.ion.ac.cn/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shanghai+Institutes+for+Biological+Sciences/@31.1622842,121.4047059,17z/data=!3m1!4b1!4m5!3m4!1s0x35b2648ea2678199:0xad8a1f12491b4bda!8m2!3d31.1622842!4d121.4068946</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Chinese Institute For Brain Research</t>
+  </si>
+  <si>
+    <t>http://en.cibr.ac.cn/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/China+International+Institute+of+Neuroscience/@39.8770921,116.3832055,13z/data=!4m8!1m2!2m1!1sChina+international+neuroscience!3m4!1s0x35f04d8532f9420d:0x8809df9b11eaf3e0!8m2!3d39.889762!4d116.362423</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Institute for Brain Research Huazhong University of Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=Institute+for+Brain+Research+HUST&amp;safe=active&amp;sxsrf=ALeKk03AoKrlF5kLSumQE-Z5N5hJQlk1JA%3A1616256779526&amp;ei=Cx9WYOSsH47rrgT3iKnwDg&amp;oq=Institute+for+Brain+Research+HUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBwghEAoQoAEyBwghEAoQoAE6BggAEBYQHjoICCEQFhAdEB46BQghEKABUNIfWJwnYKUsaABwAngAgAGPAogBzQeSAQUwLjMuMpgBAKABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwik3tXZob_vAhWOtYsKHXdECu4Q4dUDCA4&amp;uact=5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Institute+for+Brain+Research+Huazhong+University+of+Science+%26+Technology/@30.4571118,113.8488827,9.81z/data=!4m5!3m4!1s0x342eae8ccf356c79:0x8111a528d9ebb80b!8m2!3d30.580727!4d114.26218</t>
+  </si>
+  <si>
+    <t>Asia, South</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Institute of Neurosciences, Kolkata</t>
+  </si>
+  <si>
+    <t>https://neurokolkata.org/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Institute+of+Neurosciences+Kolkata/@22.5469568,88.3619186,15z/data=!4m5!3m4!1s0x0:0x2122bbd8d5525fb!8m2!3d22.5469568!4d88.3619186</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Indian Institute of Science</t>
+  </si>
+  <si>
+    <t>http://www.cns.iisc.ac.in/home/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Indian+Institute+of+Science/@13.0099733,77.558706,14z/data=!4m8!1m2!2m1!1sindian+institute+of+science+bangalore!3m4!1s0x3bae17d757d11bfb:0x3fc1cd64d345c13f!8m2!3d13.0218597!4d77.5671423</t>
+  </si>
+  <si>
     <t>Europe, Central</t>
   </si>
   <si>
@@ -71,6 +209,21 @@
     <t>https://www.google.com/maps/place/Instytut+Biologii+Do%C5%9Bwiadczalnej+im.+M.+Nenckiego+PAN/@52.2135238,12.0178049,5z/data=!4m5!3m4!1s0x471eccbba32cb2fd:0xc39abac296669a11!8m2!3d52.2135238!4d20.982649</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Transylvanian Institute of Neuroscience</t>
+  </si>
+  <si>
+    <t>https://tins.ro/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Strada+Ploie%C8%99ti+33,+Cluj-Napoca+400000,+Romania/@46.776813,23.595841,16z/data=!4m5!3m4!1s0x47490e9ffa9d9897:0x8cbb67d77e5a54e9!8m2!3d46.7768127!4d23.5958411?hl=en-US</t>
+  </si>
+  <si>
     <t>Europe, North</t>
   </si>
   <si>
@@ -539,7 +692,7 @@
     <t>https://neuro-marseille.org/en/laboratories/mediterranean-neurobiology-institute/</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/Mediterranean+Institute+of+Neurobiology/@43.2307684,5.445807,15z/data=!4m2!3m1!1s0x0:0xf24891781c5cfd74?sa=X&amp;ved=2ahUKEwj8zJrvpb3vAhWhmIsKHezbCX4Q_BIwCnoECA8QAw</t>
+    <t>https://www.google.com/maps/place/Mediterranean+Institute+of+Neurobiology/@43.2307723,5.4436183,17z/data=!4m12!1m6!3m5!1s0x12c9b9af8fa4e59d:0xf24891781c5cfd74!2sMediterranean+Institute+of+Neurobiology!8m2!3d43.2307684!4d5.445807!3m4!1s0x12c9b9af8fa4e59d:0xf24891781c5cfd74!8m2!3d43.2307684!4d5.445807</t>
   </si>
   <si>
     <t>England</t>
@@ -671,6 +824,42 @@
     <t>https://www.google.com/maps/place/Center+Broca+Nouvelle+Aquitaine/@44.8246349,-0.6079106,15z/data=!4m5!3m4!1s0x0:0x7e5eeebd95bcb30d!8m2!3d44.8246349!4d-0.6079106</t>
   </si>
   <si>
+    <t>ENP</t>
+  </si>
+  <si>
+    <t>http://www.paris-neuroscience.fr/en/enp</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%C3%89cole+des+Neurosciences+de+Paris+%C3%8Ele-de-France/@48.8507603,2.3412757,15z/data=!4m5!3m4!1s0x0:0x121168b4967cfd03!8m2!3d48.8507603!4d2.3412757</t>
+  </si>
+  <si>
+    <t>Universite de Paris</t>
+  </si>
+  <si>
+    <t>https://u-paris.fr/en/master-in-neurosciences/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Paris/@48.8553681,2.3316655,15z/data=!4m2!3m1!1s0x0:0xd9bdd83ca3691659?sa=X&amp;ved=2ahUKEwiow9Wy5r_vAhVliYsKHUC1Ci8Q_BIwDXoECBsQBQ</t>
+  </si>
+  <si>
+    <t>Institut Pasteur</t>
+  </si>
+  <si>
+    <t>https://www.pasteur.fr/en/our-missions/research/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Pasteur+Institute/@48.8407721,2.3086963,17z/data=!3m1!4b1!4m5!3m4!1s0x47e670376abf4b5b:0xe831277d10f68655!8m2!3d48.8407686!4d2.310885</t>
+  </si>
+  <si>
+    <t>Institue Neurosciences Cognition</t>
+  </si>
+  <si>
+    <t>https://inc.parisdescartes.fr/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Universit%C3%A9+de+Paris+Campus+-+Saint-Germain-des-Pr%C3%A9s/@48.8549422,2.3268385,15.71z/data=!4m5!3m4!1s0x47e671d7c324482b:0x5cd6e016f2621760!8m2!3d48.8558061!4d2.331577</t>
+  </si>
+  <si>
     <t>North America</t>
   </si>
   <si>
@@ -794,112 +983,109 @@
     <t>https://www.google.com/maps/place/Dorris+Neuroscience+Center+(DNC),+The+Scripps+Research+Institute/@32.8945205,-117.2399002,17z/data=!3m1!4b1!4m5!3m4!1s0x80dc06ee05421e91:0x30fe2adb5283df19!8m2!3d32.8945205!4d-117.2377115</t>
   </si>
   <si>
-    <t>East Asia</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Kyoto</t>
-  </si>
-  <si>
-    <t>Kyoto University</t>
-  </si>
-  <si>
-    <t>http://www.cicasp.pri.kyoto-u.ac.jp/research/neuroscience</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Kyoto+University/@35.0262444,135.7786331,17z/data=!3m1!4b1!4m5!3m4!1s0x60010857fbd64b75:0x11921ef4ea8c2443!8m2!3d35.0262444!4d135.7808218</t>
-  </si>
-  <si>
-    <t>Sendai</t>
-  </si>
-  <si>
-    <t>Tohoku University</t>
-  </si>
-  <si>
-    <t>https://www.med.tohoku.ac.jp/english/index.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Tohoku+University/@38.2538382,140.8718853,17z/data=!3m1!4b1!4m5!3m4!1s0x5f8a2814e6d423fd:0x28ed9e7741060480!8m2!3d38.253834!4d140.874074</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>University of Tokyo</t>
-  </si>
-  <si>
-    <t>http://neurosci.umin.jp/e/index.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/The+University+of+Tokyo/@35.7126818,139.7598003,17z/data=!3m1!4b1!4m5!3m4!1s0x60188c2ffa206ea3:0x30e407498313ba95!8m2!3d35.7126775!4d139.761989</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>Seoul National University</t>
-  </si>
-  <si>
-    <t>https://snumrc.snu.ac.kr/nri/en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Seoul+National+University/@37.4565095,126.9321611,14z/data=!4m8!1m2!2m1!1sNeuroscience+Research+Institute,+SNU!3m4!1s0x357c9fe8a0a1e2a5:0xa1e2eebc04f0c5e7!8m2!3d37.4565095!4d126.9500385</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Peking</t>
-  </si>
-  <si>
-    <t>Peking University</t>
-  </si>
-  <si>
-    <t>http://nri.bjmu.edu.cn/english/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Peking+University/@39.986913,116.270855,13z/data=!4m8!1m2!2m1!1speking+neuroscience!3m4!1s0x35f0514b0d02a275:0x7bc19cd881ca04cb!8m2!3d39.986913!4d116.3058739</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Shanghai Institutes for Biological Sciences</t>
-  </si>
-  <si>
-    <t>http://www.ion.ac.cn/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shanghai+Institutes+for+Biological+Sciences/@31.1622842,121.4047059,17z/data=!3m1!4b1!4m5!3m4!1s0x35b2648ea2678199:0xad8a1f12491b4bda!8m2!3d31.1622842!4d121.4068946</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Chinese Institute For Brain Research</t>
-  </si>
-  <si>
-    <t>http://en.cibr.ac.cn/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/China+International+Institute+of+Neuroscience/@39.8770921,116.3832055,13z/data=!4m8!1m2!2m1!1sChina+international+neuroscience!3m4!1s0x35f04d8532f9420d:0x8809df9b11eaf3e0!8m2!3d39.889762!4d116.362423</t>
-  </si>
-  <si>
-    <t>Wuhan</t>
-  </si>
-  <si>
-    <t>Institute for Brain Research Huazhong University of Science &amp; Technology</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=Institute+for+Brain+Research+HUST&amp;safe=active&amp;sxsrf=ALeKk03AoKrlF5kLSumQE-Z5N5hJQlk1JA%3A1616256779526&amp;ei=Cx9WYOSsH47rrgT3iKnwDg&amp;oq=Institute+for+Brain+Research+HUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBwghEAoQoAEyBwghEAoQoAE6BggAEBYQHjoICCEQFhAdEB46BQghEKABUNIfWJwnYKUsaABwAngAgAGPAogBzQeSAQUwLjMuMpgBAKABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwik3tXZob_vAhWOtYsKHXdECu4Q4dUDCA4&amp;uact=5</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Institute+for+Brain+Research+Huazhong+University+of+Science+%26+Technology/@30.4571118,113.8488827,9.81z/data=!4m5!3m4!1s0x342eae8ccf356c79:0x8111a528d9ebb80b!8m2!3d30.580727!4d114.26218</t>
+    <t>Lethbridge</t>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+  </si>
+  <si>
+    <t>https://www.uleth.ca/artsci/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Canadian+Center+for+Behavioral+Neuroscience/@49.6807166,-112.8684929,15z/data=!4m5!3m4!1s0x0:0x4ed1cfad4b7484f2!8m2!3d49.6807166!4d-112.8684929</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>https://www.cshl.edu/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Cold+Spring+Harbor+Laboratory/@40.8580545,-73.4669315,15z/data=!4m5!3m4!1s0x0:0xfcd58807ef419c9a!8m2!3d40.8580545!4d-73.4669315</t>
+  </si>
+  <si>
+    <t>Quebec City</t>
+  </si>
+  <si>
+    <t>Universite Laval</t>
+  </si>
+  <si>
+    <t>https://neuro.ulaval.ca/en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Laval+University/@46.7817463,-71.2769311,17z/data=!3m1!4b1!4m5!3m4!1s0x4cb896c469ff32f9:0x15feb853bd2f8247!8m2!3d46.7817463!4d-71.2747424</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>University of Melbourne</t>
+  </si>
+  <si>
+    <t>https://biomedicalsciences.unimelb.edu.au/departments/archived-departments/anatomy-and-neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Melbourne/@-37.8022246,144.9564389,15z/data=!4m8!1m2!2m1!1suniversity+of+melbourne+neuroscience!3m4!1s0x6ad642d45c07254b:0xeacb63e2b725ff6d!8m2!3d-37.7983459!4d144.960974</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>University of Sydney</t>
+  </si>
+  <si>
+    <t>https://www.sydney.edu.au/brain-mind/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Brain+and+Mind+Centre/@-33.8890697,151.1763526,17z/data=!4m8!1m2!2m1!1shttps:%2F%2Fwww.sydney.edu.au%2Fbrain-mind%2F!3m4!1s0x6b12b02f077dff6f:0xeb68c38ffc383072!8m2!3d-33.8885047!4d151.1775438</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>University of Queensland Australia</t>
+  </si>
+  <si>
+    <t>https://qbi.uq.edu.au/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Queensland/@-27.497498,153.0115018,17z/data=!3m1!4b1!4m5!3m4!1s0x6b91508241eb7c49:0x9ae9946d3710eee9!8m2!3d-27.4975028!4d153.0136905</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Dunedin</t>
+  </si>
+  <si>
+    <t>Unversity of Otago</t>
+  </si>
+  <si>
+    <t>https://www.otago.ac.nz/neuroscience/index.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Otago/@-45.8646835,170.512234,17z/data=!3m1!4b1!4m5!3m4!1s0xa82eac692eec734d:0x761f754c6bfb9a70!8m2!3d-45.8646835!4d170.5144227</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Unversity of Auckland</t>
+  </si>
+  <si>
+    <t>https://www.auckland.ac.nz/en/study/study-options/find-a-study-option/biomedical-science/undergraduate/bsc-biomedical-from-2019/neuroscience.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Auckland/@-36.8523335,174.7669186,17z/data=!3m1!4b1!4m5!3m4!1s0x6d0d47e383f32253:0xbd49f61f758a9e5b!8m2!3d-36.8523378!4d174.7691073</t>
   </si>
   <si>
     <t>Medical University of South Carolina</t>
@@ -969,7 +1155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -980,13 +1166,22 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -995,11 +1190,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1022,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1041,28 +1231,31 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1343,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>26000.0</v>
+        <v>1450000.0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1375,25 +1568,25 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="4">
+        <v>1091000.0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
-        <v>1765000.0</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1416,25 +1609,25 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.3960236E7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7">
-        <v>182000.0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1457,25 +1650,25 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9700000.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>693000.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1498,25 +1691,25 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.1E7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4">
-        <v>284000.0</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1539,25 +1732,25 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.448E7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="4">
-        <v>350000.0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1580,25 +1773,25 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.1E7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>632000.0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1621,25 +1814,25 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1E7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4">
-        <v>974000.0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1662,25 +1855,25 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.485E7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4">
-        <v>125000.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1703,25 +1896,25 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8444000.0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="4">
-        <v>648000.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1743,26 +1936,26 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>26000.0</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="4">
-        <v>77000.0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1784,26 +1977,26 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="9">
+        <v>1765000.0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="4">
-        <v>2873000.0</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1826,16 +2019,16 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4">
-        <v>204234.0</v>
+        <v>303047.0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>67</v>
@@ -1866,26 +2059,26 @@
       <c r="Y14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="4">
-        <v>331577.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="11">
+        <v>182000.0</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="12" t="s">
         <v>74</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1907,25 +2100,25 @@
       <c r="Y15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="4">
-        <v>504718.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="11">
+        <v>693000.0</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="6"/>
@@ -1948,26 +2141,26 @@
       <c r="Y16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="9">
+        <v>284000.0</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="4">
-        <v>872000.0</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1989,26 +2182,26 @@
       <c r="Y17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="9">
+        <v>350000.0</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="4">
-        <v>125000.0</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2030,26 +2223,26 @@
       <c r="Y18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="9">
+        <v>632000.0</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="4">
-        <v>358000.0</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2071,25 +2264,25 @@
       <c r="Y19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="4">
-        <v>177000.0</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="9">
+        <v>974000.0</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="12" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="6"/>
@@ -2112,25 +2305,25 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="4">
-        <v>651000.0</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="9">
+        <v>125000.0</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="6"/>
@@ -2153,25 +2346,25 @@
       <c r="Y21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="4">
-        <v>3670000.0</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="9">
+        <v>648000.0</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6"/>
@@ -2194,26 +2387,26 @@
       <c r="Y22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3670000.0</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="A23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="9">
+        <v>77000.0</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>109</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2235,26 +2428,26 @@
       <c r="Y23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="4">
-        <v>140000.0</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>113</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2873000.0</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2276,26 +2469,26 @@
       <c r="Y24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="4">
-        <v>83000.0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="A25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>117</v>
+      </c>
+      <c r="D25" s="9">
+        <v>204234.0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2317,26 +2510,26 @@
       <c r="Y25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="4">
-        <v>160000.0</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="A26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>121</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="9">
+        <v>331577.0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2358,26 +2551,26 @@
       <c r="Y26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="4">
-        <v>241000.0</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>125</v>
+      <c r="A27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="9">
+        <v>504718.0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2399,26 +2592,26 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="4">
-        <v>667000.0</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>129</v>
+      <c r="A28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="9">
+        <v>872000.0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2440,26 +2633,26 @@
       <c r="Y28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="4">
-        <v>330000.0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>133</v>
+      <c r="C29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="9">
+        <v>125000.0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2481,26 +2674,26 @@
       <c r="Y29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="4">
-        <v>330000.0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>136</v>
+      <c r="A30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="9">
+        <v>358000.0</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2522,26 +2715,26 @@
       <c r="Y30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="4">
-        <v>366000.0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>140</v>
+      <c r="A31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="9">
+        <v>177000.0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2563,26 +2756,26 @@
       <c r="Y31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1400000.0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>145</v>
+      <c r="A32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="9">
+        <v>651000.0</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2604,26 +2797,26 @@
       <c r="Y32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="4">
-        <v>552000.0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>149</v>
+      <c r="A33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3670000.0</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2645,26 +2838,26 @@
       <c r="Y33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="4">
-        <v>552000.0</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>152</v>
+      <c r="A34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="9">
+        <v>3670000.0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2686,26 +2879,26 @@
       <c r="Y34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="4">
-        <v>427000.0</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>156</v>
+      <c r="C35" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="9">
+        <v>140000.0</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2727,26 +2920,26 @@
       <c r="Y35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1086000.0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>160</v>
+      <c r="A36" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="9">
+        <v>83000.0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2768,26 +2961,26 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="4">
-        <v>861365.0</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>165</v>
+      <c r="A37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="9">
+        <v>160000.0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2809,26 +3002,26 @@
       <c r="Y37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="4">
-        <v>872000.0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>168</v>
+      <c r="A38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="9">
+        <v>241000.0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2850,26 +3043,26 @@
       <c r="Y38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2161000.0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>172</v>
+      <c r="A39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="9">
+        <v>667000.0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -2891,26 +3084,26 @@
       <c r="Y39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="4">
-        <v>861365.0</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>175</v>
+      <c r="A40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="9">
+        <v>330000.0</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -2932,26 +3125,26 @@
       <c r="Y40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="4">
-        <v>8982000.0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>180</v>
+      <c r="A41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="9">
+        <v>330000.0</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -2973,26 +3166,26 @@
       <c r="Y41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="4">
-        <v>124000.0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>184</v>
+      <c r="A42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="9">
+        <v>366000.0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3014,26 +3207,26 @@
       <c r="Y42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="4">
-        <v>153000.0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>188</v>
+      <c r="A43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1400000.0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3055,26 +3248,26 @@
       <c r="Y43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="4">
-        <v>8982000.0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>191</v>
+      <c r="A44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="9">
+        <v>552000.0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3096,26 +3289,26 @@
       <c r="Y44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="4">
-        <v>518000.0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>196</v>
+      <c r="C45" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="9">
+        <v>552000.0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3137,26 +3330,26 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="4">
-        <v>545000.0</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>201</v>
+      <c r="A46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="9">
+        <v>427000.0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -3178,26 +3371,26 @@
       <c r="Y46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="4">
-        <v>100244.0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>204</v>
+      <c r="A47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="9">
+        <v>1086000.0</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -3219,26 +3412,26 @@
       <c r="Y47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="4">
-        <v>587857.0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>208</v>
+      <c r="A48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="9">
+        <v>861365.0</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3260,26 +3453,26 @@
       <c r="Y48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" s="4">
-        <v>176545.0</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>212</v>
+      <c r="A49" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="9">
+        <v>872000.0</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3301,26 +3494,26 @@
       <c r="Y49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="4">
-        <v>796273.0</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>216</v>
+      <c r="A50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2161000.0</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -3342,26 +3535,26 @@
       <c r="Y50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1780000.0</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>222</v>
+      <c r="A51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="9">
+        <v>861365.0</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -3383,26 +3576,26 @@
       <c r="Y51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="4">
-        <v>404699.0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>225</v>
+      <c r="A52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="9">
+        <v>8982000.0</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -3424,26 +3617,26 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="4">
-        <v>675218.0</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>229</v>
+      <c r="A53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="9">
+        <v>124000.0</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -3465,26 +3658,26 @@
       <c r="Y53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2930000.0</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>233</v>
+      <c r="A54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="9">
+        <v>153000.0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -3506,26 +3699,26 @@
       <c r="Y54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2930000.0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>236</v>
+      <c r="A55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="9">
+        <v>8982000.0</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -3547,26 +3740,26 @@
       <c r="Y55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="4">
-        <v>724305.0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>241</v>
+      <c r="A56" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="9">
+        <v>518000.0</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -3588,26 +3781,26 @@
       <c r="Y56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" s="4">
-        <v>67542.0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>245</v>
+      <c r="A57" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="9">
+        <v>545000.0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -3629,26 +3822,26 @@
       <c r="Y57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D58" s="4">
-        <v>49848.0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>249</v>
+      <c r="A58" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="9">
+        <v>100244.0</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -3670,26 +3863,26 @@
       <c r="Y58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="4">
-        <v>64565.0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>253</v>
+      <c r="A59" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="9">
+        <v>587857.0</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -3711,26 +3904,26 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1410000.0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>257</v>
+      <c r="A60" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="9">
+        <v>176545.0</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -3752,26 +3945,26 @@
       <c r="Y60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" s="12">
-        <v>1450000.0</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>263</v>
+      <c r="A61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="9">
+        <v>796273.0</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -3793,26 +3986,26 @@
       <c r="Y61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D62" s="12">
-        <v>1091000.0</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>267</v>
+      <c r="A62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -3834,26 +4027,26 @@
       <c r="Y62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D63" s="12">
-        <v>1.3960236E7</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>271</v>
+      <c r="A63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -3875,19 +4068,19 @@
       <c r="Y63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D64" s="12">
-        <v>9700000.0</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="A64" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>276</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -3916,26 +4109,26 @@
       <c r="Y64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="F65" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D65" s="12">
-        <v>2.1E7</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="G65" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -3957,19 +4150,19 @@
       <c r="Y65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="A66" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D66" s="12">
-        <v>2.448E7</v>
-      </c>
-      <c r="E66" s="13" t="s">
+      <c r="D66" s="9">
+        <v>1780000.0</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>285</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -3998,26 +4191,26 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="A67" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="9">
+        <v>404699.0</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D67" s="12">
-        <v>2.1E7</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="F67" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4039,26 +4232,26 @@
       <c r="Y67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="11" t="s">
+      <c r="A68" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="9">
+        <v>675218.0</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D68" s="12">
-        <v>1.1E7</v>
-      </c>
-      <c r="E68" s="13" t="s">
+      <c r="F68" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4080,13 +4273,27 @@
       <c r="Y68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="A69" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2930000.0</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -4107,13 +4314,27 @@
       <c r="Y69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="A70" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2930000.0</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -4134,13 +4355,27 @@
       <c r="Y70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="A71" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="9">
+        <v>724305.0</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -4161,13 +4396,27 @@
       <c r="Y71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="A72" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="9">
+        <v>67542.0</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -4188,13 +4437,27 @@
       <c r="Y72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="A73" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="9">
+        <v>49848.0</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -4215,13 +4478,27 @@
       <c r="Y73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="A74" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="9">
+        <v>64565.0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -4242,13 +4519,27 @@
       <c r="Y74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="A75" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1410000.0</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -4269,13 +4560,27 @@
       <c r="Y75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="A76" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="4">
+        <v>92730.0</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -4296,13 +4601,27 @@
       <c r="Y76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="A77" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4932.0</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -4323,13 +4642,27 @@
       <c r="Y77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="A78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="4">
+        <v>542298.0</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -4350,13 +4683,27 @@
       <c r="Y78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="A79" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" s="4">
+        <v>5078000.0</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -4377,13 +4724,27 @@
       <c r="Y79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="A80" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5312000.0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -4404,13 +4765,27 @@
       <c r="Y80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="A81" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2280000.0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -4431,13 +4806,27 @@
       <c r="Y81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="A82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D82" s="4">
+        <v>126255.0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -4458,13 +4847,27 @@
       <c r="Y82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="A83" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1657000.0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -4490,7 +4893,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -28564,7 +28967,7 @@
     <hyperlink r:id="rId100" ref="G51"/>
     <hyperlink r:id="rId101" ref="F52"/>
     <hyperlink r:id="rId102" ref="G52"/>
-    <hyperlink r:id="rId103" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F53"/>
+    <hyperlink r:id="rId103" ref="F53"/>
     <hyperlink r:id="rId104" ref="G53"/>
     <hyperlink r:id="rId105" ref="F54"/>
     <hyperlink r:id="rId106" ref="G54"/>
@@ -28594,10 +28997,40 @@
     <hyperlink r:id="rId130" ref="G66"/>
     <hyperlink r:id="rId131" ref="F67"/>
     <hyperlink r:id="rId132" ref="G67"/>
-    <hyperlink r:id="rId133" ref="F68"/>
+    <hyperlink r:id="rId133" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F68"/>
     <hyperlink r:id="rId134" ref="G68"/>
+    <hyperlink r:id="rId135" ref="F69"/>
+    <hyperlink r:id="rId136" ref="G69"/>
+    <hyperlink r:id="rId137" ref="F70"/>
+    <hyperlink r:id="rId138" ref="G70"/>
+    <hyperlink r:id="rId139" ref="F71"/>
+    <hyperlink r:id="rId140" ref="G71"/>
+    <hyperlink r:id="rId141" ref="F72"/>
+    <hyperlink r:id="rId142" ref="G72"/>
+    <hyperlink r:id="rId143" ref="F73"/>
+    <hyperlink r:id="rId144" ref="G73"/>
+    <hyperlink r:id="rId145" ref="F74"/>
+    <hyperlink r:id="rId146" ref="G74"/>
+    <hyperlink r:id="rId147" ref="F75"/>
+    <hyperlink r:id="rId148" ref="G75"/>
+    <hyperlink r:id="rId149" ref="F76"/>
+    <hyperlink r:id="rId150" ref="G76"/>
+    <hyperlink r:id="rId151" ref="F77"/>
+    <hyperlink r:id="rId152" ref="G77"/>
+    <hyperlink r:id="rId153" ref="F78"/>
+    <hyperlink r:id="rId154" ref="G78"/>
+    <hyperlink r:id="rId155" ref="F79"/>
+    <hyperlink r:id="rId156" ref="G79"/>
+    <hyperlink r:id="rId157" ref="F80"/>
+    <hyperlink r:id="rId158" ref="G80"/>
+    <hyperlink r:id="rId159" ref="F81"/>
+    <hyperlink r:id="rId160" ref="G81"/>
+    <hyperlink r:id="rId161" ref="F82"/>
+    <hyperlink r:id="rId162" ref="G82"/>
+    <hyperlink r:id="rId163" ref="F83"/>
+    <hyperlink r:id="rId164" ref="G83"/>
   </hyperlinks>
-  <drawing r:id="rId135"/>
+  <drawing r:id="rId165"/>
 </worksheet>
 </file>
 
@@ -28615,163 +29048,163 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>296</v>
+      <c r="A1" s="8" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>297</v>
+      <c r="A2" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>127</v>
+      <c r="A3" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>298</v>
+      <c r="A4" s="8" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
+      <c r="A5" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>299</v>
+      <c r="A6" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>178</v>
+      <c r="A7" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>300</v>
+      <c r="A8" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>301</v>
+      <c r="A9" s="8" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>302</v>
+      <c r="A10" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>303</v>
+      <c r="A11" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>304</v>
+      <c r="A12" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>63</v>
+      <c r="A13" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>305</v>
+      <c r="A14" s="8" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>306</v>
+      <c r="A15" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>307</v>
+      <c r="A16" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>308</v>
+      <c r="A17" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>309</v>
+      <c r="A18" s="8" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>310</v>
+      <c r="A19" s="8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>311</v>
+      <c r="A20" s="8" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>157</v>
+      <c r="A21" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>312</v>
+      <c r="A22" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
+      <c r="A23" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>182</v>
+      <c r="A24" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>313</v>
+      <c r="A25" s="8" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>163</v>
+      <c r="A26" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>314</v>
+      <c r="A27" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>315</v>
+      <c r="A28" s="8" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>170</v>
+      <c r="A29" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>173</v>
+      <c r="A30" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>185</v>
+      <c r="A31" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>316</v>
+      <c r="A32" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="383">
   <si>
     <t>Region</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Champalimaud+Foundation/@38.6932032,-9.2208869,15z/data=!4m2!3m1!1s0x0:0x93b51451a062a591?sa=X&amp;ved=2ahUKEwj0rNKW277vAhVLxIsKHecMCAIQ_BIwEnoECCMQBQ</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Instituto Cajal</t>
+  </si>
+  <si>
+    <t>http://www.cajal.csic.es/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Cajal+Institute/@40.4482422,-3.6802321,15z/data=!4m2!3m1!1s0x0:0xb35f154ebd25a71?sa=X&amp;ved=2ahUKEwjs8sbG9b_vAhUMxosKHfZKDZUQ_BIwEnoECCAQBQ</t>
   </si>
   <si>
     <t>Europe, West</t>
@@ -1166,14 +1178,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1187,6 +1198,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1231,28 +1243,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1936,19 +1948,19 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>26000.0</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1977,19 +1989,19 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>1765000.0</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2024,7 +2036,7 @@
       <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4">
@@ -2059,25 +2071,25 @@
       <c r="Y14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>182000.0</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="6"/>
@@ -2100,25 +2112,25 @@
       <c r="Y15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>693000.0</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="6"/>
@@ -2141,19 +2153,19 @@
       <c r="Y16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>284000.0</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2182,25 +2194,25 @@
       <c r="Y17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <v>350000.0</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="6"/>
@@ -2223,25 +2235,25 @@
       <c r="Y18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>632000.0</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="6"/>
@@ -2264,25 +2276,25 @@
       <c r="Y19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>974000.0</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="6"/>
@@ -2305,25 +2317,25 @@
       <c r="Y20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <v>125000.0</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="6"/>
@@ -2346,25 +2358,25 @@
       <c r="Y21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="4">
         <v>648000.0</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6"/>
@@ -2387,19 +2399,19 @@
       <c r="Y22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <v>77000.0</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -2428,19 +2440,19 @@
       <c r="Y23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="4">
         <v>2873000.0</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -2469,19 +2481,19 @@
       <c r="Y24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>204234.0</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -2510,19 +2522,19 @@
       <c r="Y25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="4">
         <v>331577.0</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2551,19 +2563,19 @@
       <c r="Y26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="4">
         <v>504718.0</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2592,26 +2604,26 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="D28" s="12">
+        <v>3223000.0</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="9">
-        <v>872000.0</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2633,25 +2645,25 @@
       <c r="Y28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="9">
-        <v>125000.0</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="4">
+        <v>872000.0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>140</v>
       </c>
       <c r="H29" s="6"/>
@@ -2674,25 +2686,25 @@
       <c r="Y29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="9">
-        <v>358000.0</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="4">
+        <v>125000.0</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="10" t="s">
         <v>144</v>
       </c>
       <c r="H30" s="6"/>
@@ -2715,25 +2727,25 @@
       <c r="Y30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="9">
-        <v>177000.0</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="4">
+        <v>358000.0</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>148</v>
       </c>
       <c r="H31" s="6"/>
@@ -2756,25 +2768,25 @@
       <c r="Y31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="9">
-        <v>651000.0</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="4">
+        <v>177000.0</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>152</v>
       </c>
       <c r="H32" s="6"/>
@@ -2797,26 +2809,26 @@
       <c r="Y32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="4">
+        <v>651000.0</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="9">
-        <v>3670000.0</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2838,26 +2850,26 @@
       <c r="Y33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="A34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="4">
         <v>3670000.0</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>160</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2879,25 +2891,25 @@
       <c r="Y34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="9">
-        <v>140000.0</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3670000.0</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="10" t="s">
         <v>164</v>
       </c>
       <c r="H35" s="6"/>
@@ -2920,25 +2932,25 @@
       <c r="Y35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="A36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="9">
-        <v>83000.0</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="4">
+        <v>140000.0</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>168</v>
       </c>
       <c r="H36" s="6"/>
@@ -2961,25 +2973,25 @@
       <c r="Y36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="A37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="9">
-        <v>160000.0</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="4">
+        <v>83000.0</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>172</v>
       </c>
       <c r="H37" s="6"/>
@@ -3002,25 +3014,25 @@
       <c r="Y37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="9">
-        <v>241000.0</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="4">
+        <v>160000.0</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="10" t="s">
         <v>176</v>
       </c>
       <c r="H38" s="6"/>
@@ -3043,25 +3055,25 @@
       <c r="Y38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="A39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="9">
-        <v>667000.0</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="4">
+        <v>241000.0</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="10" t="s">
         <v>180</v>
       </c>
       <c r="H39" s="6"/>
@@ -3084,25 +3096,25 @@
       <c r="Y39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="9">
-        <v>330000.0</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="4">
+        <v>667000.0</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>184</v>
       </c>
       <c r="H40" s="6"/>
@@ -3125,26 +3137,26 @@
       <c r="Y40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="9">
+      <c r="A41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="4">
         <v>330000.0</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E41" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>187</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3166,25 +3178,25 @@
       <c r="Y41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="9">
-        <v>366000.0</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="4">
+        <v>330000.0</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="10" t="s">
         <v>191</v>
       </c>
       <c r="H42" s="6"/>
@@ -3207,26 +3219,26 @@
       <c r="Y42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="4">
+        <v>366000.0</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="9">
-        <v>1400000.0</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="F43" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="G43" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3248,25 +3260,25 @@
       <c r="Y43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="9">
-        <v>552000.0</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="4">
+        <v>1400000.0</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="10" t="s">
         <v>200</v>
       </c>
       <c r="H44" s="6"/>
@@ -3289,26 +3301,26 @@
       <c r="Y44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="9">
+      <c r="A45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="4">
         <v>552000.0</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>203</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3330,25 +3342,25 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="9">
-        <v>427000.0</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="A46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="4">
+        <v>552000.0</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>207</v>
       </c>
       <c r="H46" s="6"/>
@@ -3371,25 +3383,25 @@
       <c r="Y46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="A47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D47" s="9">
-        <v>1086000.0</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="4">
+        <v>427000.0</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="10" t="s">
         <v>211</v>
       </c>
       <c r="H47" s="6"/>
@@ -3412,26 +3424,26 @@
       <c r="Y47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="4">
+        <v>1086000.0</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="9">
-        <v>861365.0</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3453,26 +3465,26 @@
       <c r="Y48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="9">
-        <v>872000.0</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="A49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="D49" s="4">
+        <v>861365.0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3494,19 +3506,19 @@
       <c r="Y49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="9">
-        <v>2161000.0</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="A50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="4">
+        <v>872000.0</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -3535,26 +3547,26 @@
       <c r="Y50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="9">
-        <v>861365.0</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="A51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>224</v>
       </c>
+      <c r="D51" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -3576,26 +3588,26 @@
       <c r="Y51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="4">
+        <v>861365.0</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="9">
-        <v>8982000.0</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -3617,19 +3629,19 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="A53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="9">
-        <v>124000.0</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="4">
+        <v>8982000.0</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>233</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -3658,19 +3670,19 @@
       <c r="Y53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="9">
-        <v>153000.0</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="4">
+        <v>124000.0</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -3699,26 +3711,26 @@
       <c r="Y54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="9">
-        <v>8982000.0</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="A55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D55" s="4">
+        <v>153000.0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -3740,26 +3752,26 @@
       <c r="Y55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="4">
+        <v>8982000.0</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="9">
-        <v>518000.0</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -3781,26 +3793,26 @@
       <c r="Y56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="4">
+        <v>518000.0</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="9">
-        <v>545000.0</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -3822,26 +3834,26 @@
       <c r="Y57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="4">
+        <v>545000.0</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D58" s="9">
-        <v>100244.0</v>
-      </c>
-      <c r="E58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -3863,19 +3875,19 @@
       <c r="Y58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="A59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D59" s="9">
-        <v>587857.0</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="4">
+        <v>100244.0</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -3904,19 +3916,19 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D60" s="9">
-        <v>176545.0</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="D60" s="4">
+        <v>587857.0</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -3945,19 +3957,19 @@
       <c r="Y60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="A61" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D61" s="9">
-        <v>796273.0</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="D61" s="4">
+        <v>176545.0</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -3987,25 +3999,25 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="D62" s="4">
-        <v>2161000.0</v>
+        <v>796273.0</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -4028,25 +4040,25 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D63" s="4">
         <v>2161000.0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -4069,25 +4081,25 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D64" s="4">
         <v>2161000.0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -4110,25 +4122,25 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D65" s="4">
         <v>2161000.0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -4150,26 +4162,26 @@
       <c r="Y65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="A66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="F66" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D66" s="9">
-        <v>1780000.0</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="G66" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -4191,26 +4203,26 @@
       <c r="Y66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="9">
-        <v>404699.0</v>
-      </c>
-      <c r="E67" s="8" t="s">
+      <c r="A67" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="D67" s="4">
+        <v>1780000.0</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="F67" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4232,19 +4244,19 @@
       <c r="Y67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" s="9">
-        <v>675218.0</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="A68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="4">
+        <v>404699.0</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>292</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -4273,19 +4285,19 @@
       <c r="Y68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="A69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="9">
-        <v>2930000.0</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="4">
+        <v>675218.0</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>296</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -4314,26 +4326,26 @@
       <c r="Y69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="A70" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="4">
         <v>2930000.0</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>299</v>
+      <c r="E70" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4355,26 +4367,26 @@
       <c r="Y70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="A71" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2930000.0</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D71" s="9">
-        <v>724305.0</v>
-      </c>
-      <c r="E71" s="8" t="s">
+      <c r="F71" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4396,19 +4408,19 @@
       <c r="Y71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="A72" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="9">
-        <v>67542.0</v>
-      </c>
-      <c r="E72" s="8" t="s">
+      <c r="D72" s="4">
+        <v>724305.0</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>308</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -4437,19 +4449,19 @@
       <c r="Y72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="A73" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D73" s="9">
-        <v>49848.0</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="4">
+        <v>67542.0</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>312</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -4478,19 +4490,19 @@
       <c r="Y73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D74" s="9">
-        <v>64565.0</v>
-      </c>
-      <c r="E74" s="8" t="s">
+      <c r="D74" s="4">
+        <v>49848.0</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>316</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -4519,19 +4531,19 @@
       <c r="Y74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="A75" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D75" s="9">
-        <v>1410000.0</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="D75" s="4">
+        <v>64565.0</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>320</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -4561,16 +4573,16 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>323</v>
       </c>
       <c r="D76" s="4">
-        <v>92730.0</v>
+        <v>1410000.0</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>324</v>
@@ -4602,18 +4614,18 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D77" s="4">
-        <v>4932.0</v>
-      </c>
-      <c r="E77" s="13" t="s">
+        <v>92730.0</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>328</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -4643,18 +4655,18 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D78" s="4">
-        <v>542298.0</v>
-      </c>
-      <c r="E78" s="3" t="s">
+        <v>4932.0</v>
+      </c>
+      <c r="E78" s="13" t="s">
         <v>332</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -4684,25 +4696,25 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="D79" s="4">
+        <v>542298.0</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="F79" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D79" s="4">
-        <v>5078000.0</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="G79" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -4725,16 +4737,16 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>341</v>
       </c>
       <c r="D80" s="4">
-        <v>5312000.0</v>
+        <v>5078000.0</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>342</v>
@@ -4766,21 +4778,21 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>345</v>
       </c>
       <c r="D81" s="4">
-        <v>2280000.0</v>
+        <v>5312000.0</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="5" t="s">
         <v>347</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -4807,25 +4819,25 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="4">
+        <v>2280000.0</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D82" s="4">
-        <v>126255.0</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4848,16 +4860,16 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>354</v>
       </c>
       <c r="D83" s="4">
-        <v>1657000.0</v>
+        <v>126255.0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>355</v>
@@ -4888,13 +4900,27 @@
       <c r="Y83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="6"/>
+      <c r="A84" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1657000.0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -28997,9 +29023,9 @@
     <hyperlink r:id="rId130" ref="G66"/>
     <hyperlink r:id="rId131" ref="F67"/>
     <hyperlink r:id="rId132" ref="G67"/>
-    <hyperlink r:id="rId133" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F68"/>
+    <hyperlink r:id="rId133" ref="F68"/>
     <hyperlink r:id="rId134" ref="G68"/>
-    <hyperlink r:id="rId135" ref="F69"/>
+    <hyperlink r:id="rId135" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F69"/>
     <hyperlink r:id="rId136" ref="G69"/>
     <hyperlink r:id="rId137" ref="F70"/>
     <hyperlink r:id="rId138" ref="G70"/>
@@ -29029,8 +29055,10 @@
     <hyperlink r:id="rId162" ref="G82"/>
     <hyperlink r:id="rId163" ref="F83"/>
     <hyperlink r:id="rId164" ref="G83"/>
+    <hyperlink r:id="rId165" ref="F84"/>
+    <hyperlink r:id="rId166" ref="G84"/>
   </hyperlinks>
-  <drawing r:id="rId165"/>
+  <drawing r:id="rId167"/>
 </worksheet>
 </file>
 
@@ -29048,163 +29076,163 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>358</v>
+      <c r="A1" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>359</v>
+      <c r="A2" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>178</v>
+      <c r="A3" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>360</v>
+      <c r="A4" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>361</v>
+      <c r="A6" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>229</v>
+      <c r="A7" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>362</v>
+      <c r="A8" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>363</v>
+      <c r="A9" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>364</v>
+      <c r="A10" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>365</v>
+      <c r="A11" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>366</v>
+      <c r="A12" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>367</v>
+      <c r="A14" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>368</v>
+      <c r="A15" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>369</v>
+      <c r="A16" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>370</v>
+      <c r="A17" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>371</v>
+      <c r="A18" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>372</v>
+      <c r="A19" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>373</v>
+      <c r="A20" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>208</v>
+      <c r="A21" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>374</v>
+      <c r="A22" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>233</v>
+      <c r="A24" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>375</v>
+      <c r="A25" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>214</v>
+      <c r="A26" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>376</v>
+      <c r="A27" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>377</v>
+      <c r="A28" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>221</v>
+      <c r="A29" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>224</v>
+      <c r="A30" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>236</v>
+      <c r="A31" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>378</v>
+      <c r="A32" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="411">
   <si>
     <t>Region</t>
   </si>
@@ -206,7 +206,7 @@
     <t>http://en.nencki.gov.pl/</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/Instytut+Biologii+Do%C5%9Bwiadczalnej+im.+M.+Nenckiego+PAN/@52.2135238,12.0178049,5z/data=!4m5!3m4!1s0x471eccbba32cb2fd:0xc39abac296669a11!8m2!3d52.2135238!4d20.982649</t>
+    <t>https://www.google.com/maps/place/Instytut+Biologii+Do%C5%9Bwiadczalnej+im.+M.+Nenckiego+PAN/@52.2110362,20.9728031,14.3z/data=!4m5!3m4!1s0x471eccbba32cb2fd:0xc39abac296669a11!8m2!3d52.2135238!4d20.982649</t>
   </si>
   <si>
     <t>Romania</t>
@@ -419,6 +419,39 @@
     <t>https://www.google.com/maps/place/Cajal+Institute/@40.4482422,-3.6802321,15z/data=!4m2!3m1!1s0x0:0xb35f154ebd25a71?sa=X&amp;ved=2ahUKEwjs8sbG9b_vAhUMxosKHfZKDZUQ_BIwEnoECCAQBQ</t>
   </si>
   <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Institute of Neurosciences of the Universitat de Barcelona</t>
+  </si>
+  <si>
+    <t>http://www.neurociencies.ub.edu/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Institut+de+Neuroci%C3%A8ncies+UB/@41.3666385,2.0074672,10.71z/data=!4m8!1m2!2m1!1sbarcelona+neuroscience!3m4!1s0x12a497e1095cf723:0xd374fec544f41eb5!8m2!3d41.4379815!4d2.1423265</t>
+  </si>
+  <si>
+    <t>Seville</t>
+  </si>
+  <si>
+    <t>The Neuroscience Institute at Seville</t>
+  </si>
+  <si>
+    <t>https://www.eni-net.org/organizations/the-neuroscience-institute-at-seville/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Edificio+de+Laboratorios/@37.3628046,-5.9817699,17z/data=!3m1!4b1!4m5!3m4!1s0xd126e811e8c805f:0xe2a613f9a9b3975!8m2!3d37.3628004!4d-5.9795812</t>
+  </si>
+  <si>
+    <t>Sapienza University of Rome</t>
+  </si>
+  <si>
+    <t>https://www.uniroma1.it/it/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sapienza+University+of+Rome/@41.9037626,12.5144384,15z/data=!4m5!3m4!1s0x0:0xed5342b156dcfd2b!8m2!3d41.9037626!4d12.5144384</t>
+  </si>
+  <si>
     <t>Europe, West</t>
   </si>
   <si>
@@ -674,7 +707,7 @@
     <t>https://ins-amu.fr/</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/Aix-Marseille+University/@43.3046016,5.3300702,12z/data=!4m8!1m2!2m1!1sINSERM+%2F+Aix+Marseille+University!3m4!1s0x12c9c0b696d100c7:0x13ac2e4070d9afb1!8m2!3d43.2922073!4d5.3591227</t>
+    <t>https://www.google.com/maps/place/Facult%C3%A9+des+Sciences+M%C3%A9dicales+et+Param%C3%A9dicales+secteur+Timone+(Aix-Marseille+Universit%C3%A9)/@43.2889617,5.3985376,17z/data=!3m1!4b1!4m5!3m4!1s0x12c9bf507bee73e9:0x2471a02cbbd524fe!8m2!3d43.2889617!4d5.4007263</t>
   </si>
   <si>
     <t>Vrije Universiteit Amsterdam</t>
@@ -872,6 +905,45 @@
     <t>https://www.google.com/maps/place/Universit%C3%A9+de+Paris+Campus+-+Saint-Germain-des-Pr%C3%A9s/@48.8549422,2.3268385,15.71z/data=!4m5!3m4!1s0x47e671d7c324482b:0x5cd6e016f2621760!8m2!3d48.8558061!4d2.331577</t>
   </si>
   <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
+    <t>https://www.cardiff.ac.uk/neuroscience-mental-health/research</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Cardiff+University/@51.4814204,-3.184425,14.41z/data=!4m8!1m2!2m1!1scardiff+neuroscience!3m4!1s0x0:0xe06dc7099e7122ca!8m2!3d51.4866276!4d-3.1788683</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>University of Bristol</t>
+  </si>
+  <si>
+    <t>http://www.bristol.ac.uk/neuroscience/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Bristol/@51.4584074,-2.6037595,18.18z/data=!4m5!3m4!1s0x48718ddbdfd292fb:0x2f0b60f89b4b6d56!8m2!3d51.4584172!4d-2.6029792</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>University of Swansea</t>
+  </si>
+  <si>
+    <t>https://www.swansea.ac.uk/psychology/research-at-the-department-of-psychology/cognitive-neuroscience/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Swansea+University/@51.6079027,-3.9847985,14.5z/data=!4m8!1m2!2m1!1sswansea+neuroscience!3m4!1s0x0:0xa2f023ec6b323e44!8m2!3d51.6092191!4d-3.9799529</t>
+  </si>
+  <si>
     <t>North America</t>
   </si>
   <si>
@@ -1098,6 +1170,18 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/The+University+of+Auckland/@-36.8523335,174.7669186,17z/data=!3m1!4b1!4m5!3m4!1s0x6d0d47e383f32253:0xbd49f61f758a9e5b!8m2!3d-36.8523378!4d174.7691073</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>National Neuroscience Institute</t>
+  </si>
+  <si>
+    <t>https://www.nni.com.sg/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/National+Neuroscience+Institute/@1.3220806,103.8455558,15z/data=!4m5!3m4!1s0x0:0x25a50827aaf564a!8m2!3d1.3220806!4d103.8455558</t>
   </si>
   <si>
     <t>Medical University of South Carolina</t>
@@ -1167,7 +1251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1189,6 +1273,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1224,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1249,26 +1337,29 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2007,7 +2098,7 @@
       <c r="F13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="8" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="6"/>
@@ -2036,7 +2127,7 @@
       <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4">
@@ -2080,16 +2171,16 @@
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>182000.0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="6"/>
@@ -2121,16 +2212,16 @@
       <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>693000.0</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="6"/>
@@ -2209,10 +2300,10 @@
       <c r="E18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="6"/>
@@ -2250,10 +2341,10 @@
       <c r="E19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="6"/>
@@ -2291,10 +2382,10 @@
       <c r="E20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="6"/>
@@ -2332,10 +2423,10 @@
       <c r="E21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="6"/>
@@ -2373,10 +2464,10 @@
       <c r="E22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6"/>
@@ -2604,19 +2695,19 @@
       <c r="Y27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="4">
         <v>3223000.0</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2646,25 +2737,25 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D29" s="12">
+        <v>1620000.0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="4">
-        <v>872000.0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2687,25 +2778,25 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="12">
+        <v>688711.0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="4">
-        <v>125000.0</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2728,25 +2819,25 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2873000.0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D31" s="4">
-        <v>358000.0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2769,25 +2860,25 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="4">
+        <v>872000.0</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="4">
-        <v>177000.0</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2810,25 +2901,25 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="4">
+        <v>125000.0</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="4">
-        <v>651000.0</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2851,25 +2942,25 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="4">
+        <v>358000.0</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="F34" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="4">
-        <v>3670000.0</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2892,25 +2983,25 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D35" s="4">
-        <v>3670000.0</v>
+        <v>177000.0</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2933,25 +3024,25 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="4">
+        <v>651000.0</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="4">
-        <v>140000.0</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2974,24 +3065,24 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D37" s="4">
-        <v>83000.0</v>
-      </c>
-      <c r="E37" s="3" t="s">
+        <v>3670000.0</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>172</v>
       </c>
       <c r="H37" s="6"/>
@@ -3015,25 +3106,25 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3670000.0</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="4">
-        <v>160000.0</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3056,25 +3147,25 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="4">
+        <v>140000.0</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="4">
-        <v>241000.0</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -3097,25 +3188,25 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="4">
+        <v>83000.0</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="4">
-        <v>667000.0</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3138,25 +3229,25 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="4">
+        <v>160000.0</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="4">
-        <v>330000.0</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3179,24 +3270,24 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D42" s="4">
-        <v>330000.0</v>
+        <v>241000.0</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="11" t="s">
         <v>191</v>
       </c>
       <c r="H42" s="6"/>
@@ -3220,24 +3311,24 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D43" s="4">
-        <v>366000.0</v>
+        <v>667000.0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>195</v>
       </c>
       <c r="H43" s="6"/>
@@ -3261,25 +3352,25 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="4">
+        <v>330000.0</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="4">
-        <v>1400000.0</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3302,25 +3393,25 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="4">
+        <v>330000.0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="4">
-        <v>552000.0</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="G45" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3343,25 +3434,25 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D46" s="4">
-        <v>552000.0</v>
+        <v>366000.0</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -3384,24 +3475,24 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D47" s="4">
-        <v>427000.0</v>
+        <v>1400000.0</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="11" t="s">
         <v>211</v>
       </c>
       <c r="H47" s="6"/>
@@ -3425,24 +3516,24 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D48" s="4">
-        <v>1086000.0</v>
+        <v>552000.0</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="11" t="s">
         <v>215</v>
       </c>
       <c r="H48" s="6"/>
@@ -3466,25 +3557,25 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="4">
+        <v>552000.0</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="F49" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="4">
-        <v>861365.0</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="G49" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3507,25 +3598,25 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="D50" s="4">
-        <v>872000.0</v>
+        <v>427000.0</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -3548,25 +3639,25 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1086000.0</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D51" s="4">
-        <v>2161000.0</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -3589,25 +3680,25 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D52" s="4">
         <v>861365.0</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -3630,25 +3721,25 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="4">
+        <v>872000.0</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="4">
-        <v>8982000.0</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -3671,25 +3762,25 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="4">
-        <v>124000.0</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -3712,25 +3803,25 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="4">
+        <v>861365.0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D55" s="4">
-        <v>153000.0</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="G55" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -3753,13 +3844,13 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D56" s="4">
         <v>8982000.0</v>
@@ -3794,25 +3885,25 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="4">
+        <v>124000.0</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="4">
-        <v>518000.0</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -3835,25 +3926,25 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="4">
+        <v>153000.0</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="F58" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D58" s="4">
-        <v>545000.0</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -3876,25 +3967,25 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="4">
+        <v>8982000.0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" s="4">
-        <v>100244.0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -3917,25 +4008,25 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="4">
+        <v>518000.0</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="D60" s="4">
-        <v>587857.0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -3958,25 +4049,25 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" s="4">
+        <v>545000.0</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D61" s="4">
-        <v>176545.0</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="G61" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -3999,25 +4090,25 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="4">
+        <v>100244.0</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D62" s="4">
-        <v>796273.0</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -4040,16 +4131,16 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="D63" s="4">
-        <v>2161000.0</v>
+        <v>587857.0</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>274</v>
@@ -4081,25 +4172,25 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="D64" s="4">
-        <v>2161000.0</v>
+        <v>176545.0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -4122,25 +4213,25 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D65" s="4">
-        <v>2161000.0</v>
+        <v>796273.0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -4163,25 +4254,25 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D66" s="4">
         <v>2161000.0</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -4204,25 +4295,25 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D67" s="4">
-        <v>1780000.0</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4245,25 +4336,25 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D68" s="4">
-        <v>404699.0</v>
+        <v>2161000.0</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4286,25 +4377,25 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="4">
-        <v>675218.0</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="G69" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -4327,25 +4418,25 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="12">
+        <v>335145.0</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="4">
-        <v>2930000.0</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="G70" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4368,25 +4459,25 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="4">
-        <v>2930000.0</v>
+        <v>301</v>
+      </c>
+      <c r="D71" s="12">
+        <v>467099.0</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4409,25 +4500,25 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="12">
+        <v>246217.0</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="4">
-        <v>724305.0</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -4450,25 +4541,25 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D73" s="4">
-        <v>67542.0</v>
+        <v>1780000.0</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -4491,16 +4582,16 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="D74" s="4">
-        <v>49848.0</v>
+        <v>404699.0</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>316</v>
@@ -4532,16 +4623,16 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D75" s="4">
-        <v>64565.0</v>
+        <v>675218.0</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>320</v>
@@ -4573,16 +4664,16 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>323</v>
       </c>
       <c r="D76" s="4">
-        <v>1410000.0</v>
+        <v>2930000.0</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>324</v>
@@ -4614,25 +4705,25 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2930000.0</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D77" s="4">
-        <v>92730.0</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -4655,18 +4746,18 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>331</v>
       </c>
       <c r="D78" s="4">
-        <v>4932.0</v>
-      </c>
-      <c r="E78" s="13" t="s">
+        <v>724305.0</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>332</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -4696,16 +4787,16 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D79" s="4">
-        <v>542298.0</v>
+        <v>67542.0</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>336</v>
@@ -4737,25 +4828,25 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="D80" s="4">
+        <v>49848.0</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="F80" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D80" s="4">
-        <v>5078000.0</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="G80" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -4778,25 +4869,25 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" s="4">
+        <v>64565.0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D81" s="4">
-        <v>5312000.0</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="G81" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -4819,25 +4910,25 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1410000.0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D82" s="4">
-        <v>2280000.0</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="G82" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4860,25 +4951,25 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" s="4">
+        <v>92730.0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="G83" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D83" s="4">
-        <v>126255.0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -4901,25 +4992,25 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4932.0</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1657000.0</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -4941,13 +5032,27 @@
       <c r="Y84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="A85" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D85" s="4">
+        <v>542298.0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -4968,13 +5073,27 @@
       <c r="Y85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="A86" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D86" s="4">
+        <v>5078000.0</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -4995,13 +5114,27 @@
       <c r="Y86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="A87" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="4">
+        <v>5312000.0</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -5022,13 +5155,27 @@
       <c r="Y87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="A88" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="4">
+        <v>2280000.0</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -5049,13 +5196,27 @@
       <c r="Y88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="A89" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D89" s="4">
+        <v>126255.0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -5076,13 +5237,27 @@
       <c r="Y89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="A90" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1657000.0</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -5103,13 +5278,27 @@
       <c r="Y90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="A91" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D91" s="12">
+        <v>5703600.0</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -29025,7 +29214,7 @@
     <hyperlink r:id="rId132" ref="G67"/>
     <hyperlink r:id="rId133" ref="F68"/>
     <hyperlink r:id="rId134" ref="G68"/>
-    <hyperlink r:id="rId135" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F69"/>
+    <hyperlink r:id="rId135" ref="F69"/>
     <hyperlink r:id="rId136" ref="G69"/>
     <hyperlink r:id="rId137" ref="F70"/>
     <hyperlink r:id="rId138" ref="G70"/>
@@ -29037,7 +29226,7 @@
     <hyperlink r:id="rId144" ref="G73"/>
     <hyperlink r:id="rId145" ref="F74"/>
     <hyperlink r:id="rId146" ref="G74"/>
-    <hyperlink r:id="rId147" ref="F75"/>
+    <hyperlink r:id="rId147" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F75"/>
     <hyperlink r:id="rId148" ref="G75"/>
     <hyperlink r:id="rId149" ref="F76"/>
     <hyperlink r:id="rId150" ref="G76"/>
@@ -29057,8 +29246,22 @@
     <hyperlink r:id="rId164" ref="G83"/>
     <hyperlink r:id="rId165" ref="F84"/>
     <hyperlink r:id="rId166" ref="G84"/>
+    <hyperlink r:id="rId167" ref="F85"/>
+    <hyperlink r:id="rId168" ref="G85"/>
+    <hyperlink r:id="rId169" ref="F86"/>
+    <hyperlink r:id="rId170" ref="G86"/>
+    <hyperlink r:id="rId171" ref="F87"/>
+    <hyperlink r:id="rId172" ref="G87"/>
+    <hyperlink r:id="rId173" ref="F88"/>
+    <hyperlink r:id="rId174" ref="G88"/>
+    <hyperlink r:id="rId175" ref="F89"/>
+    <hyperlink r:id="rId176" ref="G89"/>
+    <hyperlink r:id="rId177" ref="F90"/>
+    <hyperlink r:id="rId178" ref="G90"/>
+    <hyperlink r:id="rId179" ref="F91"/>
+    <hyperlink r:id="rId180" ref="G91"/>
   </hyperlinks>
-  <drawing r:id="rId167"/>
+  <drawing r:id="rId181"/>
 </worksheet>
 </file>
 
@@ -29077,22 +29280,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
@@ -29102,37 +29305,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
@@ -29142,47 +29345,47 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23">
@@ -29192,47 +29395,47 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="416">
   <si>
     <t>Region</t>
   </si>
@@ -38,6 +38,57 @@
     <t>Asia, East</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Chinese Institute For Brain Research</t>
+  </si>
+  <si>
+    <t>http://en.cibr.ac.cn/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/China+International+Institute+of+Neuroscience/@39.8770921,116.3832055,13z/data=!4m8!1m2!2m1!1sChina+international+neuroscience!3m4!1s0x35f04d8532f9420d:0x8809df9b11eaf3e0!8m2!3d39.889762!4d116.362423</t>
+  </si>
+  <si>
+    <t>Peking</t>
+  </si>
+  <si>
+    <t>Peking University</t>
+  </si>
+  <si>
+    <t>http://nri.bjmu.edu.cn/english/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Peking+University/@39.986913,116.270855,13z/data=!4m8!1m2!2m1!1speking+neuroscience!3m4!1s0x35f0514b0d02a275:0x7bc19cd881ca04cb!8m2!3d39.986913!4d116.3058739</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Shanghai Institutes for Biological Sciences</t>
+  </si>
+  <si>
+    <t>http://www.ion.ac.cn/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shanghai+Institutes+for+Biological+Sciences/@31.1622842,121.4047059,17z/data=!3m1!4b1!4m5!3m4!1s0x35b2648ea2678199:0xad8a1f12491b4bda!8m2!3d31.1622842!4d121.4068946</t>
+  </si>
+  <si>
+    <t>Wuhan</t>
+  </si>
+  <si>
+    <t>Institute for Brain Research Huazhong University of Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=Institute+for+Brain+Research+HUST&amp;safe=active&amp;sxsrf=ALeKk03AoKrlF5kLSumQE-Z5N5hJQlk1JA%3A1616256779526&amp;ei=Cx9WYOSsH47rrgT3iKnwDg&amp;oq=Institute+for+Brain+Research+HUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBwghEAoQoAEyBwghEAoQoAE6BggAEBYQHjoICCEQFhAdEB46BQghEKABUNIfWJwnYKUsaABwAngAgAGPAogBzQeSAQUwLjMuMpgBAKABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwik3tXZob_vAhWOtYsKHXdECu4Q4dUDCA4&amp;uact=5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Institute+for+Brain+Research+Huazhong+University+of+Science+%26+Technology/@30.4571118,113.8488827,9.81z/data=!4m5!3m4!1s0x342eae8ccf356c79:0x8111a528d9ebb80b!8m2!3d30.580727!4d114.26218</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -92,63 +143,24 @@
     <t>https://www.google.com/maps/place/Seoul+National+University/@37.4565095,126.9321611,14z/data=!4m8!1m2!2m1!1sNeuroscience+Research+Institute,+SNU!3m4!1s0x357c9fe8a0a1e2a5:0xa1e2eebc04f0c5e7!8m2!3d37.4565095!4d126.9500385</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Peking</t>
-  </si>
-  <si>
-    <t>Peking University</t>
-  </si>
-  <si>
-    <t>http://nri.bjmu.edu.cn/english/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Peking+University/@39.986913,116.270855,13z/data=!4m8!1m2!2m1!1speking+neuroscience!3m4!1s0x35f0514b0d02a275:0x7bc19cd881ca04cb!8m2!3d39.986913!4d116.3058739</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Shanghai Institutes for Biological Sciences</t>
-  </si>
-  <si>
-    <t>http://www.ion.ac.cn/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Shanghai+Institutes+for+Biological+Sciences/@31.1622842,121.4047059,17z/data=!3m1!4b1!4m5!3m4!1s0x35b2648ea2678199:0xad8a1f12491b4bda!8m2!3d31.1622842!4d121.4068946</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Chinese Institute For Brain Research</t>
-  </si>
-  <si>
-    <t>http://en.cibr.ac.cn/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/China+International+Institute+of+Neuroscience/@39.8770921,116.3832055,13z/data=!4m8!1m2!2m1!1sChina+international+neuroscience!3m4!1s0x35f04d8532f9420d:0x8809df9b11eaf3e0!8m2!3d39.889762!4d116.362423</t>
-  </si>
-  <si>
-    <t>Wuhan</t>
-  </si>
-  <si>
-    <t>Institute for Brain Research Huazhong University of Science &amp; Technology</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=Institute+for+Brain+Research+HUST&amp;safe=active&amp;sxsrf=ALeKk03AoKrlF5kLSumQE-Z5N5hJQlk1JA%3A1616256779526&amp;ei=Cx9WYOSsH47rrgT3iKnwDg&amp;oq=Institute+for+Brain+Research+HUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBwghEAoQoAEyBwghEAoQoAE6BggAEBYQHjoICCEQFhAdEB46BQghEKABUNIfWJwnYKUsaABwAngAgAGPAogBzQeSAQUwLjMuMpgBAKABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwik3tXZob_vAhWOtYsKHXdECu4Q4dUDCA4&amp;uact=5</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Institute+for+Brain+Research+Huazhong+University+of+Science+%26+Technology/@30.4571118,113.8488827,9.81z/data=!4m5!3m4!1s0x342eae8ccf356c79:0x8111a528d9ebb80b!8m2!3d30.580727!4d114.26218</t>
-  </si>
-  <si>
     <t>Asia, South</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Indian Institute of Science</t>
+  </si>
+  <si>
+    <t>http://www.cns.iisc.ac.in/home/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Indian+Institute+of+Science/@13.0099733,77.558706,14z/data=!4m8!1m2!2m1!1sindian+institute+of+science+bangalore!3m4!1s0x3bae17d757d11bfb:0x3fc1cd64d345c13f!8m2!3d13.0218597!4d77.5671423</t>
+  </si>
+  <si>
     <t>Kolkata</t>
   </si>
   <si>
@@ -161,18 +173,6 @@
     <t>https://www.google.com/maps/place/Institute+of+Neurosciences+Kolkata/@22.5469568,88.3619186,15z/data=!4m5!3m4!1s0x0:0x2122bbd8d5525fb!8m2!3d22.5469568!4d88.3619186</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Indian Institute of Science</t>
-  </si>
-  <si>
-    <t>http://www.cns.iisc.ac.in/home/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Indian+Institute+of+Science/@13.0099733,77.558706,14z/data=!4m8!1m2!2m1!1sindian+institute+of+science+bangalore!3m4!1s0x3bae17d757d11bfb:0x3fc1cd64d345c13f!8m2!3d13.0218597!4d77.5671423</t>
-  </si>
-  <si>
     <t>Europe, Central</t>
   </si>
   <si>
@@ -227,9 +227,87 @@
     <t>Europe, North</t>
   </si>
   <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>NeuroCampus</t>
+  </si>
+  <si>
+    <t>https://neurocampus.au.dk/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/DANDRITE+-+Danish+Research+Institute+of+Translational+Neuroscience/@56.1669443,10.1932648,15z/data=!4m8!1m2!2m1!1saarhus+neuroscience!3m4!1s0x464c3fc3dfccd82d:0xbac74baeabdd3f63!8m2!3d56.167832!4d10.19449</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>University of Copenhagen</t>
+  </si>
+  <si>
+    <t>https://in.ku.dk/research-themes/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Copenhagen+University/@55.6803836,12.568622,16.49z/data=!4m5!3m4!1s0x4652530f5eee9937:0x36dad5d8cf5f96fd!8m2!3d55.6802303!4d12.5724096</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>University of Helsinki</t>
+  </si>
+  <si>
+    <t>https://www.helsinki.fi/en/hilife-neuroscience-center</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Helsinki/@60.1700613,24.9399886,15.04z/data=!4m8!1m2!2m1!1shelsinki+neuroscience!3m4!1s0x46920a2a2fe9d929:0x3e38eb919fa64762!8m2!3d60.1726348!4d24.9510419</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>University of Bergen</t>
+  </si>
+  <si>
+    <t>https://www.uib.no/en/rg/neurosci</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Bergen/@60.4081149,5.1856547,10.2z/data=!4m8!1m2!2m1!1sbergen+neuroscience!3m4!1s0x463cfeaaf308b829:0x7ad5dc29c0070c5e!8m2!3d60.3878586!4d5.3217549</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>University of Oslo</t>
+  </si>
+  <si>
+    <t>https://www.med.uio.no/imb/english/research/about/priorities/neuro-science/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Oslo/@59.940288,10.7096755,14.48z/data=!4m5!3m4!1s0x46416de68acb7953:0xdc70e34deaafd75d!8m2!3d59.9399586!4d10.7217496</t>
+  </si>
+  <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>University of Tromsø</t>
+  </si>
+  <si>
+    <t>https://en.uit.no/startsida</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/UiT+The+Arctic+University+of+Norway/@69.6798027,18.9712161,15z/data=!4m5!3m4!1s0x0:0x8e1ca840aebe3293!8m2!3d69.6798027!4d18.9712161</t>
+  </si>
+  <si>
     <t>Trondheim</t>
   </si>
   <si>
@@ -242,60 +320,21 @@
     <t>https://www.google.com/maps/place/Kavli+Institute+for+Systems+Neuroscience,+NTNU/@63.420693,10.3925233,15z/data=!4m5!3m4!1s0x0:0xf6ecd2e6763846bc!8m2!3d63.420693!4d10.3925233</t>
   </si>
   <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>University of Oslo</t>
-  </si>
-  <si>
-    <t>https://www.med.uio.no/imb/english/research/about/priorities/neuro-science/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Oslo/@59.940288,10.7096755,14.48z/data=!4m5!3m4!1s0x46416de68acb7953:0xdc70e34deaafd75d!8m2!3d59.9399586!4d10.7217496</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>University of Bergen</t>
-  </si>
-  <si>
-    <t>https://www.uib.no/en/rg/neurosci</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Bergen/@60.4081149,5.1856547,10.2z/data=!4m8!1m2!2m1!1sbergen+neuroscience!3m4!1s0x463cfeaaf308b829:0x7ad5dc29c0070c5e!8m2!3d60.3878586!4d5.3217549</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Aarhus</t>
-  </si>
-  <si>
-    <t>NeuroCampus</t>
-  </si>
-  <si>
-    <t>https://neurocampus.au.dk/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/DANDRITE+-+Danish+Research+Institute+of+Translational+Neuroscience/@56.1669443,10.1932648,15z/data=!4m8!1m2!2m1!1saarhus+neuroscience!3m4!1s0x464c3fc3dfccd82d:0xbac74baeabdd3f63!8m2!3d56.167832!4d10.19449</t>
-  </si>
-  <si>
-    <t>Copenhagen</t>
-  </si>
-  <si>
-    <t>University of Copenhagen</t>
-  </si>
-  <si>
-    <t>https://in.ku.dk/research-themes/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Copenhagen+University/@55.6803836,12.568622,16.49z/data=!4m5!3m4!1s0x4652530f5eee9937:0x36dad5d8cf5f96fd!8m2!3d55.6802303!4d12.5724096</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>Lund</t>
+  </si>
+  <si>
+    <t>Lund University</t>
+  </si>
+  <si>
+    <t>https://www.neuroscience.lu.se/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Lund+University/@55.7119513,13.2013043,17z/data=!3m1!4b1!4m5!3m4!1s0x465397cee93cef63:0x8f36836d04b3948a!8m2!3d55.7119483!4d13.203493</t>
+  </si>
+  <si>
     <t>Stockholm</t>
   </si>
   <si>
@@ -308,45 +347,6 @@
     <t>https://www.google.com/maps/place/Karolinska+University+Hospital/@59.3482931,18.0281873,17z/data=!3m1!4b1!4m5!3m4!1s0x465f9d9fb6e92823:0x2c8847e29aae5341!8m2!3d59.3482904!4d18.0303759</t>
   </si>
   <si>
-    <t>Lund</t>
-  </si>
-  <si>
-    <t>Lund University</t>
-  </si>
-  <si>
-    <t>https://www.neuroscience.lu.se/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Lund+University/@55.7119513,13.2013043,17z/data=!3m1!4b1!4m5!3m4!1s0x465397cee93cef63:0x8f36836d04b3948a!8m2!3d55.7119483!4d13.203493</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>University of Helsinki</t>
-  </si>
-  <si>
-    <t>https://www.helsinki.fi/en/hilife-neuroscience-center</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Helsinki/@60.1700613,24.9399886,15.04z/data=!4m8!1m2!2m1!1shelsinki+neuroscience!3m4!1s0x46920a2a2fe9d929:0x3e38eb919fa64762!8m2!3d60.1726348!4d24.9510419</t>
-  </si>
-  <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>University of Tromsø</t>
-  </si>
-  <si>
-    <t>https://en.uit.no/startsida</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/UiT+The+Arctic+University+of+Norway/@69.6798027,18.9712161,15z/data=!4m5!3m4!1s0x0:0x8e1ca840aebe3293!8m2!3d69.6798027!4d18.9712161</t>
-  </si>
-  <si>
     <t>Europe, South</t>
   </si>
   <si>
@@ -365,6 +365,15 @@
     <t>https://www.google.com/maps/place/EMBL+Rome/@42.085073,12.5939962,15z/data=!4m5!3m4!1s0x0:0x6372467d81070dba!8m2!3d42.085073!4d12.5939962</t>
   </si>
   <si>
+    <t>Sapienza University of Rome</t>
+  </si>
+  <si>
+    <t>https://www.uniroma1.it/it/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sapienza+University+of+Rome/@41.9037626,12.5144384,15z/data=!4m5!3m4!1s0x0:0xed5342b156dcfd2b!8m2!3d41.9037626!4d12.5144384</t>
+  </si>
+  <si>
     <t>Trieste</t>
   </si>
   <si>
@@ -377,6 +386,21 @@
     <t>https://www.google.com/maps/place/Sissa+(International+School+for+Advanced+Studies)/@45.6798192,13.7663059,15z/data=!4m8!1m2!2m1!1strieste+neuroscience!3m4!1s0x477b6b5347fa4dc3:0x6e94dec68212367b!8m2!3d45.6798192!4d13.7750606</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Champalimaud</t>
+  </si>
+  <si>
+    <t>http://first.fchampalimaud.org/en/the-foundation/champalimaud-centre-unknown/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Champalimaud+Foundation/@38.6932032,-9.2208869,15z/data=!4m2!3m1!1s0x0:0x93b51451a062a591?sa=X&amp;ved=2ahUKEwj0rNKW277vAhVLxIsKHecMCAIQ_BIwEnoECCMQBQ</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -392,19 +416,16 @@
     <t>https://www.google.com/maps/place/Instituto+de+Neurociencias/@38.3879238,-0.4362867,15z/data=!4m5!3m4!1s0x0:0x2ee8ac39090678d1!8m2!3d38.3879238!4d-0.4362867</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Lisbon</t>
-  </si>
-  <si>
-    <t>Champalimaud</t>
-  </si>
-  <si>
-    <t>http://first.fchampalimaud.org/en/the-foundation/champalimaud-centre-unknown/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Champalimaud+Foundation/@38.6932032,-9.2208869,15z/data=!4m2!3m1!1s0x0:0x93b51451a062a591?sa=X&amp;ved=2ahUKEwj0rNKW277vAhVLxIsKHecMCAIQ_BIwEnoECCMQBQ</t>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Institute of Neurosciences of the Universitat de Barcelona</t>
+  </si>
+  <si>
+    <t>http://www.neurociencies.ub.edu/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Institut+de+Neuroci%C3%A8ncies+UB/@41.3666385,2.0074672,10.71z/data=!4m8!1m2!2m1!1sbarcelona+neuroscience!3m4!1s0x12a497e1095cf723:0xd374fec544f41eb5!8m2!3d41.4379815!4d2.1423265</t>
   </si>
   <si>
     <t>Madrid</t>
@@ -419,18 +440,6 @@
     <t>https://www.google.com/maps/place/Cajal+Institute/@40.4482422,-3.6802321,15z/data=!4m2!3m1!1s0x0:0xb35f154ebd25a71?sa=X&amp;ved=2ahUKEwjs8sbG9b_vAhUMxosKHfZKDZUQ_BIwEnoECCAQBQ</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Institute of Neurosciences of the Universitat de Barcelona</t>
-  </si>
-  <si>
-    <t>http://www.neurociencies.ub.edu/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Institut+de+Neuroci%C3%A8ncies+UB/@41.3666385,2.0074672,10.71z/data=!4m8!1m2!2m1!1sbarcelona+neuroscience!3m4!1s0x12a497e1095cf723:0xd374fec544f41eb5!8m2!3d41.4379815!4d2.1423265</t>
-  </si>
-  <si>
     <t>Seville</t>
   </si>
   <si>
@@ -443,18 +452,363 @@
     <t>https://www.google.com/maps/place/Edificio+de+Laboratorios/@37.3628046,-5.9817699,17z/data=!3m1!4b1!4m5!3m4!1s0xd126e811e8c805f:0xe2a613f9a9b3975!8m2!3d37.3628004!4d-5.9795812</t>
   </si>
   <si>
-    <t>Sapienza University of Rome</t>
-  </si>
-  <si>
-    <t>https://www.uniroma1.it/it/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sapienza+University+of+Rome/@41.9037626,12.5144384,15z/data=!4m5!3m4!1s0x0:0xed5342b156dcfd2b!8m2!3d41.9037626!4d12.5144384</t>
-  </si>
-  <si>
     <t>Europe, West</t>
   </si>
   <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>ULB Neuroscience Institute</t>
+  </si>
+  <si>
+    <t>https://uni.ulb.ac.be/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Universit%C3%A9+Libre+de+Bruxelles/@50.8132102,4.3800335,17z/data=!3m1!4b1!4m5!3m4!1s0x47c3c4485d19ce43:0xe8eb9253c07c6691!8m2!3d50.8132068!4d4.3822222</t>
+  </si>
+  <si>
+    <t>Leuven</t>
+  </si>
+  <si>
+    <t>KU Leuven</t>
+  </si>
+  <si>
+    <t>https://www.kuleuven.be/kuleuven/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Katholieke+Universiteit+Leuven/@50.8779545,4.7002953,15z/data=!4m5!3m4!1s0x0:0x2cf72ac3db15442d!8m2!3d50.8779545!4d4.7002953</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>University of Bristol</t>
+  </si>
+  <si>
+    <t>http://www.bristol.ac.uk/neuroscience/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Bristol/@51.4584074,-2.6037595,18.18z/data=!4m5!3m4!1s0x48718ddbdfd292fb:0x2f0b60f89b4b6d56!8m2!3d51.4584172!4d-2.6029792</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>http://www.cam.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Cambridge/@52.2042666,0.1149085,15z/data=!4m5!3m4!1s0x0:0x21ca80abf36db5bb!8m2!3d52.2042666!4d0.1149085</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
+    <t>https://www.cardiff.ac.uk/neuroscience-mental-health/research</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Cardiff+University/@51.4814204,-3.184425,14.41z/data=!4m8!1m2!2m1!1scardiff+neuroscience!3m4!1s0x0:0xe06dc7099e7122ca!8m2!3d51.4866276!4d-3.1788683</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>King's College</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/King's+College+London/@51.5114864,-0.115997,15z/data=!4m5!3m4!1s0x0:0xb0643efb7ed0928d!8m2!3d51.5114864!4d-0.115997</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>https://www.ucl.ac.uk/research/domains/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/UCL+Institute+of+Cognitive+Neuroscience/@51.5221999,-0.1254988,17z/data=!3m1!4b1!4m5!3m4!1s0x48761b36ce873581:0xa29303ad768432d5!8m2!3d51.5221999!4d-0.1233101</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>https://www.neuroscience.ox.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Oxford/@51.710979,-1.3093672,12z/data=!4m8!1m2!2m1!1soxford+neuroscience!3m4!1s0x4876c6a9ef8c485b:0xd2ff1883a001afed!8m2!3d51.7548164!4d-1.2543668</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Bordeaux Neurocampus</t>
+  </si>
+  <si>
+    <t>https://www.bordeaux-neurocampus.fr/en/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Center+Broca+Nouvelle+Aquitaine/@44.8246349,-0.6079106,15z/data=!4m5!3m4!1s0x0:0x7e5eeebd95bcb30d!8m2!3d44.8246349!4d-0.6079106</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>INSERM / Aix Marseille University</t>
+  </si>
+  <si>
+    <t>https://ins-amu.fr/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Facult%C3%A9+des+Sciences+M%C3%A9dicales+et+Param%C3%A9dicales+secteur+Timone+(Aix-Marseille+Universit%C3%A9)/@43.2889617,5.3985376,17z/data=!3m1!4b1!4m5!3m4!1s0x12c9bf507bee73e9:0x2471a02cbbd524fe!8m2!3d43.2889617!4d5.4007263</t>
+  </si>
+  <si>
+    <t>INMED/Marseille</t>
+  </si>
+  <si>
+    <t>https://neuro-marseille.org/en/laboratories/mediterranean-neurobiology-institute/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mediterranean+Institute+of+Neurobiology/@43.2307723,5.4436183,17z/data=!4m12!1m6!3m5!1s0x12c9b9af8fa4e59d:0xf24891781c5cfd74!2sMediterranean+Institute+of+Neurobiology!8m2!3d43.2307684!4d5.445807!3m4!1s0x12c9b9af8fa4e59d:0xf24891781c5cfd74!8m2!3d43.2307684!4d5.445807</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>IPNP Paris</t>
+  </si>
+  <si>
+    <t>https://ipnp.paris5.inserm.fr/research/teams-and-projects</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Center+Psychiatry+Et+Neurosciences/@48.8274506,2.341431,15z/data=!4m2!3m1!1s0x0:0x8f4d2bc12412f5d8?sa=X&amp;ved=2ahUKEwiThd7bpb3vAhXlpIsKHW8BCKIQ_BIwDHoECB8QBQ</t>
+  </si>
+  <si>
+    <t>ENP</t>
+  </si>
+  <si>
+    <t>http://www.paris-neuroscience.fr/en/enp</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%C3%89cole+des+Neurosciences+de+Paris+%C3%8Ele-de-France/@48.8507603,2.3412757,15z/data=!4m5!3m4!1s0x0:0x121168b4967cfd03!8m2!3d48.8507603!4d2.3412757</t>
+  </si>
+  <si>
+    <t>Universite de Paris</t>
+  </si>
+  <si>
+    <t>https://u-paris.fr/en/master-in-neurosciences/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Paris/@48.8553681,2.3316655,15z/data=!4m2!3m1!1s0x0:0xd9bdd83ca3691659?sa=X&amp;ved=2ahUKEwiow9Wy5r_vAhVliYsKHUC1Ci8Q_BIwDXoECBsQBQ</t>
+  </si>
+  <si>
+    <t>Institut Pasteur</t>
+  </si>
+  <si>
+    <t>https://www.pasteur.fr/en/our-missions/research/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Pasteur+Institute/@48.8407721,2.3086963,17z/data=!3m1!4b1!4m5!3m4!1s0x47e670376abf4b5b:0xe831277d10f68655!8m2!3d48.8407686!4d2.310885</t>
+  </si>
+  <si>
+    <t>Institue Neurosciences Cognition</t>
+  </si>
+  <si>
+    <t>https://inc.parisdescartes.fr/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Universit%C3%A9+de+Paris+Campus+-+Saint-Germain-des-Pr%C3%A9s/@48.8549422,2.3268385,15.71z/data=!4m5!3m4!1s0x47e671d7c324482b:0x5cd6e016f2621760!8m2!3d48.8558061!4d2.331577</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Einstein Center Neurosciences</t>
+  </si>
+  <si>
+    <t>https://www.ecn-berlin.de/members/members.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Einstein+Center+for+Neurosciences+Berlin/@52.5275686,13.3587414,14z/data=!4m5!3m4!1s0x47a85194e33abec1:0x47c3646428cafdf7!8m2!3d52.5275654!4d13.376251</t>
+  </si>
+  <si>
+    <t>Charite Inst Neurophys</t>
+  </si>
+  <si>
+    <t>https://neurophysiologie.charite.de/en/research/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Charit%C3%A9+-+Universit%C3%A4tsmedizin+Berlin,+Campus+Benjamin+Franklin/@52.4417911,13.2853752,13z/data=!4m5!3m4!1s0x47a85a7d1783705d:0xf6d13a1adcb4376!8m2!3d52.4417879!4d13.3203941</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Ruhr University</t>
+  </si>
+  <si>
+    <t>http://www.rd.ruhr-uni-bochum.de/neuro/wiss/index.html.en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ruhr-Universit%C3%A4t+Bochum/@51.4456692,7.2265904,13z/data=!4m5!3m4!1s0x47b9203dae9f847b:0x1fb6c82e2deb6a9!8m2!3d51.4456659!4d7.2616093</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>MP Brain &amp; Behavior</t>
+  </si>
+  <si>
+    <t>https://www.imprs-brain-behavior.org/research/faculty/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/International+Max+Planck+Research+School+(IMPRS)+for+Brain+and+Behavior/@50.7042307,7.1335787,14z/data=!4m5!3m4!1s0x47bee5be14f9174b:0x1d883eecfb2d0470!8m2!3d50.7042273!4d7.1510882</t>
+  </si>
+  <si>
+    <t>Bonn Center of Neuroscience</t>
+  </si>
+  <si>
+    <t>https://bonn-neuroscience.de/bcn-member/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Center+for+Economics+and+Neuroscience/@50.7037044,7.0724915,14z/data=!4m5!3m4!1s0x47bee22df266582f:0x88f8f0bfef31d500!8m2!3d50.703701!4d7.090001</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>University of Cologne</t>
+  </si>
+  <si>
+    <t>https://zoologie.uni-koeln.de/en/research-divider/neurobiology/neurosciences-in-cologne</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Cologne/@50.9281625,6.9288193,15z/data=!4m5!3m4!1s0x0:0x21c4c1ace6430b3c!8m2!3d50.9281625!4d6.9288193</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>https://brain.mpg.de/research.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Max-Planck-Institut+f%C3%BCr+Hirnforschung/@50.1455632,8.5996383,13z/data=!4m5!3m4!1s0x41731485013c9783:0xb4349335a84d8d34!8m2!3d50.1742631!4d8.6298507</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Freiburg University</t>
+  </si>
+  <si>
+    <t>https://www.neuro.uni-freiburg.de/institutes</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Freiburg/@47.9935477,7.8284401,14z/data=!4m5!3m4!1s0x47911b7d96ce54a1:0x98fcc099eedee1ce!8m2!3d47.9935441!4d7.8459496</t>
+  </si>
+  <si>
+    <t>Goettingen</t>
+  </si>
+  <si>
+    <t>GAU-Goettingen</t>
+  </si>
+  <si>
+    <t>http://www.gpneuro.uni-goettingen.de/content/c_faculty.php</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+G%C3%B6ttingen/@51.5408149,9.9330231,16z/data=!4m5!3m4!1s0x47a4d4958453d275:0xd273b9e175d47905!8m2!3d51.5408116!4d9.9374004</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>Interdisciplinary Center for Neurosciences</t>
+  </si>
+  <si>
+    <t>https://www.uni-heidelberg.de/izn/ResearchGroups.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Heidelberg+University/@49.4191437,8.6352303,13z/data=!4m5!3m4!1s0x4797c106c668f935:0x127da0a49afc15!8m2!3d49.4191402!4d8.6702492</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>MPI for Human Cognitive and Brain Sciences</t>
+  </si>
+  <si>
+    <t>https://www.cbs.mpg.de/en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Max+Planck+Institute+for+Human+Cognitive+and+Brain+Sciences/@51.3349476,12.3867335,17z/data=!3m1!4b1!4m5!3m4!1s0x47a6f83991c1d867:0x2856dce7b35998e4!8m2!3d51.3349443!4d12.3889222</t>
+  </si>
+  <si>
+    <t>Tubingen</t>
+  </si>
+  <si>
+    <t>University Tubingen</t>
+  </si>
+  <si>
+    <t>https://uni-tuebingen.de/en/faculties/faculty-of-science/departments/biology/institutes/neurobiology/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Eberhard+Karls+University+of+T%C3%BCbingen/@48.5294817,9.0262645,14z/data=!4m5!3m4!1s0x4799e4d602c012c3:0xc7d51177246c5b39!8m2!3d48.5294782!4d9.043774</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>University of Iceland</t>
+  </si>
+  <si>
+    <t>https://www.hi.is/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Iceland+-+Nyi+gardur,+101+Reykjav%C3%ADk,+Iceland/@64.1390289,-21.9492234,16z/data=!4m2!3m1!1s0x48d60b30c8b0c3cd:0xda732d4ddc3e8f35?hl=en-NO&amp;gl=no</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>https://www.tcd.ie/Neuroscience/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Trinity+College+Dublin/@53.3437935,-6.2567603,17z/data=!3m1!4b1!4m5!3m4!1s0x48670e9b2dc78edd:0x2700fe0d8c716167!8m2!3d53.3437935!4d-6.2545716</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -470,6 +824,15 @@
     <t>https://www.google.com/maps/place/Netherlands+Institute+for+Neuroscience/@52.3051753,4.9181704,13.12z/data=!4m5!3m4!1s0x47c60b7c53416347:0xdb9ff64c4aa64389!8m2!3d52.2924742!4d4.9575557</t>
   </si>
   <si>
+    <t>Vrije Universiteit Amsterdam</t>
+  </si>
+  <si>
+    <t>https://vuweb.vu.nl/en/education/master/neurosciences</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Vrije+Universiteit+Amsterdam/@52.3337601,4.8635312,17z/data=!3m1!4b1!4m5!3m4!1s0x47c60a085c443af1:0x2df2d7a997eccd84!8m2!3d52.3337568!4d4.8657199</t>
+  </si>
+  <si>
     <t>Leiden</t>
   </si>
   <si>
@@ -482,6 +845,30 @@
     <t>https://www.google.com/maps/place/Leiden+University/@52.1576673,4.477487,15.23z/data=!4m5!3m4!1s0x47c5c6f2447daae3:0x48e9dc4f075bb167!8m2!3d52.1571485!4d4.485209</t>
   </si>
   <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Donders Institute</t>
+  </si>
+  <si>
+    <t>https://www.ru.nl/donders/research/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Donders+Centre+for+Cognition/@51.8227138,5.8571355,16z/data=!4m8!1m2!2m1!1sdonders+radboud!3m4!1s0x47c708eeef1a7ddf:0x3383a57205a4a83e!8m2!3d51.8193166!4d5.8596925</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Erasmus MC</t>
+  </si>
+  <si>
+    <t>https://neuro.nl/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Erasmus+University+Medical+Center/@51.9141188,4.4605011,13z/data=!4m8!1m2!2m1!1srotterdam+neuroscience!3m4!1s0x47c4349bd0000001:0x8491118325eb0fe6!8m2!3d51.9108848!4d4.4678541</t>
+  </si>
+  <si>
     <t>Utrecht</t>
   </si>
   <si>
@@ -494,150 +881,57 @@
     <t>https://www.google.com/maps/place/Neuroscience+%26+Cognition/@52.0884921,5.1087716,13z/data=!4m8!1m2!2m1!1sutrecht+neuroscience!3m4!1s0x47c6688517970ef7:0xf19ed5f79cd67ad6!8m2!3d52.0864602!4d5.1767407</t>
   </si>
   <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>Donders Institute</t>
-  </si>
-  <si>
-    <t>https://www.ru.nl/donders/research/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Donders+Centre+for+Cognition/@51.8227138,5.8571355,16z/data=!4m8!1m2!2m1!1sdonders+radboud!3m4!1s0x47c708eeef1a7ddf:0x3383a57205a4a83e!8m2!3d51.8193166!4d5.8596925</t>
-  </si>
-  <si>
-    <t>Rotterdam</t>
-  </si>
-  <si>
-    <t>Erasmus MC</t>
-  </si>
-  <si>
-    <t>https://neuro.nl/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Erasmus+University+Medical+Center/@51.9141188,4.4605011,13z/data=!4m8!1m2!2m1!1srotterdam+neuroscience!3m4!1s0x47c4349bd0000001:0x8491118325eb0fe6!8m2!3d51.9108848!4d4.4678541</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Einstein Center Neurosciences</t>
-  </si>
-  <si>
-    <t>https://www.ecn-berlin.de/members/members.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Einstein+Center+for+Neurosciences+Berlin/@52.5275686,13.3587414,14z/data=!4m5!3m4!1s0x47a85194e33abec1:0x47c3646428cafdf7!8m2!3d52.5275654!4d13.376251</t>
-  </si>
-  <si>
-    <t>Charite Inst Neurophys</t>
-  </si>
-  <si>
-    <t>https://neurophysiologie.charite.de/en/research/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Charit%C3%A9+-+Universit%C3%A4tsmedizin+Berlin,+Campus+Benjamin+Franklin/@52.4417911,13.2853752,13z/data=!4m5!3m4!1s0x47a85a7d1783705d:0xf6d13a1adcb4376!8m2!3d52.4417879!4d13.3203941</t>
-  </si>
-  <si>
-    <t>Goettingen</t>
-  </si>
-  <si>
-    <t>GAU-Goettingen</t>
-  </si>
-  <si>
-    <t>http://www.gpneuro.uni-goettingen.de/content/c_faculty.php</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+G%C3%B6ttingen/@51.5408149,9.9330231,16z/data=!4m5!3m4!1s0x47a4d4958453d275:0xd273b9e175d47905!8m2!3d51.5408116!4d9.9374004</t>
-  </si>
-  <si>
-    <t>Tubingen</t>
-  </si>
-  <si>
-    <t>University Tubingen</t>
-  </si>
-  <si>
-    <t>https://uni-tuebingen.de/en/faculties/faculty-of-science/departments/biology/institutes/neurobiology/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Eberhard+Karls+University+of+T%C3%BCbingen/@48.5294817,9.0262645,14z/data=!4m5!3m4!1s0x4799e4d602c012c3:0xc7d51177246c5b39!8m2!3d48.5294782!4d9.043774</t>
-  </si>
-  <si>
-    <t>Heidelberg</t>
-  </si>
-  <si>
-    <t>Interdisciplinary Center for Neurosciences</t>
-  </si>
-  <si>
-    <t>https://www.uni-heidelberg.de/izn/ResearchGroups.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Heidelberg+University/@49.4191437,8.6352303,13z/data=!4m5!3m4!1s0x4797c106c668f935:0x127da0a49afc15!8m2!3d49.4191402!4d8.6702492</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Freiburg University</t>
-  </si>
-  <si>
-    <t>https://www.neuro.uni-freiburg.de/institutes</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Freiburg/@47.9935477,7.8284401,14z/data=!4m5!3m4!1s0x47911b7d96ce54a1:0x98fcc099eedee1ce!8m2!3d47.9935441!4d7.8459496</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>MPI</t>
-  </si>
-  <si>
-    <t>https://brain.mpg.de/research.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Max-Planck-Institut+f%C3%BCr+Hirnforschung/@50.1455632,8.5996383,13z/data=!4m5!3m4!1s0x41731485013c9783:0xb4349335a84d8d34!8m2!3d50.1742631!4d8.6298507</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
-    <t>MP Brain &amp; Behavior</t>
-  </si>
-  <si>
-    <t>https://www.imprs-brain-behavior.org/research/faculty/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/International+Max+Planck+Research+School+(IMPRS)+for+Brain+and+Behavior/@50.7042307,7.1335787,14z/data=!4m5!3m4!1s0x47bee5be14f9174b:0x1d883eecfb2d0470!8m2!3d50.7042273!4d7.1510882</t>
-  </si>
-  <si>
-    <t>Bonn Center of Neuroscience</t>
-  </si>
-  <si>
-    <t>https://bonn-neuroscience.de/bcn-member/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Center+for+Economics+and+Neuroscience/@50.7037044,7.0724915,14z/data=!4m5!3m4!1s0x47bee22df266582f:0x88f8f0bfef31d500!8m2!3d50.703701!4d7.090001</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Ruhr University</t>
-  </si>
-  <si>
-    <t>http://www.rd.ruhr-uni-bochum.de/neuro/wiss/index.html.en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Ruhr-Universit%C3%A4t+Bochum/@51.4456692,7.2265904,13z/data=!4m5!3m4!1s0x47b9203dae9f847b:0x1fb6c82e2deb6a9!8m2!3d51.4456659!4d7.2616093</t>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>https://www.edinburghneuroscience.ed.ac.uk/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Edinburgh/@55.9445118,-3.1908205,17z/data=!4m8!1m2!2m1!1suniversity+of+edinburgh+neuroscience+phd!3m4!1s0x4887c786156c3b5d:0xb21928d390bbc0ee!8m2!3d55.9445158!4d-3.1892413</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Biozentrum University of Basel</t>
+  </si>
+  <si>
+    <t>https://www.biozentrum.unibas.ch/research/researchgroups/research-areas/neurobiology/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Biozentrum+University+of+Basel/@47.5639238,7.5624544,14z/data=!4m5!3m4!1s0x4791b908135df8df:0x850b8df911af1a74!8m2!3d47.5639202!4d7.5799639</t>
+  </si>
+  <si>
+    <t>FMI</t>
+  </si>
+  <si>
+    <t>https://www.fmi.ch/research-groups/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Friedrich+Miescher+Institute+for+Biomedical+Research+(FMI)/@47.5677684,7.5862484,14z/data=!4m8!1m2!2m1!1sfmi+neuroscience!3m4!1s0x4791b9bf1ea23113:0xe62d992342b87bd9!8m2!3d47.5677684!4d7.6037579</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>EPFL</t>
+  </si>
+  <si>
+    <t>https://www.epfl.ch/schools/sv/bmi/brain-mind-institute/epfl-neuro-research-groups/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/EPFL,+1015+Lausanne,+Switzerland/@46.5189902,6.5500912,14z/data=!4m5!3m4!1s0x478c30fe7ab739e3:0x6051b4607fcb144a!8m2!3d46.5189865!4d6.5676007</t>
+  </si>
+  <si>
     <t>Zurich</t>
   </si>
   <si>
@@ -650,285 +944,6 @@
     <t>https://www.google.com/maps/place/University+of+Zurich/@47.3743257,8.5422265,15z/data=!4m5!3m4!1s0x479aa09f5895858b:0xba50fa52d07edacf!8m2!3d47.3743221!4d8.5509812</t>
   </si>
   <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t>Biozentrum University of Basel</t>
-  </si>
-  <si>
-    <t>https://www.biozentrum.unibas.ch/research/researchgroups/research-areas/neurobiology/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Biozentrum+University+of+Basel/@47.5639238,7.5624544,14z/data=!4m5!3m4!1s0x4791b908135df8df:0x850b8df911af1a74!8m2!3d47.5639202!4d7.5799639</t>
-  </si>
-  <si>
-    <t>FMI</t>
-  </si>
-  <si>
-    <t>https://www.fmi.ch/research-groups/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Friedrich+Miescher+Institute+for+Biomedical+Research+(FMI)/@47.5677684,7.5862484,14z/data=!4m8!1m2!2m1!1sfmi+neuroscience!3m4!1s0x4791b9bf1ea23113:0xe62d992342b87bd9!8m2!3d47.5677684!4d7.6037579</t>
-  </si>
-  <si>
-    <t>Lausanne</t>
-  </si>
-  <si>
-    <t>EPFL</t>
-  </si>
-  <si>
-    <t>https://www.epfl.ch/schools/sv/bmi/brain-mind-institute/epfl-neuro-research-groups/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/EPFL,+1015+Lausanne,+Switzerland/@46.5189902,6.5500912,14z/data=!4m5!3m4!1s0x478c30fe7ab739e3:0x6051b4607fcb144a!8m2!3d46.5189865!4d6.5676007</t>
-  </si>
-  <si>
-    <t>Cologne</t>
-  </si>
-  <si>
-    <t>University of Cologne</t>
-  </si>
-  <si>
-    <t>https://zoologie.uni-koeln.de/en/research-divider/neurobiology/neurosciences-in-cologne</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Cologne/@50.9281625,6.9288193,15z/data=!4m5!3m4!1s0x0:0x21c4c1ace6430b3c!8m2!3d50.9281625!4d6.9288193</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>INSERM / Aix Marseille University</t>
-  </si>
-  <si>
-    <t>https://ins-amu.fr/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Facult%C3%A9+des+Sciences+M%C3%A9dicales+et+Param%C3%A9dicales+secteur+Timone+(Aix-Marseille+Universit%C3%A9)/@43.2889617,5.3985376,17z/data=!3m1!4b1!4m5!3m4!1s0x12c9bf507bee73e9:0x2471a02cbbd524fe!8m2!3d43.2889617!4d5.4007263</t>
-  </si>
-  <si>
-    <t>Vrije Universiteit Amsterdam</t>
-  </si>
-  <si>
-    <t>https://vuweb.vu.nl/en/education/master/neurosciences</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Vrije+Universiteit+Amsterdam/@52.3337601,4.8635312,17z/data=!3m1!4b1!4m5!3m4!1s0x47c60a085c443af1:0x2df2d7a997eccd84!8m2!3d52.3337568!4d4.8657199</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>IPNP Paris</t>
-  </si>
-  <si>
-    <t>https://ipnp.paris5.inserm.fr/research/teams-and-projects</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Center+Psychiatry+Et+Neurosciences/@48.8274506,2.341431,15z/data=!4m2!3m1!1s0x0:0x8f4d2bc12412f5d8?sa=X&amp;ved=2ahUKEwiThd7bpb3vAhXlpIsKHW8BCKIQ_BIwDHoECB8QBQ</t>
-  </si>
-  <si>
-    <t>INMED/Marseille</t>
-  </si>
-  <si>
-    <t>https://neuro-marseille.org/en/laboratories/mediterranean-neurobiology-institute/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mediterranean+Institute+of+Neurobiology/@43.2307723,5.4436183,17z/data=!4m12!1m6!3m5!1s0x12c9b9af8fa4e59d:0xf24891781c5cfd74!2sMediterranean+Institute+of+Neurobiology!8m2!3d43.2307684!4d5.445807!3m4!1s0x12c9b9af8fa4e59d:0xf24891781c5cfd74!8m2!3d43.2307684!4d5.445807</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>King's College</t>
-  </si>
-  <si>
-    <t>https://www.kcl.ac.uk/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/King's+College+London/@51.5114864,-0.115997,15z/data=!4m5!3m4!1s0x0:0xb0643efb7ed0928d!8m2!3d51.5114864!4d-0.115997</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>University of Cambridge</t>
-  </si>
-  <si>
-    <t>http://www.cam.ac.uk/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Cambridge/@52.2042666,0.1149085,15z/data=!4m5!3m4!1s0x0:0x21ca80abf36db5bb!8m2!3d52.2042666!4d0.1149085</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>University of Oxford</t>
-  </si>
-  <si>
-    <t>https://www.neuroscience.ox.ac.uk/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Oxford/@51.710979,-1.3093672,12z/data=!4m8!1m2!2m1!1soxford+neuroscience!3m4!1s0x4876c6a9ef8c485b:0xd2ff1883a001afed!8m2!3d51.7548164!4d-1.2543668</t>
-  </si>
-  <si>
-    <t>UCL</t>
-  </si>
-  <si>
-    <t>https://www.ucl.ac.uk/research/domains/neuroscience</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/UCL+Institute+of+Cognitive+Neuroscience/@51.5221999,-0.1254988,17z/data=!3m1!4b1!4m5!3m4!1s0x48761b36ce873581:0xa29303ad768432d5!8m2!3d51.5221999!4d-0.1233101</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>University of Edinburgh</t>
-  </si>
-  <si>
-    <t>https://www.edinburghneuroscience.ed.ac.uk/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/The+University+of+Edinburgh/@55.9445118,-3.1908205,17z/data=!4m8!1m2!2m1!1suniversity+of+edinburgh+neuroscience+phd!3m4!1s0x4887c786156c3b5d:0xb21928d390bbc0ee!8m2!3d55.9445158!4d-3.1892413</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Trinity College Dublin</t>
-  </si>
-  <si>
-    <t>https://www.tcd.ie/Neuroscience/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Trinity+College+Dublin/@53.3437935,-6.2567603,17z/data=!3m1!4b1!4m5!3m4!1s0x48670e9b2dc78edd:0x2700fe0d8c716167!8m2!3d53.3437935!4d-6.2545716</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Leuven</t>
-  </si>
-  <si>
-    <t>KU Leuven</t>
-  </si>
-  <si>
-    <t>https://www.kuleuven.be/kuleuven/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Katholieke+Universiteit+Leuven/@50.8779545,4.7002953,15z/data=!4m5!3m4!1s0x0:0x2cf72ac3db15442d!8m2!3d50.8779545!4d4.7002953</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>MPI for Human Cognitive and Brain Sciences</t>
-  </si>
-  <si>
-    <t>https://www.cbs.mpg.de/en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Max+Planck+Institute+for+Human+Cognitive+and+Brain+Sciences/@51.3349476,12.3867335,17z/data=!3m1!4b1!4m5!3m4!1s0x47a6f83991c1d867:0x2856dce7b35998e4!8m2!3d51.3349443!4d12.3889222</t>
-  </si>
-  <si>
-    <t>Brussels</t>
-  </si>
-  <si>
-    <t>ULB Neuroscience Institute</t>
-  </si>
-  <si>
-    <t>https://uni.ulb.ac.be/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Universit%C3%A9+Libre+de+Bruxelles/@50.8132102,4.3800335,17z/data=!3m1!4b1!4m5!3m4!1s0x47c3c4485d19ce43:0xe8eb9253c07c6691!8m2!3d50.8132068!4d4.3822222</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Bordeaux Neurocampus</t>
-  </si>
-  <si>
-    <t>https://www.bordeaux-neurocampus.fr/en/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Center+Broca+Nouvelle+Aquitaine/@44.8246349,-0.6079106,15z/data=!4m5!3m4!1s0x0:0x7e5eeebd95bcb30d!8m2!3d44.8246349!4d-0.6079106</t>
-  </si>
-  <si>
-    <t>ENP</t>
-  </si>
-  <si>
-    <t>http://www.paris-neuroscience.fr/en/enp</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%C3%89cole+des+Neurosciences+de+Paris+%C3%8Ele-de-France/@48.8507603,2.3412757,15z/data=!4m5!3m4!1s0x0:0x121168b4967cfd03!8m2!3d48.8507603!4d2.3412757</t>
-  </si>
-  <si>
-    <t>Universite de Paris</t>
-  </si>
-  <si>
-    <t>https://u-paris.fr/en/master-in-neurosciences/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Paris/@48.8553681,2.3316655,15z/data=!4m2!3m1!1s0x0:0xd9bdd83ca3691659?sa=X&amp;ved=2ahUKEwiow9Wy5r_vAhVliYsKHUC1Ci8Q_BIwDXoECBsQBQ</t>
-  </si>
-  <si>
-    <t>Institut Pasteur</t>
-  </si>
-  <si>
-    <t>https://www.pasteur.fr/en/our-missions/research/neuroscience</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Pasteur+Institute/@48.8407721,2.3086963,17z/data=!3m1!4b1!4m5!3m4!1s0x47e670376abf4b5b:0xe831277d10f68655!8m2!3d48.8407686!4d2.310885</t>
-  </si>
-  <si>
-    <t>Institue Neurosciences Cognition</t>
-  </si>
-  <si>
-    <t>https://inc.parisdescartes.fr/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Universit%C3%A9+de+Paris+Campus+-+Saint-Germain-des-Pr%C3%A9s/@48.8549422,2.3268385,15.71z/data=!4m5!3m4!1s0x47e671d7c324482b:0x5cd6e016f2621760!8m2!3d48.8558061!4d2.331577</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Cardiff University</t>
-  </si>
-  <si>
-    <t>https://www.cardiff.ac.uk/neuroscience-mental-health/research</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Cardiff+University/@51.4814204,-3.184425,14.41z/data=!4m8!1m2!2m1!1scardiff+neuroscience!3m4!1s0x0:0xe06dc7099e7122ca!8m2!3d51.4866276!4d-3.1788683</t>
-  </si>
-  <si>
-    <t>Bristol</t>
-  </si>
-  <si>
-    <t>University of Bristol</t>
-  </si>
-  <si>
-    <t>http://www.bristol.ac.uk/neuroscience/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Bristol/@51.4584074,-2.6037595,18.18z/data=!4m5!3m4!1s0x48718ddbdfd292fb:0x2f0b60f89b4b6d56!8m2!3d51.4584172!4d-2.6029792</t>
-  </si>
-  <si>
     <t>Wales</t>
   </si>
   <si>
@@ -950,6 +965,27 @@
     <t>Canada</t>
   </si>
   <si>
+    <t>Lethbridge</t>
+  </si>
+  <si>
+    <t>University of Lethbridge</t>
+  </si>
+  <si>
+    <t>https://www.uleth.ca/artsci/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Canadian+Center+for+Behavioral+Neuroscience/@49.6807166,-112.8684929,15z/data=!4m5!3m4!1s0x0:0x4ed1cfad4b7484f2!8m2!3d49.6807166!4d-112.8684929</t>
+  </si>
+  <si>
+    <t>Western University</t>
+  </si>
+  <si>
+    <t>https://www.schulich.uwo.ca/neuroscience/graduate/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Western+University/@43.0087011,-81.2773704,16z/data=!4m8!1m2!2m1!1swestern+university+neuroscience!3m4!1s0x882eee0e6ac42bd1:0xaa87f353aab9799b!8m2!3d43.0095971!4d-81.2737336</t>
+  </si>
+  <si>
     <t>Montreal</t>
   </si>
   <si>
@@ -962,13 +998,37 @@
     <t>https://www.google.com/maps/place/Montreal+Neurological+Institute+and+Hospital/@45.5089963,-73.5813729,15z/data=!4m2!3m1!1s0x0:0xd75187e12c47cf1c?sa=X&amp;ved=2ahUKEwjY9_Dz3L7vAhVxwosKHYsVDMUQ_BIwEnoECCQQBQ</t>
   </si>
   <si>
-    <t>Western University</t>
-  </si>
-  <si>
-    <t>https://www.schulich.uwo.ca/neuroscience/graduate/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Western+University/@43.0087011,-81.2773704,16z/data=!4m8!1m2!2m1!1swestern+university+neuroscience!3m4!1s0x882eee0e6ac42bd1:0xaa87f353aab9799b!8m2!3d43.0095971!4d-81.2737336</t>
+    <t>Quebec City</t>
+  </si>
+  <si>
+    <t>Universite Laval</t>
+  </si>
+  <si>
+    <t>https://neuro.ulaval.ca/en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Laval+University/@46.7817463,-71.2769311,17z/data=!3m1!4b1!4m5!3m4!1s0x4cb896c469ff32f9:0x15feb853bd2f8247!8m2!3d46.7817463!4d-71.2747424</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Unversity of Toronto</t>
+  </si>
+  <si>
+    <t>http://www.neuroscience.utoronto.ca/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/University+of+Toronto+-+St.+George+Campus/@43.6638108,-79.4005143,17z/data=!4m8!1m2!2m1!1suniversity+of+toronto+neuroscience!3m4!1s0x882b34b8f331fd9b:0x8d1d9bb6765a76f7!8m2!3d43.6628917!4d-79.3956564</t>
+  </si>
+  <si>
+    <t>SickKids NMH</t>
+  </si>
+  <si>
+    <t>https://www.sickkids.ca/en/research/research-programs/neurosciences-mental-health/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+Hospital+for+Sick+Children/@43.6573235,-79.3894919,17z/data=!3m1!4b1!4m5!3m4!1s0x882b34c9b2253cc9:0xd626f96dbbd306cf!8m2!3d43.6573235!4d-79.3873032</t>
   </si>
   <si>
     <t>Vancouver</t>
@@ -983,30 +1043,69 @@
     <t>https://www.google.com/maps/place/The+University+of+British+Columbia/@49.2625228,-123.2536585,16z/data=!4m8!1m2!2m1!1subc+neuroscience!3m4!1s0x548672cc2fd41e03:0xc79dd4e7732aa2f3!8m2!3d49.2606052!4d-123.2459938</t>
   </si>
   <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Unversity of Toronto</t>
-  </si>
-  <si>
-    <t>http://www.neuroscience.utoronto.ca/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/University+of+Toronto+-+St.+George+Campus/@43.6638108,-79.4005143,17z/data=!4m8!1m2!2m1!1suniversity+of+toronto+neuroscience!3m4!1s0x882b34b8f331fd9b:0x8d1d9bb6765a76f7!8m2!3d43.6628917!4d-79.3956564</t>
-  </si>
-  <si>
-    <t>SickKids NMH</t>
-  </si>
-  <si>
-    <t>https://www.sickkids.ca/en/research/research-programs/neurosciences-mental-health/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/The+Hospital+for+Sick+Children/@43.6573235,-79.3894919,17z/data=!3m1!4b1!4m5!3m4!1s0x882b34c9b2253cc9:0xd626f96dbbd306cf!8m2!3d43.6573235!4d-79.3873032</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
+    <t>Janelia Research Campus</t>
+  </si>
+  <si>
+    <t>https://www.janelia.org/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Janelia+Research+Campus/@39.0714096,-77.4642701,15z/data=!4m5!3m4!1s0x0:0x86d91f3d79ea0884!8m2!3d39.0714096!4d-77.4642701</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>https://www.cshl.edu/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Cold+Spring+Harbor+Laboratory/@40.8580545,-73.4669315,15z/data=!4m5!3m4!1s0x0:0xfcd58807ef419c9a!8m2!3d40.8580545!4d-73.4669315</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Max Planck Florida Institute for Neuroscience</t>
+  </si>
+  <si>
+    <t>https://mpfi.org/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Max+Planck+Florida+Institute+for+Neuroscience/@26.8838274,-80.1170496,17z/data=!3m1!4b1!4m5!3m4!1s0x88ded5be31da3a65:0x93ddb5033354d5c8!8m2!3d26.8838274!4d-80.1148609</t>
+  </si>
+  <si>
+    <t>Rockville</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>https://dir.ninds.nih.gov/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/National+Institutes+of+Health/@39.0503293,-77.1228336,17z/data=!3m1!4b1!4m5!3m4!1s0x89b7cc39feb1f81d:0x23dee637adc1ff88!8m2!3d39.0503293!4d-77.1206449</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Scripps Research Institute</t>
+  </si>
+  <si>
+    <t>https://www.scripps.edu/science-and-medicine/research-departments/neuroscience/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dorris+Neuroscience+Center+(DNC),+The+Scripps+Research+Institute/@32.8945205,-117.2399002,17z/data=!3m1!4b1!4m5!3m4!1s0x80dc06ee05421e91:0x30fe2adb5283df19!8m2!3d32.8945205!4d-117.2377115</t>
+  </si>
+  <si>
     <t>Seattle</t>
   </si>
   <si>
@@ -1019,96 +1118,24 @@
     <t>https://www.google.com/maps/place/Allen+Institute/@47.6251409,-122.3417072,17z/data=!3m1!4b1!4m5!3m4!1s0x5490150705cb5703:0x499c58d72a7bcf9!8m2!3d47.6251409!4d-122.3395185</t>
   </si>
   <si>
-    <t>Rockville</t>
-  </si>
-  <si>
-    <t>NIH</t>
-  </si>
-  <si>
-    <t>https://dir.ninds.nih.gov/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/National+Institutes+of+Health/@39.0503293,-77.1228336,17z/data=!3m1!4b1!4m5!3m4!1s0x89b7cc39feb1f81d:0x23dee637adc1ff88!8m2!3d39.0503293!4d-77.1206449</t>
-  </si>
-  <si>
-    <t>Ashburn</t>
-  </si>
-  <si>
-    <t>Janelia Research Campus</t>
-  </si>
-  <si>
-    <t>https://www.janelia.org/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Janelia+Research+Campus/@39.0714096,-77.4642701,15z/data=!4m5!3m4!1s0x0:0x86d91f3d79ea0884!8m2!3d39.0714096!4d-77.4642701</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
-  </si>
-  <si>
-    <t>Max Planck Florida Institute for Neuroscience</t>
-  </si>
-  <si>
-    <t>https://mpfi.org/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Max+Planck+Florida+Institute+for+Neuroscience/@26.8838274,-80.1170496,17z/data=!3m1!4b1!4m5!3m4!1s0x88ded5be31da3a65:0x93ddb5033354d5c8!8m2!3d26.8838274!4d-80.1148609</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>Scripps Research Institute</t>
-  </si>
-  <si>
-    <t>https://www.scripps.edu/science-and-medicine/research-departments/neuroscience/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dorris+Neuroscience+Center+(DNC),+The+Scripps+Research+Institute/@32.8945205,-117.2399002,17z/data=!3m1!4b1!4m5!3m4!1s0x80dc06ee05421e91:0x30fe2adb5283df19!8m2!3d32.8945205!4d-117.2377115</t>
-  </si>
-  <si>
-    <t>Lethbridge</t>
-  </si>
-  <si>
-    <t>University of Lethbridge</t>
-  </si>
-  <si>
-    <t>https://www.uleth.ca/artsci/neuroscience</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Canadian+Center+for+Behavioral+Neuroscience/@49.6807166,-112.8684929,15z/data=!4m5!3m4!1s0x0:0x4ed1cfad4b7484f2!8m2!3d49.6807166!4d-112.8684929</t>
-  </si>
-  <si>
-    <t>Cold Spring Harbor</t>
-  </si>
-  <si>
-    <t>Cold Spring Harbor Laboratory</t>
-  </si>
-  <si>
-    <t>https://www.cshl.edu/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Cold+Spring+Harbor+Laboratory/@40.8580545,-73.4669315,15z/data=!4m5!3m4!1s0x0:0xfcd58807ef419c9a!8m2!3d40.8580545!4d-73.4669315</t>
-  </si>
-  <si>
-    <t>Quebec City</t>
-  </si>
-  <si>
-    <t>Universite Laval</t>
-  </si>
-  <si>
-    <t>https://neuro.ulaval.ca/en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Laval+University/@46.7817463,-71.2769311,17z/data=!3m1!4b1!4m5!3m4!1s0x4cb896c469ff32f9:0x15feb853bd2f8247!8m2!3d46.7817463!4d-71.2747424</t>
-  </si>
-  <si>
     <t>Oceania</t>
   </si>
   <si>
     <t>Australia</t>
   </si>
   <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>University of Queensland Australia</t>
+  </si>
+  <si>
+    <t>https://qbi.uq.edu.au/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Queensland/@-27.497498,153.0115018,17z/data=!3m1!4b1!4m5!3m4!1s0x6b91508241eb7c49:0x9ae9946d3710eee9!8m2!3d-27.4975028!4d153.0136905</t>
+  </si>
+  <si>
     <t>Melbourne</t>
   </si>
   <si>
@@ -1133,21 +1160,21 @@
     <t>https://www.google.com/maps/place/Brain+and+Mind+Centre/@-33.8890697,151.1763526,17z/data=!4m8!1m2!2m1!1shttps:%2F%2Fwww.sydney.edu.au%2Fbrain-mind%2F!3m4!1s0x6b12b02f077dff6f:0xeb68c38ffc383072!8m2!3d-33.8885047!4d151.1775438</t>
   </si>
   <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>University of Queensland Australia</t>
-  </si>
-  <si>
-    <t>https://qbi.uq.edu.au/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/The+University+of+Queensland/@-27.497498,153.0115018,17z/data=!3m1!4b1!4m5!3m4!1s0x6b91508241eb7c49:0x9ae9946d3710eee9!8m2!3d-27.4975028!4d153.0136905</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Unversity of Auckland</t>
+  </si>
+  <si>
+    <t>https://www.auckland.ac.nz/en/study/study-options/find-a-study-option/biomedical-science/undergraduate/bsc-biomedical-from-2019/neuroscience.html</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Auckland/@-36.8523335,174.7669186,17z/data=!3m1!4b1!4m5!3m4!1s0x6d0d47e383f32253:0xbd49f61f758a9e5b!8m2!3d-36.8523378!4d174.7691073</t>
+  </si>
+  <si>
     <t>Dunedin</t>
   </si>
   <si>
@@ -1158,18 +1185,6 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/University+of+Otago/@-45.8646835,170.512234,17z/data=!3m1!4b1!4m5!3m4!1s0xa82eac692eec734d:0x761f754c6bfb9a70!8m2!3d-45.8646835!4d170.5144227</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>Unversity of Auckland</t>
-  </si>
-  <si>
-    <t>https://www.auckland.ac.nz/en/study/study-options/find-a-study-option/biomedical-science/undergraduate/bsc-biomedical-from-2019/neuroscience.html</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/The+University+of+Auckland/@-36.8523335,174.7669186,17z/data=!3m1!4b1!4m5!3m4!1s0x6d0d47e383f32253:0xbd49f61f758a9e5b!8m2!3d-36.8523378!4d174.7691073</t>
   </si>
   <si>
     <t>Singapore</t>
@@ -1286,11 +1301,11 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -1343,22 +1358,22 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1577,7 +1592,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -1639,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>1450000.0</v>
+        <v>2.1E7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1680,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4">
-        <v>1091000.0</v>
+        <v>2.1E7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1721,9 +1739,9 @@
         <v>17</v>
       </c>
       <c r="D4" s="4">
-        <v>1.3960236E7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>2.448E7</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1756,22 +1774,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>1.1E7</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4">
-        <v>9700000.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1797,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4">
+        <v>1450000.0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4">
-        <v>2.1E7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1838,22 +1856,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1091000.0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4">
-        <v>2.448E7</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1879,22 +1897,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.3960236E7</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.1E7</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1920,15 +1938,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="4">
-        <v>1.1E7</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>9700000.0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1967,7 +1985,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="4">
-        <v>1.485E7</v>
+        <v>8444000.0</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
@@ -2008,7 +2026,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="4">
-        <v>8444000.0</v>
+        <v>1.485E7</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>50</v>
@@ -2171,16 +2189,16 @@
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="10">
-        <v>182000.0</v>
+      <c r="D15" s="4">
+        <v>350000.0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H15" s="6"/>
@@ -2212,16 +2230,16 @@
       <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="10">
-        <v>693000.0</v>
+      <c r="D16" s="4">
+        <v>632000.0</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="6"/>
@@ -2248,22 +2266,22 @@
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4">
-        <v>284000.0</v>
+        <v>648000.0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="10" t="s">
         <v>83</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2289,22 +2307,22 @@
         <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="4">
-        <v>350000.0</v>
+        <v>284000.0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2330,22 +2348,22 @@
         <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="4">
-        <v>632000.0</v>
+        <v>90</v>
+      </c>
+      <c r="D19" s="11">
+        <v>693000.0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>92</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2371,21 +2389,21 @@
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="4">
-        <v>974000.0</v>
+        <v>77000.0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="5" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="6"/>
@@ -2412,21 +2430,21 @@
         <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="4">
-        <v>125000.0</v>
+      <c r="D21" s="11">
+        <v>182000.0</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H21" s="6"/>
@@ -2459,15 +2477,15 @@
         <v>103</v>
       </c>
       <c r="D22" s="4">
-        <v>648000.0</v>
+        <v>125000.0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6"/>
@@ -2494,21 +2512,21 @@
         <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="4">
-        <v>77000.0</v>
+        <v>974000.0</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="10" t="s">
         <v>110</v>
       </c>
       <c r="H23" s="6"/>
@@ -2579,19 +2597,19 @@
         <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2873000.0</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="4">
-        <v>204234.0</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2617,22 +2635,22 @@
         <v>111</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="4">
+        <v>204234.0</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="4">
-        <v>331577.0</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2658,22 +2676,22 @@
         <v>111</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="4">
         <v>504718.0</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2699,22 +2717,22 @@
         <v>111</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="4">
+        <v>331577.0</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="4">
-        <v>3223000.0</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2740,22 +2758,22 @@
         <v>111</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1620000.0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="12">
-        <v>1620000.0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2781,22 +2799,22 @@
         <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3223000.0</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="12">
-        <v>688711.0</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2822,13 +2840,13 @@
         <v>111</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D31" s="4">
-        <v>2873000.0</v>
+        <v>688711.0</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>143</v>
@@ -2869,15 +2887,15 @@
         <v>148</v>
       </c>
       <c r="D32" s="4">
-        <v>872000.0</v>
+        <v>176545.0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="5" t="s">
         <v>151</v>
       </c>
       <c r="H32" s="6"/>
@@ -2910,15 +2928,15 @@
         <v>152</v>
       </c>
       <c r="D33" s="4">
-        <v>125000.0</v>
+        <v>100244.0</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="5" t="s">
         <v>155</v>
       </c>
       <c r="H33" s="6"/>
@@ -2945,22 +2963,22 @@
         <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D34" s="4">
-        <v>358000.0</v>
+        <v>467099.0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="5" t="s">
         <v>159</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2986,22 +3004,22 @@
         <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D35" s="4">
-        <v>177000.0</v>
+        <v>124000.0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="5" t="s">
         <v>163</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3027,22 +3045,22 @@
         <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D36" s="4">
-        <v>651000.0</v>
+        <v>335145.0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="F36" s="5" t="s">
         <v>167</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3068,21 +3086,21 @@
         <v>146</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D37" s="4">
-        <v>3670000.0</v>
-      </c>
-      <c r="E37" s="13" t="s">
+        <v>8982000.0</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="5" t="s">
         <v>172</v>
       </c>
       <c r="H37" s="6"/>
@@ -3109,21 +3127,21 @@
         <v>146</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D38" s="4">
-        <v>3670000.0</v>
+        <v>8982000.0</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H38" s="6"/>
@@ -3150,21 +3168,21 @@
         <v>146</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D39" s="4">
-        <v>140000.0</v>
+        <v>153000.0</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H39" s="6"/>
@@ -3191,22 +3209,22 @@
         <v>146</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D40" s="4">
-        <v>83000.0</v>
+        <v>796273.0</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="F40" s="5" t="s">
         <v>183</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3232,22 +3250,22 @@
         <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" s="4">
-        <v>160000.0</v>
+        <v>861365.0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="5" t="s">
         <v>187</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3273,21 +3291,21 @@
         <v>146</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D42" s="4">
-        <v>241000.0</v>
+        <v>861365.0</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="5" t="s">
         <v>191</v>
       </c>
       <c r="H42" s="6"/>
@@ -3314,21 +3332,21 @@
         <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D43" s="4">
-        <v>667000.0</v>
+        <v>2161000.0</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="5" t="s">
         <v>195</v>
       </c>
       <c r="H43" s="6"/>
@@ -3355,22 +3373,22 @@
         <v>146</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="4">
-        <v>330000.0</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3396,22 +3414,22 @@
         <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D45" s="4">
-        <v>330000.0</v>
+        <v>2161000.0</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="G45" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3437,22 +3455,22 @@
         <v>146</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="4">
-        <v>366000.0</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="G46" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -3478,22 +3496,22 @@
         <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2161000.0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1400000.0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -3519,22 +3537,22 @@
         <v>146</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3670000.0</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="D48" s="4">
-        <v>552000.0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3560,22 +3578,22 @@
         <v>146</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D49" s="4">
-        <v>552000.0</v>
+        <v>3670000.0</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3601,22 +3619,22 @@
         <v>146</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="4">
+        <v>366000.0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="D50" s="4">
-        <v>427000.0</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -3642,22 +3660,22 @@
         <v>146</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="4">
+        <v>330000.0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1086000.0</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -3683,22 +3701,22 @@
         <v>146</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D52" s="4">
-        <v>861365.0</v>
+        <v>330000.0</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -3724,22 +3742,22 @@
         <v>146</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="D53" s="4">
-        <v>872000.0</v>
+        <v>1086000.0</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -3765,22 +3783,22 @@
         <v>146</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D54" s="4">
-        <v>2161000.0</v>
+        <v>667000.0</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -3806,22 +3824,22 @@
         <v>146</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D55" s="4">
-        <v>861365.0</v>
+        <v>241000.0</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -3847,22 +3865,22 @@
         <v>146</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="4">
+        <v>140000.0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" s="4">
-        <v>8982000.0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -3888,22 +3906,22 @@
         <v>146</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D57" s="4">
-        <v>124000.0</v>
+        <v>160000.0</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -3929,22 +3947,22 @@
         <v>146</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D58" s="4">
-        <v>153000.0</v>
+        <v>587857.0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -3970,22 +3988,22 @@
         <v>146</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D59" s="4">
-        <v>8982000.0</v>
+        <v>83000.0</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -4007,26 +4025,26 @@
       <c r="Y59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="15">
+        <v>122853.0</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="G60" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="D60" s="4">
-        <v>518000.0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -4052,22 +4070,22 @@
         <v>146</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D61" s="4">
         <v>545000.0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -4093,22 +4111,22 @@
         <v>146</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="4">
+        <v>872000.0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="G62" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="D62" s="4">
-        <v>100244.0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -4134,22 +4152,22 @@
         <v>146</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D63" s="4">
-        <v>587857.0</v>
+        <v>872000.0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -4175,22 +4193,22 @@
         <v>146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D64" s="4">
-        <v>176545.0</v>
+        <v>125000.0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -4216,22 +4234,22 @@
         <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D65" s="4">
-        <v>796273.0</v>
+        <v>177000.0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -4257,22 +4275,22 @@
         <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="D66" s="4">
-        <v>2161000.0</v>
+        <v>651000.0</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -4298,22 +4316,22 @@
         <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="D67" s="4">
-        <v>2161000.0</v>
+        <v>358000.0</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4339,13 +4357,13 @@
         <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="D68" s="4">
-        <v>2161000.0</v>
+        <v>518000.0</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>291</v>
@@ -4353,7 +4371,7 @@
       <c r="F68" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H68" s="6"/>
@@ -4380,22 +4398,22 @@
         <v>146</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="D69" s="4">
-        <v>2161000.0</v>
+        <v>552000.0</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G69" s="5" t="s">
         <v>296</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -4421,22 +4439,22 @@
         <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" s="12">
-        <v>335145.0</v>
+        <v>295</v>
+      </c>
+      <c r="D70" s="4">
+        <v>552000.0</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F70" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="10" t="s">
         <v>300</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
@@ -4462,22 +4480,22 @@
         <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D71" s="12">
-        <v>467099.0</v>
+        <v>302</v>
+      </c>
+      <c r="D71" s="4">
+        <v>427000.0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="10" t="s">
         <v>304</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4503,21 +4521,21 @@
         <v>146</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D72" s="12">
-        <v>246217.0</v>
+      <c r="D72" s="4">
+        <v>1400000.0</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="10" t="s">
         <v>309</v>
       </c>
       <c r="H72" s="6"/>
@@ -4541,25 +4559,25 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="4">
+        <v>246217.0</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="4">
-        <v>1780000.0</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -4582,25 +4600,25 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="D74" s="4">
-        <v>404699.0</v>
+        <v>92730.0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
@@ -4623,25 +4641,25 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="D75" s="4">
-        <v>675218.0</v>
+        <v>404699.0</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -4664,25 +4682,25 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D76" s="4">
-        <v>2930000.0</v>
+        <v>1780000.0</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -4705,25 +4723,25 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D77" s="4">
-        <v>2930000.0</v>
+        <v>542298.0</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -4746,25 +4764,25 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D78" s="4">
-        <v>724305.0</v>
+        <v>2930000.0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -4787,16 +4805,16 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D79" s="4">
-        <v>67542.0</v>
+        <v>2930000.0</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>336</v>
@@ -4828,16 +4846,16 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D80" s="4">
-        <v>49848.0</v>
+        <v>675218.0</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>340</v>
@@ -4869,25 +4887,25 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D81" s="4">
-        <v>64565.0</v>
+        <v>49848.0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -4910,25 +4928,25 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D82" s="4">
-        <v>1410000.0</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>348</v>
+        <v>4932.0</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4951,25 +4969,25 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D83" s="4">
-        <v>92730.0</v>
+        <v>64565.0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -4992,25 +5010,25 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D84" s="4">
-        <v>4932.0</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>356</v>
+        <v>67542.0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -5033,25 +5051,25 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D85" s="4">
-        <v>542298.0</v>
+        <v>1410000.0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -5074,25 +5092,25 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="4">
+        <v>724305.0</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D86" s="4">
-        <v>5078000.0</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
@@ -5115,25 +5133,25 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D87" s="4">
-        <v>5312000.0</v>
+        <v>2280000.0</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" s="5" t="s">
         <v>371</v>
       </c>
+      <c r="F87" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="G87" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
@@ -5156,25 +5174,25 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D88" s="4">
-        <v>2280000.0</v>
+        <v>5078000.0</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="F88" s="11" t="s">
         <v>375</v>
       </c>
+      <c r="F88" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="G88" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
@@ -5197,16 +5215,16 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>378</v>
       </c>
       <c r="D89" s="4">
-        <v>126255.0</v>
+        <v>5312000.0</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>379</v>
@@ -5238,25 +5256,25 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D90" s="4">
         <v>1657000.0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -5278,26 +5296,26 @@
       <c r="Y90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D91" s="12">
-        <v>5703600.0</v>
-      </c>
-      <c r="E91" s="15" t="s">
+      <c r="A91" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="D91" s="4">
+        <v>126255.0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="F91" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -5319,13 +5337,27 @@
       <c r="Y91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="A92" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5703600.0</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -29226,7 +29258,7 @@
     <hyperlink r:id="rId144" ref="G73"/>
     <hyperlink r:id="rId145" ref="F74"/>
     <hyperlink r:id="rId146" ref="G74"/>
-    <hyperlink r:id="rId147" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F75"/>
+    <hyperlink r:id="rId147" ref="F75"/>
     <hyperlink r:id="rId148" ref="G75"/>
     <hyperlink r:id="rId149" ref="F76"/>
     <hyperlink r:id="rId150" ref="G76"/>
@@ -29236,7 +29268,7 @@
     <hyperlink r:id="rId154" ref="G78"/>
     <hyperlink r:id="rId155" ref="F79"/>
     <hyperlink r:id="rId156" ref="G79"/>
-    <hyperlink r:id="rId157" ref="F80"/>
+    <hyperlink r:id="rId157" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F80"/>
     <hyperlink r:id="rId158" ref="G80"/>
     <hyperlink r:id="rId159" ref="F81"/>
     <hyperlink r:id="rId160" ref="G81"/>
@@ -29260,8 +29292,10 @@
     <hyperlink r:id="rId178" ref="G90"/>
     <hyperlink r:id="rId179" ref="F91"/>
     <hyperlink r:id="rId180" ref="G91"/>
+    <hyperlink r:id="rId181" ref="F92"/>
+    <hyperlink r:id="rId182" ref="G92"/>
   </hyperlinks>
-  <drawing r:id="rId181"/>
+  <drawing r:id="rId183"/>
 </worksheet>
 </file>
 
@@ -29280,62 +29314,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
@@ -29345,97 +29379,97 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="445">
   <si>
     <t>Region</t>
   </si>
@@ -959,6 +959,48 @@
     <t>https://www.google.com/maps/place/Swansea+University/@51.6079027,-3.9847985,14.5z/data=!4m8!1m2!2m1!1sswansea+neuroscience!3m4!1s0x0:0xa2f023ec6b323e44!8m2!3d51.6092191!4d-3.9799529</t>
   </si>
   <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Haifa</t>
+  </si>
+  <si>
+    <t>Technion</t>
+  </si>
+  <si>
+    <t>https://brain.net.technion.ac.il/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+Ruth+and+Bruce+Rappaport+Faculty+of+Medicine/@32.8332212,34.980307,15.12z/data=!4m8!1m2!2m1!1sDepartment+of+Neuroscience+The+Ruth+and+Bruce+Rappaport+Faculty+of+Medicine+Technion+%E2%80%93+Israel+Institute+of+Technology+POB+9649+Bat+Galim+Haifa+31096+Israel!3m4!1s0x0:0x4bc667f2ea55e771!8m2!3d32.8342632!4d34.9838001</t>
+  </si>
+  <si>
+    <t>Rehovot</t>
+  </si>
+  <si>
+    <t>Weizmann Institute of Science</t>
+  </si>
+  <si>
+    <t>https://www.weizmann.ac.il/neurobiology/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Arison+Neurobiology+Building,+Rehovot,+Israel/@31.9056434,34.8075615,17z/data=!4m8!1m2!2m1!1sDepartment+of+Neurobiology+Arison+Neurobiology+Building+Weizmann+Institute+of+Science+Rehovot+76100,+Israel!3m4!1s0x1502b6fcee04c429:0xc57aa10d342d13e2!8m2!3d31.9060845!4d34.8092587</t>
+  </si>
+  <si>
+    <t>Tel Aviv</t>
+  </si>
+  <si>
+    <t>Tel Aviv University</t>
+  </si>
+  <si>
+    <t>https://english.tau.ac.il/neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Department+of+Neuroscience/@32.1147635,34.8035093,17z/data=!3m1!4b1!4m5!3m4!1s0x151d496fbf0524ef:0xe77648d3c5b1926f!8m2!3d32.114759!4d34.805698</t>
+  </si>
+  <si>
     <t>North America</t>
   </si>
   <si>
@@ -1197,6 +1239,51 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/National+Neuroscience+Institute/@1.3220806,103.8455558,15z/data=!4m5!3m4!1s0x0:0x25a50827aaf564a!8m2!3d1.3220806!4d103.8455558</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Fundación Instituto Leloir</t>
+  </si>
+  <si>
+    <t>https://www.leloir.org.ar/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Leloir+Institute+Foundation/@-34.6038657,-58.4354803,16.21z/data=!4m5!3m4!1s0x0:0x6aa46f639caf14f9!8m2!3d-34.6042822!4d-58.4341455</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>UCSC</t>
+  </si>
+  <si>
+    <t>http://neuroscience.cl/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Av.+Alonso+de+Ribera+2850,+Concepci%C3%B3n,+B%C3%ADo+B%C3%ADo,+Chile/@-36.7980077,-73.0588712,17z/data=!4m8!1m2!2m1!1sLaboratorio+de+Investigaci%C3%B3n+en+Ciencias+Biom%C3%A9dicas,+Edificio+Valech+(Ex-mutual),+Alonso+de+Ribera+2850+Concepci%C3%B3n,+Chile!3m4!1s0x9669b5a6cca1b975:0x25a90cabd0e273c9!8m2!3d-36.7978099!4d-73.0581513</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+  </si>
+  <si>
+    <t>http://www.ciae.uchile.cl/index.php?langSite=en&amp;page=view_area_congnitivas</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Universidad+de+Chile+campus+Andr%C3%A9s+Bello/@-33.4420294,-70.6389375,16.99z/data=!4m5!3m4!1s0x9662c59d9a4c3a19:0xe7ad7b398f1b3cee!8m2!3d-33.4420342!4d-70.6367263</t>
   </si>
   <si>
     <t>Medical University of South Carolina</t>
@@ -4599,19 +4686,19 @@
       <c r="Y73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D74" s="4">
-        <v>92730.0</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="15">
+        <v>279247.0</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>318</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -4640,26 +4727,26 @@
       <c r="Y74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="4">
-        <v>404699.0</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="C75" s="14" t="s">
         <v>321</v>
       </c>
+      <c r="D75" s="15">
+        <v>134199.0</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>322</v>
+      </c>
       <c r="F75" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -4681,26 +4768,26 @@
       <c r="Y75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1780000.0</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="C76" s="14" t="s">
         <v>325</v>
       </c>
+      <c r="D76" s="15">
+        <v>435855.0</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>326</v>
+      </c>
       <c r="F76" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -4723,25 +4810,25 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D77" s="4">
-        <v>542298.0</v>
+        <v>92730.0</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -4764,25 +4851,25 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="D78" s="4">
-        <v>2930000.0</v>
+        <v>404699.0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
@@ -4805,25 +4892,25 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D79" s="4">
-        <v>2930000.0</v>
+        <v>1780000.0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -4846,25 +4933,25 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D80" s="4">
-        <v>675218.0</v>
+        <v>542298.0</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -4887,25 +4974,25 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D81" s="4">
-        <v>49848.0</v>
+        <v>2930000.0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -4928,25 +5015,25 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D82" s="4">
-        <v>4932.0</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>349</v>
+        <v>2930000.0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4969,25 +5056,25 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D83" s="4">
-        <v>64565.0</v>
+        <v>675218.0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -5010,25 +5097,25 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D84" s="4">
-        <v>67542.0</v>
+        <v>49848.0</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
@@ -5051,25 +5138,25 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D85" s="4">
-        <v>1410000.0</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>361</v>
+        <v>4932.0</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -5092,25 +5179,25 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D86" s="4">
-        <v>724305.0</v>
+        <v>64565.0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
@@ -5133,21 +5220,21 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>370</v>
       </c>
       <c r="D87" s="4">
-        <v>2280000.0</v>
+        <v>67542.0</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="5" t="s">
         <v>372</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -5174,16 +5261,16 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>374</v>
       </c>
       <c r="D88" s="4">
-        <v>5078000.0</v>
+        <v>1410000.0</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>375</v>
@@ -5215,16 +5302,16 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>378</v>
       </c>
       <c r="D89" s="4">
-        <v>5312000.0</v>
+        <v>724305.0</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>379</v>
@@ -5256,25 +5343,25 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D90" s="4">
-        <v>1657000.0</v>
+        <v>2280000.0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F90" s="5" t="s">
         <v>385</v>
       </c>
+      <c r="F90" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="G90" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -5297,25 +5384,25 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D91" s="4">
-        <v>126255.0</v>
+        <v>5078000.0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -5338,25 +5425,25 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D92" s="4">
-        <v>5703600.0</v>
+        <v>5312000.0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -5378,13 +5465,27 @@
       <c r="Y92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="A93" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1657000.0</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -5405,13 +5506,27 @@
       <c r="Y93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="A94" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D94" s="4">
+        <v>126255.0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -5432,13 +5547,27 @@
       <c r="Y94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="A95" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5703600.0</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -5459,13 +5588,27 @@
       <c r="Y95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="A96" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1.5369919E7</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -5486,13 +5629,27 @@
       <c r="Y96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="A97" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D97" s="15">
+        <v>220746.0</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -5513,13 +5670,27 @@
       <c r="Y97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="A98" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D98" s="15">
+        <v>5614000.0</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -29268,13 +29439,13 @@
     <hyperlink r:id="rId154" ref="G78"/>
     <hyperlink r:id="rId155" ref="F79"/>
     <hyperlink r:id="rId156" ref="G79"/>
-    <hyperlink r:id="rId157" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F80"/>
+    <hyperlink r:id="rId157" ref="F80"/>
     <hyperlink r:id="rId158" ref="G80"/>
     <hyperlink r:id="rId159" ref="F81"/>
     <hyperlink r:id="rId160" ref="G81"/>
     <hyperlink r:id="rId161" ref="F82"/>
     <hyperlink r:id="rId162" ref="G82"/>
-    <hyperlink r:id="rId163" ref="F83"/>
+    <hyperlink r:id="rId163" location=":~:text=The%20Graduate%20Program%20in%20Neuroscience,degrees%20in%20Neuroscience." ref="F83"/>
     <hyperlink r:id="rId164" ref="G83"/>
     <hyperlink r:id="rId165" ref="F84"/>
     <hyperlink r:id="rId166" ref="G84"/>
@@ -29294,8 +29465,20 @@
     <hyperlink r:id="rId180" ref="G91"/>
     <hyperlink r:id="rId181" ref="F92"/>
     <hyperlink r:id="rId182" ref="G92"/>
+    <hyperlink r:id="rId183" ref="F93"/>
+    <hyperlink r:id="rId184" ref="G93"/>
+    <hyperlink r:id="rId185" ref="F94"/>
+    <hyperlink r:id="rId186" ref="G94"/>
+    <hyperlink r:id="rId187" ref="F95"/>
+    <hyperlink r:id="rId188" ref="G95"/>
+    <hyperlink r:id="rId189" ref="F96"/>
+    <hyperlink r:id="rId190" ref="G96"/>
+    <hyperlink r:id="rId191" ref="F97"/>
+    <hyperlink r:id="rId192" ref="G97"/>
+    <hyperlink r:id="rId193" ref="F98"/>
+    <hyperlink r:id="rId194" ref="G98"/>
   </hyperlinks>
-  <drawing r:id="rId183"/>
+  <drawing r:id="rId195"/>
 </worksheet>
 </file>
 
@@ -29314,12 +29497,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
@@ -29329,7 +29512,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5">
@@ -29339,7 +29522,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7">
@@ -29349,27 +29532,27 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13">
@@ -29379,37 +29562,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21">
@@ -29419,7 +29602,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23">
@@ -29434,7 +29617,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26">
@@ -29444,12 +29627,12 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29">
@@ -29469,7 +29652,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/institutes.xlsx
+++ b/institutes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="841">
   <si>
     <t>Region</t>
   </si>
@@ -2360,6 +2360,18 @@
     <t>https://www.google.com/maps/place/The+University+of+Queensland/@-27.497498,153.0115018,17z/data=!3m1!4b1!4m5!3m4!1s0x6b91508241eb7c49:0x9ae9946d3710eee9!8m2!3d-27.4975028!4d153.0136905</t>
   </si>
   <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Australian National University</t>
+  </si>
+  <si>
+    <t>https://jcsmr.anu.edu.au/research/divisions/eccles-institute-neuroscience</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+Australian+National+University/@-35.2776955,149.1163383,17z/data=!3m1!4b1!4m5!3m4!1s0x6b164d47099a506b:0xf8bb53336f15b050!8m2!3d-35.2776999!4d149.118527</t>
+  </si>
+  <si>
     <t>Melbourne</t>
   </si>
   <si>
@@ -2370,6 +2382,18 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/University+of+Melbourne/@-37.8022246,144.9564389,15z/data=!4m8!1m2!2m1!1suniversity+of+melbourne+neuroscience!3m4!1s0x6ad642d45c07254b:0xeacb63e2b725ff6d!8m2!3d-37.7983459!4d144.960974</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>University of Western Australia</t>
+  </si>
+  <si>
+    <t>https://www.uwa.edu.au/schools/human-sciences</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+University+of+Western+Australia/@-31.9789015,115.8158834,17z/data=!3m1!4b1!4m5!3m4!1s0x2a32a4ee6e7380e9:0xf04f0b618f28290!8m2!3d-31.9789061!4d115.8180721</t>
   </si>
   <si>
     <t>Sydney</t>
@@ -2585,7 +2609,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2677,6 +2701,9 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -11438,13 +11465,13 @@
       <c r="C199" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D199" s="13">
-        <v>5078000.0</v>
+      <c r="D199" s="23">
+        <v>426845.0</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="28" t="s">
         <v>784</v>
       </c>
       <c r="G199" s="5" t="s">
@@ -11482,7 +11509,7 @@
         <v>786</v>
       </c>
       <c r="D200" s="13">
-        <v>5312000.0</v>
+        <v>5078000.0</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>787</v>
@@ -11519,22 +11546,22 @@
         <v>776</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="23">
+        <v>2180000.0</v>
+      </c>
+      <c r="E201" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D201" s="13">
-        <v>1657000.0</v>
-      </c>
-      <c r="E201" s="3" t="s">
+      <c r="F201" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="G201" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>794</v>
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
@@ -11562,22 +11589,22 @@
         <v>776</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="D202" s="13">
+        <v>5312000.0</v>
+      </c>
+      <c r="E202" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D202" s="13">
-        <v>126255.0</v>
-      </c>
-      <c r="E202" s="3" t="s">
+      <c r="F202" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="G202" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>798</v>
       </c>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
@@ -11605,18 +11632,18 @@
         <v>776</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>799</v>
       </c>
       <c r="D203" s="13">
-        <v>5703600.0</v>
+        <v>1657000.0</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="F203" s="28" t="s">
+      <c r="F203" s="5" t="s">
         <v>801</v>
       </c>
       <c r="G203" s="5" t="s">
@@ -11648,22 +11675,22 @@
         <v>776</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D204" s="13">
-        <v>5703600.0</v>
+        <v>126255.0</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
@@ -11688,25 +11715,25 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D205" s="13">
+        <v>5703600.0</v>
+      </c>
+      <c r="E205" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D205" s="13">
-        <v>1.5369919E7</v>
-      </c>
-      <c r="E205" s="3" t="s">
+      <c r="F205" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>811</v>
       </c>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
@@ -11731,25 +11758,25 @@
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D206" s="13">
-        <v>1.5369919E7</v>
+        <v>5703600.0</v>
       </c>
       <c r="E206" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="F206" s="28" t="s">
+      <c r="G206" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
@@ -11774,7 +11801,7 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>815</v>
@@ -11782,8 +11809,8 @@
       <c r="C207" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="D207" s="4">
-        <v>890480.0</v>
+      <c r="D207" s="13">
+        <v>1.5369919E7</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>817</v>
@@ -11817,25 +11844,25 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D208" s="13">
+        <v>1.5369919E7</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="F208" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="D208" s="13">
-        <v>220746.0</v>
-      </c>
-      <c r="E208" s="3" t="s">
+      <c r="G208" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
@@ -11860,25 +11887,25 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D209" s="4">
+        <v>890480.0</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="D209" s="13">
-        <v>5614000.0</v>
-      </c>
-      <c r="E209" s="3" t="s">
+      <c r="F209" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="G209" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
@@ -11903,21 +11930,21 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="D210" s="23">
-        <v>295113.0</v>
+      <c r="D210" s="13">
+        <v>220746.0</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="F210" s="24" t="s">
+      <c r="F210" s="5" t="s">
         <v>831</v>
       </c>
       <c r="G210" s="5" t="s">
@@ -11945,13 +11972,27 @@
       <c r="AA210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
+      <c r="A211" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D211" s="13">
+        <v>5614000.0</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>836</v>
+      </c>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
@@ -11974,13 +12015,27 @@
       <c r="AA211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
+      <c r="A212" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D212" s="23">
+        <v>295113.0</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F212" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>840</v>
+      </c>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
@@ -34491,8 +34546,12 @@
     <hyperlink r:id="rId416" ref="G209"/>
     <hyperlink r:id="rId417" ref="F210"/>
     <hyperlink r:id="rId418" ref="G210"/>
+    <hyperlink r:id="rId419" ref="F211"/>
+    <hyperlink r:id="rId420" ref="G211"/>
+    <hyperlink r:id="rId421" ref="F212"/>
+    <hyperlink r:id="rId422" ref="G212"/>
   </hyperlinks>
-  <drawing r:id="rId419"/>
+  <drawing r:id="rId423"/>
 </worksheet>
 </file>
 
@@ -34549,9 +34608,9 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="31"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -34573,9 +34632,9 @@
       <c r="V2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="31"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -34597,10 +34656,10 @@
       <c r="V3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -34624,7 +34683,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -34648,7 +34707,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -34672,7 +34731,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -34696,7 +34755,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -34720,7 +34779,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -34744,7 +34803,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -34768,7 +34827,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -34792,7 +34851,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -34816,7 +34875,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -34840,7 +34899,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -34864,7 +34923,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -34888,7 +34947,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -34912,7 +34971,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -34936,7 +34995,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -34960,7 +35019,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -34984,7 +35043,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -35008,7 +35067,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -35032,7 +35091,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -35056,7 +35115,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -35080,7 +35139,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -35104,7 +35163,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -35128,7 +35187,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -35152,7 +35211,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -35176,7 +35235,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -35200,7 +35259,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -35224,7 +35283,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -35248,7 +35307,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="31"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -35272,7 +35331,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -35296,7 +35355,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -35320,7 +35379,7 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="31"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -35344,7 +35403,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -35368,7 +35427,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -35392,7 +35451,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -35416,7 +35475,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -35440,7 +35499,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -35464,7 +35523,7 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -35488,7 +35547,7 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="31"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -35512,7 +35571,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -35536,7 +35595,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -35560,7 +35619,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -35584,7 +35643,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -35608,7 +35667,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -35632,7 +35691,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -35656,7 +35715,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -35680,7 +35739,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -35704,7 +35763,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -35728,7 +35787,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="31"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -35752,7 +35811,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -35776,7 +35835,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -35800,7 +35859,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -35824,7 +35883,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="31"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -35848,7 +35907,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="31"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -35872,7 +35931,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="31"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -35896,7 +35955,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -35920,7 +35979,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -35944,7 +36003,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -35968,7 +36027,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -35992,7 +36051,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -36016,7 +36075,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -36040,7 +36099,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -36064,7 +36123,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -36088,7 +36147,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -36112,7 +36171,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -36136,7 +36195,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -36160,7 +36219,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -36184,7 +36243,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="31"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -36208,7 +36267,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -36232,7 +36291,7 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="31"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -36256,7 +36315,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="31"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -36280,7 +36339,7 @@
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="31"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -36304,7 +36363,7 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="31"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -36328,7 +36387,7 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="31"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -36352,7 +36411,7 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="31"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -36376,7 +36435,7 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="31"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -36400,7 +36459,7 @@
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="31"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -36424,7 +36483,7 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="31"/>
+      <c r="D80" s="32"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -36448,7 +36507,7 @@
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="31"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -36472,7 +36531,7 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="31"/>
+      <c r="D82" s="32"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -36496,7 +36555,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="31"/>
+      <c r="D83" s="32"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -36520,7 +36579,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="31"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -36544,7 +36603,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="31"/>
+      <c r="D85" s="32"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -36568,7 +36627,7 @@
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="32"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -36592,7 +36651,7 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="31"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -36616,7 +36675,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="31"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -36640,7 +36699,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="31"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -36664,7 +36723,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="31"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -36688,7 +36747,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="31"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -36712,7 +36771,7 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="31"/>
+      <c r="D92" s="32"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -36736,7 +36795,7 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="31"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -36760,7 +36819,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="31"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -36784,7 +36843,7 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="31"/>
+      <c r="D95" s="32"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -36808,7 +36867,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="31"/>
+      <c r="D96" s="32"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -36832,7 +36891,7 @@
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="31"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -36856,7 +36915,7 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="31"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -36880,7 +36939,7 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="31"/>
+      <c r="D99" s="32"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -36904,7 +36963,7 @@
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="31"/>
+      <c r="D100" s="32"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -36928,7 +36987,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="31"/>
+      <c r="D101" s="32"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -36952,7 +37011,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="31"/>
+      <c r="D102" s="32"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -36976,7 +37035,7 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="31"/>
+      <c r="D103" s="32"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -37000,7 +37059,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="31"/>
+      <c r="D104" s="32"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -37024,7 +37083,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="31"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -37048,7 +37107,7 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="31"/>
+      <c r="D106" s="32"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -37072,7 +37131,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
-      <c r="D107" s="31"/>
+      <c r="D107" s="32"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -37096,7 +37155,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="31"/>
+      <c r="D108" s="32"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -37120,7 +37179,7 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="31"/>
+      <c r="D109" s="32"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -37144,7 +37203,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="31"/>
+      <c r="D110" s="32"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -37168,7 +37227,7 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
-      <c r="D111" s="31"/>
+      <c r="D111" s="32"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -37192,7 +37251,7 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
-      <c r="D112" s="31"/>
+      <c r="D112" s="32"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -37216,7 +37275,7 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
-      <c r="D113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -37240,7 +37299,7 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
-      <c r="D114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -37264,7 +37323,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -37288,7 +37347,7 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="31"/>
+      <c r="D116" s="32"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -37312,7 +37371,7 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
-      <c r="D117" s="31"/>
+      <c r="D117" s="32"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -37336,7 +37395,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
-      <c r="D118" s="31"/>
+      <c r="D118" s="32"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -37360,7 +37419,7 @@
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
-      <c r="D119" s="31"/>
+      <c r="D119" s="32"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -37384,7 +37443,7 @@
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
-      <c r="D120" s="31"/>
+      <c r="D120" s="32"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -37408,7 +37467,7 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
-      <c r="D121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -37432,7 +37491,7 @@
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
-      <c r="D122" s="31"/>
+      <c r="D122" s="32"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -37456,7 +37515,7 @@
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
-      <c r="D123" s="31"/>
+      <c r="D123" s="32"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -37480,7 +37539,7 @@
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
-      <c r="D124" s="31"/>
+      <c r="D124" s="32"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -37504,7 +37563,7 @@
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="31"/>
+      <c r="D125" s="32"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -37528,7 +37587,7 @@
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="31"/>
+      <c r="D126" s="32"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -37552,7 +37611,7 @@
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="31"/>
+      <c r="D127" s="32"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -37576,7 +37635,7 @@
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="31"/>
+      <c r="D128" s="32"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -37600,7 +37659,7 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="31"/>
+      <c r="D129" s="32"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -37624,7 +37683,7 @@
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
-      <c r="D130" s="31"/>
+      <c r="D130" s="32"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -37648,7 +37707,7 @@
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
-      <c r="D131" s="31"/>
+      <c r="D131" s="32"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -37672,7 +37731,7 @@
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="31"/>
+      <c r="D132" s="32"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -37696,7 +37755,7 @@
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="31"/>
+      <c r="D133" s="32"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -37720,7 +37779,7 @@
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="31"/>
+      <c r="D134" s="32"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -37744,7 +37803,7 @@
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="31"/>
+      <c r="D135" s="32"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -37768,7 +37827,7 @@
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="31"/>
+      <c r="D136" s="32"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -37792,7 +37851,7 @@
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="31"/>
+      <c r="D137" s="32"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -37816,7 +37875,7 @@
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="31"/>
+      <c r="D138" s="32"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -37840,7 +37899,7 @@
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="31"/>
+      <c r="D139" s="32"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -37864,7 +37923,7 @@
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="31"/>
+      <c r="D140" s="32"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -37888,7 +37947,7 @@
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
-      <c r="D141" s="31"/>
+      <c r="D141" s="32"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -37912,7 +37971,7 @@
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
-      <c r="D142" s="31"/>
+      <c r="D142" s="32"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -37936,7 +37995,7 @@
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="31"/>
+      <c r="D143" s="32"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -37960,7 +38019,7 @@
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="31"/>
+      <c r="D144" s="32"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -37984,7 +38043,7 @@
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="31"/>
+      <c r="D145" s="32"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -38008,7 +38067,7 @@
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
-      <c r="D146" s="31"/>
+      <c r="D146" s="32"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -38032,7 +38091,7 @@
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="31"/>
+      <c r="D147" s="32"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -38056,7 +38115,7 @@
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="31"/>
+      <c r="D148" s="32"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -38080,7 +38139,7 @@
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="31"/>
+      <c r="D149" s="32"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -38104,7 +38163,7 @@
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
-      <c r="D150" s="31"/>
+      <c r="D150" s="32"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -38128,7 +38187,7 @@
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
-      <c r="D151" s="31"/>
+      <c r="D151" s="32"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -38152,7 +38211,7 @@
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="31"/>
+      <c r="D152" s="32"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -38176,7 +38235,7 @@
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
-      <c r="D153" s="31"/>
+      <c r="D153" s="32"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -38200,7 +38259,7 @@
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="31"/>
+      <c r="D154" s="32"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -38224,7 +38283,7 @@
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="31"/>
+      <c r="D155" s="32"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -38248,7 +38307,7 @@
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="31"/>
+      <c r="D156" s="32"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -38272,7 +38331,7 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="31"/>
+      <c r="D157" s="32"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -38296,7 +38355,7 @@
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="31"/>
+      <c r="D158" s="32"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -38320,7 +38379,7 @@
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="31"/>
+      <c r="D159" s="32"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -38344,7 +38403,7 @@
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="31"/>
+      <c r="D160" s="32"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -38368,7 +38427,7 @@
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
-      <c r="D161" s="31"/>
+      <c r="D161" s="32"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -38392,7 +38451,7 @@
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="31"/>
+      <c r="D162" s="32"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
@@ -38416,7 +38475,7 @@
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="31"/>
+      <c r="D163" s="32"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -38440,7 +38499,7 @@
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="31"/>
+      <c r="D164" s="32"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -38464,7 +38523,7 @@
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
-      <c r="D165" s="31"/>
+      <c r="D165" s="32"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -38488,7 +38547,7 @@
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
-      <c r="D166" s="31"/>
+      <c r="D166" s="32"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -38512,7 +38571,7 @@
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="31"/>
+      <c r="D167" s="32"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -38536,7 +38595,7 @@
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="31"/>
+      <c r="D168" s="32"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -38560,7 +38619,7 @@
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="31"/>
+      <c r="D169" s="32"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -38584,7 +38643,7 @@
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
-      <c r="D170" s="31"/>
+      <c r="D170" s="32"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -38608,7 +38667,7 @@
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="31"/>
+      <c r="D171" s="32"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -38632,7 +38691,7 @@
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="31"/>
+      <c r="D172" s="32"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
@@ -38656,7 +38715,7 @@
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
-      <c r="D173" s="31"/>
+      <c r="D173" s="32"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -38680,7 +38739,7 @@
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="31"/>
+      <c r="D174" s="32"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -38704,7 +38763,7 @@
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="31"/>
+      <c r="D175" s="32"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -38728,7 +38787,7 @@
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
-      <c r="D176" s="31"/>
+      <c r="D176" s="32"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -38752,7 +38811,7 @@
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
-      <c r="D177" s="31"/>
+      <c r="D177" s="32"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -38776,7 +38835,7 @@
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="31"/>
+      <c r="D178" s="32"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -38800,7 +38859,7 @@
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
-      <c r="D179" s="31"/>
+      <c r="D179" s="32"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -38824,7 +38883,7 @@
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="31"/>
+      <c r="D180" s="32"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -38848,7 +38907,7 @@
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
-      <c r="D181" s="31"/>
+      <c r="D181" s="32"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -38872,7 +38931,7 @@
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
-      <c r="D182" s="31"/>
+      <c r="D182" s="32"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -38896,7 +38955,7 @@
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="31"/>
+      <c r="D183" s="32"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
@@ -38920,7 +38979,7 @@
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="31"/>
+      <c r="D184" s="32"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -38944,7 +39003,7 @@
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="31"/>
+      <c r="D185" s="32"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -38968,7 +39027,7 @@
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="31"/>
+      <c r="D186" s="32"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
@@ -38992,7 +39051,7 @@
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
-      <c r="D187" s="31"/>
+      <c r="D187" s="32"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
@@ -39016,7 +39075,7 @@
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
-      <c r="D188" s="31"/>
+      <c r="D188" s="32"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -39040,7 +39099,7 @@
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
-      <c r="D189" s="31"/>
+      <c r="D189" s="32"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -39064,7 +39123,7 @@
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
-      <c r="D190" s="31"/>
+      <c r="D190" s="32"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -39088,7 +39147,7 @@
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
-      <c r="D191" s="31"/>
+      <c r="D191" s="32"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -39112,7 +39171,7 @@
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
-      <c r="D192" s="31"/>
+      <c r="D192" s="32"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -39136,7 +39195,7 @@
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
-      <c r="D193" s="31"/>
+      <c r="D193" s="32"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -39160,7 +39219,7 @@
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
-      <c r="D194" s="31"/>
+      <c r="D194" s="32"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -39184,7 +39243,7 @@
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
-      <c r="D195" s="31"/>
+      <c r="D195" s="32"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -39208,7 +39267,7 @@
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
-      <c r="D196" s="31"/>
+      <c r="D196" s="32"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -39232,7 +39291,7 @@
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
-      <c r="D197" s="31"/>
+      <c r="D197" s="32"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -39256,7 +39315,7 @@
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
-      <c r="D198" s="31"/>
+      <c r="D198" s="32"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -39280,7 +39339,7 @@
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="31"/>
+      <c r="D199" s="32"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -39304,7 +39363,7 @@
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
-      <c r="D200" s="31"/>
+      <c r="D200" s="32"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -39328,7 +39387,7 @@
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
-      <c r="D201" s="31"/>
+      <c r="D201" s="32"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -39352,7 +39411,7 @@
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
-      <c r="D202" s="31"/>
+      <c r="D202" s="32"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -39376,7 +39435,7 @@
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
-      <c r="D203" s="31"/>
+      <c r="D203" s="32"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -39400,7 +39459,7 @@
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
-      <c r="D204" s="31"/>
+      <c r="D204" s="32"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -39424,7 +39483,7 @@
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
-      <c r="D205" s="31"/>
+      <c r="D205" s="32"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -39448,7 +39507,7 @@
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
-      <c r="D206" s="31"/>
+      <c r="D206" s="32"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -39472,7 +39531,7 @@
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
-      <c r="D207" s="31"/>
+      <c r="D207" s="32"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -39496,7 +39555,7 @@
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
-      <c r="D208" s="31"/>
+      <c r="D208" s="32"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -39520,7 +39579,7 @@
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
-      <c r="D209" s="31"/>
+      <c r="D209" s="32"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -39544,7 +39603,7 @@
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
-      <c r="D210" s="31"/>
+      <c r="D210" s="32"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -39568,7 +39627,7 @@
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
-      <c r="D211" s="31"/>
+      <c r="D211" s="32"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -39592,7 +39651,7 @@
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
-      <c r="D212" s="31"/>
+      <c r="D212" s="32"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -39616,7 +39675,7 @@
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
-      <c r="D213" s="31"/>
+      <c r="D213" s="32"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -39640,7 +39699,7 @@
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
-      <c r="D214" s="31"/>
+      <c r="D214" s="32"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -39664,7 +39723,7 @@
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="31"/>
+      <c r="D215" s="32"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -39688,7 +39747,7 @@
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="31"/>
+      <c r="D216" s="32"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -39712,7 +39771,7 @@
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
-      <c r="D217" s="31"/>
+      <c r="D217" s="32"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -39736,7 +39795,7 @@
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
-      <c r="D218" s="31"/>
+      <c r="D218" s="32"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -39760,7 +39819,7 @@
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
-      <c r="D219" s="31"/>
+      <c r="D219" s="32"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -39784,7 +39843,7 @@
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="31"/>
+      <c r="D220" s="32"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -39808,7 +39867,7 @@
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="31"/>
+      <c r="D221" s="32"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -39832,7 +39891,7 @@
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
-      <c r="D222" s="31"/>
+      <c r="D222" s="32"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
@@ -39856,7 +39915,7 @@
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
-      <c r="D223" s="31"/>
+      <c r="D223" s="32"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -39880,7 +39939,7 @@
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
-      <c r="D224" s="31"/>
+      <c r="D224" s="32"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -39904,7 +39963,7 @@
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
-      <c r="D225" s="31"/>
+      <c r="D225" s="32"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -39928,7 +39987,7 @@
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
-      <c r="D226" s="31"/>
+      <c r="D226" s="32"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -39952,7 +40011,7 @@
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
-      <c r="D227" s="31"/>
+      <c r="D227" s="32"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -39976,7 +40035,7 @@
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
-      <c r="D228" s="31"/>
+      <c r="D228" s="32"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
@@ -40000,7 +40059,7 @@
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
-      <c r="D229" s="31"/>
+      <c r="D229" s="32"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
@@ -40024,7 +40083,7 @@
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
-      <c r="D230" s="31"/>
+      <c r="D230" s="32"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
@@ -40048,7 +40107,7 @@
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
-      <c r="D231" s="31"/>
+      <c r="D231" s="32"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
@@ -40072,7 +40131,7 @@
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
-      <c r="D232" s="31"/>
+      <c r="D232" s="32"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
@@ -40096,7 +40155,7 @@
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
-      <c r="D233" s="31"/>
+      <c r="D233" s="32"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -40120,7 +40179,7 @@
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
-      <c r="D234" s="31"/>
+      <c r="D234" s="32"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
@@ -40144,7 +40203,7 @@
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
-      <c r="D235" s="31"/>
+      <c r="D235" s="32"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
@@ -40168,7 +40227,7 @@
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
-      <c r="D236" s="31"/>
+      <c r="D236" s="32"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -40192,7 +40251,7 @@
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
-      <c r="D237" s="31"/>
+      <c r="D237" s="32"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
@@ -40216,7 +40275,7 @@
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
-      <c r="D238" s="31"/>
+      <c r="D238" s="32"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -40240,7 +40299,7 @@
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
-      <c r="D239" s="31"/>
+      <c r="D239" s="32"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
@@ -40264,7 +40323,7 @@
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
-      <c r="D240" s="31"/>
+      <c r="D240" s="32"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
@@ -40288,7 +40347,7 @@
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
-      <c r="D241" s="31"/>
+      <c r="D241" s="32"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -40312,7 +40371,7 @@
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
-      <c r="D242" s="31"/>
+      <c r="D242" s="32"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -40336,7 +40395,7 @@
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
-      <c r="D243" s="31"/>
+      <c r="D243" s="32"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
@@ -40360,7 +40419,7 @@
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
-      <c r="D244" s="31"/>
+      <c r="D244" s="32"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
@@ -40384,7 +40443,7 @@
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
-      <c r="D245" s="31"/>
+      <c r="D245" s="32"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -40408,7 +40467,7 @@
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
-      <c r="D246" s="31"/>
+      <c r="D246" s="32"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -40432,7 +40491,7 @@
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
-      <c r="D247" s="31"/>
+      <c r="D247" s="32"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
@@ -40456,7 +40515,7 @@
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="31"/>
+      <c r="D248" s="32"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
@@ -40480,7 +40539,7 @@
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
-      <c r="D249" s="31"/>
+      <c r="D249" s="32"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
@@ -40504,7 +40563,7 @@
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
-      <c r="D250" s="31"/>
+      <c r="D250" s="32"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
@@ -40528,7 +40587,7 @@
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
-      <c r="D251" s="31"/>
+      <c r="D251" s="32"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
@@ -40552,7 +40611,7 @@
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="31"/>
+      <c r="D252" s="32"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
@@ -40576,7 +40635,7 @@
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
-      <c r="D253" s="31"/>
+      <c r="D253" s="32"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
@@ -40600,7 +40659,7 @@
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
-      <c r="D254" s="31"/>
+      <c r="D254" s="32"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
@@ -40624,7 +40683,7 @@
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
-      <c r="D255" s="31"/>
+      <c r="D255" s="32"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
@@ -40648,7 +40707,7 @@
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
-      <c r="D256" s="31"/>
+      <c r="D256" s="32"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
@@ -40672,7 +40731,7 @@
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
-      <c r="D257" s="31"/>
+      <c r="D257" s="32"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
@@ -40696,7 +40755,7 @@
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
-      <c r="D258" s="31"/>
+      <c r="D258" s="32"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
@@ -40720,7 +40779,7 @@
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
-      <c r="D259" s="31"/>
+      <c r="D259" s="32"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
@@ -40744,7 +40803,7 @@
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="31"/>
+      <c r="D260" s="32"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
@@ -40768,7 +40827,7 @@
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
-      <c r="D261" s="31"/>
+      <c r="D261" s="32"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
@@ -40792,7 +40851,7 @@
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
-      <c r="D262" s="31"/>
+      <c r="D262" s="32"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
@@ -40816,7 +40875,7 @@
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
-      <c r="D263" s="31"/>
+      <c r="D263" s="32"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
@@ -40840,7 +40899,7 @@
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="31"/>
+      <c r="D264" s="32"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
@@ -40864,7 +40923,7 @@
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
-      <c r="D265" s="31"/>
+      <c r="D265" s="32"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
@@ -40888,7 +40947,7 @@
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
-      <c r="D266" s="31"/>
+      <c r="D266" s="32"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
@@ -40912,7 +40971,7 @@
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
-      <c r="D267" s="31"/>
+      <c r="D267" s="32"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
@@ -40936,7 +40995,7 @@
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
-      <c r="D268" s="31"/>
+      <c r="D268" s="32"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
@@ -40960,7 +41019,7 @@
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
-      <c r="D269" s="31"/>
+      <c r="D269" s="32"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
@@ -40984,7 +41043,7 @@
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
-      <c r="D270" s="31"/>
+      <c r="D270" s="32"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
@@ -41008,7 +41067,7 @@
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="31"/>
+      <c r="D271" s="32"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
@@ -41032,7 +41091,7 @@
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="31"/>
+      <c r="D272" s="32"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -41056,7 +41115,7 @@
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
-      <c r="D273" s="31"/>
+      <c r="D273" s="32"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
@@ -41080,7 +41139,7 @@
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
-      <c r="D274" s="31"/>
+      <c r="D274" s="32"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
@@ -41104,7 +41163,7 @@
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
-      <c r="D275" s="31"/>
+      <c r="D275" s="32"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
@@ -41128,7 +41187,7 @@
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
-      <c r="D276" s="31"/>
+      <c r="D276" s="32"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
@@ -41152,7 +41211,7 @@
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
-      <c r="D277" s="31"/>
+      <c r="D277" s="32"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
@@ -41176,7 +41235,7 @@
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
-      <c r="D278" s="31"/>
+      <c r="D278" s="32"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
@@ -41200,7 +41259,7 @@
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
-      <c r="D279" s="31"/>
+      <c r="D279" s="32"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
@@ -41224,7 +41283,7 @@
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
-      <c r="D280" s="31"/>
+      <c r="D280" s="32"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -41248,7 +41307,7 @@
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
-      <c r="D281" s="31"/>
+      <c r="D281" s="32"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
@@ -41272,7 +41331,7 @@
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="31"/>
+      <c r="D282" s="32"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -41296,7 +41355,7 @@
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
-      <c r="D283" s="31"/>
+      <c r="D283" s="32"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
@@ -41320,7 +41379,7 @@
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="31"/>
+      <c r="D284" s="32"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
@@ -41344,7 +41403,7 @@
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
-      <c r="D285" s="31"/>
+      <c r="D285" s="32"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -41368,7 +41427,7 @@
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
-      <c r="D286" s="31"/>
+      <c r="D286" s="32"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
@@ -41392,7 +41451,7 @@
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
-      <c r="D287" s="31"/>
+      <c r="D287" s="32"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
@@ -41416,7 +41475,7 @@
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
-      <c r="D288" s="31"/>
+      <c r="D288" s="32"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -41440,7 +41499,7 @@
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
-      <c r="D289" s="31"/>
+      <c r="D289" s="32"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
@@ -41464,7 +41523,7 @@
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
-      <c r="D290" s="31"/>
+      <c r="D290" s="32"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
@@ -41488,7 +41547,7 @@
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
-      <c r="D291" s="31"/>
+      <c r="D291" s="32"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
@@ -41512,7 +41571,7 @@
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
-      <c r="D292" s="31"/>
+      <c r="D292" s="32"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
@@ -41536,7 +41595,7 @@
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
-      <c r="D293" s="31"/>
+      <c r="D293" s="32"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
@@ -41560,7 +41619,7 @@
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
-      <c r="D294" s="31"/>
+      <c r="D294" s="32"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -41584,7 +41643,7 @@
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
-      <c r="D295" s="31"/>
+      <c r="D295" s="32"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
@@ -41608,7 +41667,7 @@
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
-      <c r="D296" s="31"/>
+      <c r="D296" s="32"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
@@ -41632,7 +41691,7 @@
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
-      <c r="D297" s="31"/>
+      <c r="D297" s="32"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
@@ -41656,7 +41715,7 @@
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
-      <c r="D298" s="31"/>
+      <c r="D298" s="32"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -41680,7 +41739,7 @@
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
-      <c r="D299" s="31"/>
+      <c r="D299" s="32"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
@@ -41704,7 +41763,7 @@
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
-      <c r="D300" s="31"/>
+      <c r="D300" s="32"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
@@ -41728,7 +41787,7 @@
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
-      <c r="D301" s="31"/>
+      <c r="D301" s="32"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
@@ -41752,7 +41811,7 @@
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
-      <c r="D302" s="31"/>
+      <c r="D302" s="32"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
@@ -41776,7 +41835,7 @@
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
-      <c r="D303" s="31"/>
+      <c r="D303" s="32"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
@@ -41800,7 +41859,7 @@
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
-      <c r="D304" s="31"/>
+      <c r="D304" s="32"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -41824,7 +41883,7 @@
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
-      <c r="D305" s="31"/>
+      <c r="D305" s="32"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -41848,7 +41907,7 @@
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
-      <c r="D306" s="31"/>
+      <c r="D306" s="32"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
@@ -41872,7 +41931,7 @@
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
-      <c r="D307" s="31"/>
+      <c r="D307" s="32"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
@@ -41896,7 +41955,7 @@
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
-      <c r="D308" s="31"/>
+      <c r="D308" s="32"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -41920,7 +41979,7 @@
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
-      <c r="D309" s="31"/>
+      <c r="D309" s="32"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -41944,7 +42003,7 @@
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
-      <c r="D310" s="31"/>
+      <c r="D310" s="32"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
@@ -41968,7 +42027,7 @@
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
-      <c r="D311" s="31"/>
+      <c r="D311" s="32"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -41992,7 +42051,7 @@
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
-      <c r="D312" s="31"/>
+      <c r="D312" s="32"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
@@ -42016,7 +42075,7 @@
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
-      <c r="D313" s="31"/>
+      <c r="D313" s="32"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
@@ -42040,7 +42099,7 @@
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
-      <c r="D314" s="31"/>
+      <c r="D314" s="32"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
@@ -42064,7 +42123,7 @@
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
-      <c r="D315" s="31"/>
+      <c r="D315" s="32"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
@@ -42088,7 +42147,7 @@
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
-      <c r="D316" s="31"/>
+      <c r="D316" s="32"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
@@ -42112,7 +42171,7 @@
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
-      <c r="D317" s="31"/>
+      <c r="D317" s="32"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -42136,7 +42195,7 @@
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
-      <c r="D318" s="31"/>
+      <c r="D318" s="32"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
@@ -42160,7 +42219,7 @@
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
-      <c r="D319" s="31"/>
+      <c r="D319" s="32"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -42184,7 +42243,7 @@
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
-      <c r="D320" s="31"/>
+      <c r="D320" s="32"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -42208,7 +42267,7 @@
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
-      <c r="D321" s="31"/>
+      <c r="D321" s="32"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
@@ -42232,7 +42291,7 @@
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
-      <c r="D322" s="31"/>
+      <c r="D322" s="32"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
@@ -42256,7 +42315,7 @@
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
-      <c r="D323" s="31"/>
+      <c r="D323" s="32"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -42280,7 +42339,7 @@
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
-      <c r="D324" s="31"/>
+      <c r="D324" s="32"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
@@ -42304,7 +42363,7 @@
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
-      <c r="D325" s="31"/>
+      <c r="D325" s="32"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
@@ -42328,7 +42387,7 @@
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
-      <c r="D326" s="31"/>
+      <c r="D326" s="32"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
@@ -42352,7 +42411,7 @@
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
-      <c r="D327" s="31"/>
+      <c r="D327" s="32"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
@@ -42376,7 +42435,7 @@
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
-      <c r="D328" s="31"/>
+      <c r="D328" s="32"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -42400,7 +42459,7 @@
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
-      <c r="D329" s="31"/>
+      <c r="D329" s="32"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
@@ -42424,7 +42483,7 @@
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
-      <c r="D330" s="31"/>
+      <c r="D330" s="32"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
@@ -42448,7 +42507,7 @@
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
-      <c r="D331" s="31"/>
+      <c r="D331" s="32"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -42472,7 +42531,7 @@
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
-      <c r="D332" s="31"/>
+      <c r="D332" s="32"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
@@ -42496,7 +42555,7 @@
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
-      <c r="D333" s="31"/>
+      <c r="D333" s="32"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -42520,7 +42579,7 @@
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
-      <c r="D334" s="31"/>
+      <c r="D334" s="32"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
@@ -42544,7 +42603,7 @@
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
-      <c r="D335" s="31"/>
+      <c r="D335" s="32"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -42568,7 +42627,7 @@
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
-      <c r="D336" s="31"/>
+      <c r="D336" s="32"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
@@ -42592,7 +42651,7 @@
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
-      <c r="D337" s="31"/>
+      <c r="D337" s="32"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
@@ -42616,7 +42675,7 @@
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
-      <c r="D338" s="31"/>
+      <c r="D338" s="32"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
@@ -42640,7 +42699,7 @@
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
-      <c r="D339" s="31"/>
+      <c r="D339" s="32"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
@@ -42664,7 +42723,7 @@
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
-      <c r="D340" s="31"/>
+      <c r="D340" s="32"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
@@ -42688,7 +42747,7 @@
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
-      <c r="D341" s="31"/>
+      <c r="D341" s="32"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
@@ -42712,7 +42771,7 @@
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
-      <c r="D342" s="31"/>
+      <c r="D342" s="32"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
@@ -42736,7 +42795,7 @@
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
-      <c r="D343" s="31"/>
+      <c r="D343" s="32"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -42760,7 +42819,7 @@
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
-      <c r="D344" s="31"/>
+      <c r="D344" s="32"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
@@ -42784,7 +42843,7 @@
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
-      <c r="D345" s="31"/>
+      <c r="D345" s="32"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
@@ -42808,7 +42867,7 @@
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
-      <c r="D346" s="31"/>
+      <c r="D346" s="32"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -42832,7 +42891,7 @@
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
-      <c r="D347" s="31"/>
+      <c r="D347" s="32"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -42856,7 +42915,7 @@
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
-      <c r="D348" s="31"/>
+      <c r="D348" s="32"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
@@ -42880,7 +42939,7 @@
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
-      <c r="D349" s="31"/>
+      <c r="D349" s="32"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
@@ -42904,7 +42963,7 @@
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
-      <c r="D350" s="31"/>
+      <c r="D350" s="32"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
@@ -42928,7 +42987,7 @@
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
-      <c r="D351" s="31"/>
+      <c r="D351" s="32"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
@@ -42952,7 +43011,7 @@
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
-      <c r="D352" s="31"/>
+      <c r="D352" s="32"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
@@ -42976,7 +43035,7 @@
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
-      <c r="D353" s="31"/>
+      <c r="D353" s="32"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
@@ -43000,7 +43059,7 @@
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
-      <c r="D354" s="31"/>
+      <c r="D354" s="32"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -43024,7 +43083,7 @@
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="31"/>
+      <c r="D355" s="32"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
@@ -43048,7 +43107,7 @@
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
-      <c r="D356" s="31"/>
+      <c r="D356" s="32"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
@@ -43072,7 +43131,7 @@
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
-      <c r="D357" s="31"/>
+      <c r="D357" s="32"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
@@ -43096,7 +43155,7 @@
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
-      <c r="D358" s="31"/>
+      <c r="D358" s="32"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
@@ -43120,7 +43179,7 @@
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
-      <c r="D359" s="31"/>
+      <c r="D359" s="32"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
@@ -43144,7 +43203,7 @@
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
-      <c r="D360" s="31"/>
+      <c r="D360" s="32"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
@@ -43168,7 +43227,7 @@
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
-      <c r="D361" s="31"/>
+      <c r="D361" s="32"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
@@ -43192,7 +43251,7 @@
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
-      <c r="D362" s="31"/>
+      <c r="D362" s="32"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
@@ -43216,7 +43275,7 @@
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
-      <c r="D363" s="31"/>
+      <c r="D363" s="32"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
@@ -43240,7 +43299,7 @@
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
-      <c r="D364" s="31"/>
+      <c r="D364" s="32"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
@@ -43264,7 +43323,7 @@
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
-      <c r="D365" s="31"/>
+      <c r="D365" s="32"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -43288,7 +43347,7 @@
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
-      <c r="D366" s="31"/>
+      <c r="D366" s="32"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
@@ -43312,7 +43371,7 @@
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
-      <c r="D367" s="31"/>
+      <c r="D367" s="32"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -43336,7 +43395,7 @@
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
-      <c r="D368" s="31"/>
+      <c r="D368" s="32"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
@@ -43360,7 +43419,7 @@
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
-      <c r="D369" s="31"/>
+      <c r="D369" s="32"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
@@ -43384,7 +43443,7 @@
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
-      <c r="D370" s="31"/>
+      <c r="D370" s="32"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
@@ -43408,7 +43467,7 @@
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
-      <c r="D371" s="31"/>
+      <c r="D371" s="32"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
@@ -43432,7 +43491,7 @@
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
-      <c r="D372" s="31"/>
+      <c r="D372" s="32"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
@@ -43456,7 +43515,7 @@
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
-      <c r="D373" s="31"/>
+      <c r="D373" s="32"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
@@ -43480,7 +43539,7 @@
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
-      <c r="D374" s="31"/>
+      <c r="D374" s="32"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
@@ -43504,7 +43563,7 @@
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
-      <c r="D375" s="31"/>
+      <c r="D375" s="32"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
@@ -43528,7 +43587,7 @@
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
-      <c r="D376" s="31"/>
+      <c r="D376" s="32"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
@@ -43552,7 +43611,7 @@
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
-      <c r="D377" s="31"/>
+      <c r="D377" s="32"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
@@ -43576,7 +43635,7 @@
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
-      <c r="D378" s="31"/>
+      <c r="D378" s="32"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
@@ -43600,7 +43659,7 @@
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
-      <c r="D379" s="31"/>
+      <c r="D379" s="32"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
@@ -43624,7 +43683,7 @@
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
-      <c r="D380" s="31"/>
+      <c r="D380" s="32"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
@@ -43648,7 +43707,7 @@
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
-      <c r="D381" s="31"/>
+      <c r="D381" s="32"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -43672,7 +43731,7 @@
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
-      <c r="D382" s="31"/>
+      <c r="D382" s="32"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
@@ -43696,7 +43755,7 @@
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
-      <c r="D383" s="31"/>
+      <c r="D383" s="32"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
@@ -43720,7 +43779,7 @@
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
-      <c r="D384" s="31"/>
+      <c r="D384" s="32"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
@@ -43744,7 +43803,7 @@
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
-      <c r="D385" s="31"/>
+      <c r="D385" s="32"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -43768,7 +43827,7 @@
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
-      <c r="D386" s="31"/>
+      <c r="D386" s="32"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
@@ -43792,7 +43851,7 @@
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
-      <c r="D387" s="31"/>
+      <c r="D387" s="32"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
@@ -43816,7 +43875,7 @@
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
-      <c r="D388" s="31"/>
+      <c r="D388" s="32"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
@@ -43840,7 +43899,7 @@
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
-      <c r="D389" s="31"/>
+      <c r="D389" s="32"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
@@ -43864,7 +43923,7 @@
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
-      <c r="D390" s="31"/>
+      <c r="D390" s="32"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
@@ -43888,7 +43947,7 @@
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
-      <c r="D391" s="31"/>
+      <c r="D391" s="32"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
@@ -43912,7 +43971,7 @@
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
-      <c r="D392" s="31"/>
+      <c r="D392" s="32"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
@@ -43936,7 +43995,7 @@
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
-      <c r="D393" s="31"/>
+      <c r="D393" s="32"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -43960,7 +44019,7 @@
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
-      <c r="D394" s="31"/>
+      <c r="D394" s="32"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -43984,7 +44043,7 @@
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
-      <c r="D395" s="31"/>
+      <c r="D395" s="32"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
@@ -44008,7 +44067,7 @@
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
-      <c r="D396" s="31"/>
+      <c r="D396" s="32"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
@@ -44032,7 +44091,7 @@
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
-      <c r="D397" s="31"/>
+      <c r="D397" s="32"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
@@ -44056,7 +44115,7 @@
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
-      <c r="D398" s="31"/>
+      <c r="D398" s="32"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
@@ -44080,7 +44139,7 @@
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
-      <c r="D399" s="31"/>
+      <c r="D399" s="32"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
@@ -44104,7 +44163,7 @@
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
-      <c r="D400" s="31"/>
+      <c r="D400" s="32"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="6"/>
@@ -44128,7 +44187,7 @@
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
-      <c r="D401" s="31"/>
+      <c r="D401" s="32"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
@@ -44152,7 +44211,7 @@
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
-      <c r="D402" s="31"/>
+      <c r="D402" s="32"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
@@ -44176,7 +44235,7 @@
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
-      <c r="D403" s="31"/>
+      <c r="D403" s="32"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
@@ -44200,7 +44259,7 @@
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
-      <c r="D404" s="31"/>
+      <c r="D404" s="32"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="6"/>
@@ -44224,7 +44283,7 @@
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
-      <c r="D405" s="31"/>
+      <c r="D405" s="32"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
@@ -44248,7 +44307,7 @@
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
-      <c r="D406" s="31"/>
+      <c r="D406" s="32"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
@@ -44272,7 +44331,7 @@
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
-      <c r="D407" s="31"/>
+      <c r="D407" s="32"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -44296,7 +44355,7 @@
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
-      <c r="D408" s="31"/>
+      <c r="D408" s="32"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
@@ -44320,7 +44379,7 @@
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
-      <c r="D409" s="31"/>
+      <c r="D409" s="32"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
@@ -44344,7 +44403,7 @@
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
-      <c r="D410" s="31"/>
+      <c r="D410" s="32"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="6"/>
@@ -44368,7 +44427,7 @@
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
-      <c r="D411" s="31"/>
+      <c r="D411" s="32"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
@@ -44392,7 +44451,7 @@
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
-      <c r="D412" s="31"/>
+      <c r="D412" s="32"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>
@@ -44416,7 +44475,7 @@
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
-      <c r="D413" s="31"/>
+      <c r="D413" s="32"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
@@ -44440,7 +44499,7 @@
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
-      <c r="D414" s="31"/>
+      <c r="D414" s="32"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
@@ -44464,7 +44523,7 @@
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
-      <c r="D415" s="31"/>
+      <c r="D415" s="32"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
@@ -44488,7 +44547,7 @@
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
-      <c r="D416" s="31"/>
+      <c r="D416" s="32"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
@@ -44512,7 +44571,7 @@
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
-      <c r="D417" s="31"/>
+      <c r="D417" s="32"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
@@ -44536,7 +44595,7 @@
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
-      <c r="D418" s="31"/>
+      <c r="D418" s="32"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
@@ -44560,7 +44619,7 @@
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
-      <c r="D419" s="31"/>
+      <c r="D419" s="32"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
@@ -44584,7 +44643,7 @@
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
-      <c r="D420" s="31"/>
+      <c r="D420" s="32"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="6"/>
@@ -44608,7 +44667,7 @@
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
-      <c r="D421" s="31"/>
+      <c r="D421" s="32"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -44632,7 +44691,7 @@
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
-      <c r="D422" s="31"/>
+      <c r="D422" s="32"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -44656,7 +44715,7 @@
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
-      <c r="D423" s="31"/>
+      <c r="D423" s="32"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
@@ -44680,7 +44739,7 @@
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
-      <c r="D424" s="31"/>
+      <c r="D424" s="32"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -44704,7 +44763,7 @@
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
-      <c r="D425" s="31"/>
+      <c r="D425" s="32"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -44728,7 +44787,7 @@
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
-      <c r="D426" s="31"/>
+      <c r="D426" s="32"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
@@ -44752,7 +44811,7 @@
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
-      <c r="D427" s="31"/>
+      <c r="D427" s="32"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
@@ -44776,7 +44835,7 @@
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
-      <c r="D428" s="31"/>
+      <c r="D428" s="32"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
       <c r="G428" s="6"/>
@@ -44800,7 +44859,7 @@
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
-      <c r="D429" s="31"/>
+      <c r="D429" s="32"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
@@ -44824,7 +44883,7 @@
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
-      <c r="D430" s="31"/>
+      <c r="D430" s="32"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
@@ -44848,7 +44907,7 @@
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
-      <c r="D431" s="31"/>
+      <c r="D431" s="32"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
@@ -44872,7 +44931,7 @@
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
-      <c r="D432" s="31"/>
+      <c r="D432" s="32"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -44896,7 +44955,7 @@
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
-      <c r="D433" s="31"/>
+      <c r="D433" s="32"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
@@ -44920,7 +44979,7 @@
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
-      <c r="D434" s="31"/>
+      <c r="D434" s="32"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
       <c r="G434" s="6"/>
@@ -44944,7 +45003,7 @@
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
-      <c r="D435" s="31"/>
+      <c r="D435" s="32"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
@@ -44968,7 +45027,7 @@
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
-      <c r="D436" s="31"/>
+      <c r="D436" s="32"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
       <c r="G436" s="6"/>
@@ -44992,7 +45051,7 @@
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
-      <c r="D437" s="31"/>
+      <c r="D437" s="32"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
@@ -45016,7 +45075,7 @@
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
-      <c r="D438" s="31"/>
+      <c r="D438" s="32"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
@@ -45040,7 +45099,7 @@
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
-      <c r="D439" s="31"/>
+      <c r="D439" s="32"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
@@ -45064,7 +45123,7 @@
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
-      <c r="D440" s="31"/>
+      <c r="D440" s="32"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
       <c r="G440" s="6"/>
@@ -45088,7 +45147,7 @@
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
-      <c r="D441" s="31"/>
+      <c r="D441" s="32"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
@@ -45112,7 +45171,7 @@
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
-      <c r="D442" s="31"/>
+      <c r="D442" s="32"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -45136,7 +45195,7 @@
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
-      <c r="D443" s="31"/>
+      <c r="D443" s="32"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
@@ -45160,7 +45219,7 @@
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
-      <c r="D444" s="31"/>
+      <c r="D444" s="32"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
@@ -45184,7 +45243,7 @@
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
-      <c r="D445" s="31"/>
+      <c r="D445" s="32"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
@@ -45208,7 +45267,7 @@
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
-      <c r="D446" s="31"/>
+      <c r="D446" s="32"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -45232,7 +45291,7 @@
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
-      <c r="D447" s="31"/>
+      <c r="D447" s="32"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
@@ -45256,7 +45315,7 @@
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
-      <c r="D448" s="31"/>
+      <c r="D448" s="32"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
       <c r="G448" s="6"/>
@@ -45280,7 +45339,7 @@
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
-      <c r="D449" s="31"/>
+      <c r="D449" s="32"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
@@ -45304,7 +45363,7 @@
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
-      <c r="D450" s="31"/>
+      <c r="D450" s="32"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
@@ -45328,7 +45387,7 @@
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
-      <c r="D451" s="31"/>
+      <c r="D451" s="32"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -45352,7 +45411,7 @@
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
-      <c r="D452" s="31"/>
+      <c r="D452" s="32"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
@@ -45376,7 +45435,7 @@
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
-      <c r="D453" s="31"/>
+      <c r="D453" s="32"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
@@ -45400,7 +45459,7 @@
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
-      <c r="D454" s="31"/>
+      <c r="D454" s="32"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
@@ -45424,7 +45483,7 @@
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
-      <c r="D455" s="31"/>
+      <c r="D455" s="32"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
@@ -45448,7 +45507,7 @@
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
-      <c r="D456" s="31"/>
+      <c r="D456" s="32"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
       <c r="G456" s="6"/>
@@ -45472,7 +45531,7 @@
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
-      <c r="D457" s="31"/>
+      <c r="D457" s="32"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -45496,7 +45555,7 @@
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
-      <c r="D458" s="31"/>
+      <c r="D458" s="32"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
@@ -45520,7 +45579,7 @@
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
-      <c r="D459" s="31"/>
+      <c r="D459" s="32"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
@@ -45544,7 +45603,7 @@
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
-      <c r="D460" s="31"/>
+      <c r="D460" s="32"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
       <c r="G460" s="6"/>
@@ -45568,7 +45627,7 @@
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
-      <c r="D461" s="31"/>
+      <c r="D461" s="32"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
@@ -45592,7 +45651,7 @@
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
-      <c r="D462" s="31"/>
+      <c r="D462" s="32"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -45616,7 +45675,7 @@
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
-      <c r="D463" s="31"/>
+      <c r="D463" s="32"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
@@ -45640,7 +45699,7 @@
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
-      <c r="D464" s="31"/>
+      <c r="D464" s="32"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
@@ -45664,7 +45723,7 @@
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
-      <c r="D465" s="31"/>
+      <c r="D465" s="32"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
@@ -45688,7 +45747,7 @@
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
-      <c r="D466" s="31"/>
+      <c r="D466" s="32"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
@@ -45712,7 +45771,7 @@
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
-      <c r="D467" s="31"/>
+      <c r="D467" s="32"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -45736,7 +45795,7 @@
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
-      <c r="D468" s="31"/>
+      <c r="D468" s="32"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -45760,7 +45819,7 @@
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
-      <c r="D469" s="31"/>
+      <c r="D469" s="32"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -45784,7 +45843,7 @@
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
-      <c r="D470" s="31"/>
+      <c r="D470" s="32"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
       <c r="G470" s="6"/>
@@ -45808,7 +45867,7 @@
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
-      <c r="D471" s="31"/>
+      <c r="D471" s="32"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
@@ -45832,7 +45891,7 @@
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
-      <c r="D472" s="31"/>
+      <c r="D472" s="32"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
       <c r="G472" s="6"/>
@@ -45856,7 +45915,7 @@
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
-      <c r="D473" s="31"/>
+      <c r="D473" s="32"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -45880,7 +45939,7 @@
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
-      <c r="D474" s="31"/>
+      <c r="D474" s="32"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -45904,7 +45963,7 @@
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
-      <c r="D475" s="31"/>
+      <c r="D475" s="32"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
       <c r="G475" s="6"/>
@@ -45928,7 +45987,7 @@
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
-      <c r="D476" s="31"/>
+      <c r="D476" s="32"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
       <c r="G476" s="6"/>
@@ -45952,7 +46011,7 @@
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
-      <c r="D477" s="31"/>
+      <c r="D477" s="32"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
       <c r="G477" s="6"/>
@@ -45976,7 +46035,7 @@
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
-      <c r="D478" s="31"/>
+      <c r="D478" s="32"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
       <c r="G478" s="6"/>
@@ -46000,7 +46059,7 @@
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
-      <c r="D479" s="31"/>
+      <c r="D479" s="32"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
@@ -46024,7 +46083,7 @@
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
-      <c r="D480" s="31"/>
+      <c r="D480" s="32"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
@@ -46048,7 +46107,7 @@
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
-      <c r="D481" s="31"/>
+      <c r="D481" s="32"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -46072,7 +46131,7 @@
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
-      <c r="D482" s="31"/>
+      <c r="D482" s="32"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
       <c r="G482" s="6"/>
@@ -46096,7 +46155,7 @@
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
-      <c r="D483" s="31"/>
+      <c r="D483" s="32"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
@@ -46120,7 +46179,7 @@
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
-      <c r="D484" s="31"/>
+      <c r="D484" s="32"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
       <c r="G484" s="6"/>
@@ -46144,7 +46203,7 @@
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
-      <c r="D485" s="31"/>
+      <c r="D485" s="32"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
       <c r="G485" s="6"/>
@@ -46168,7 +46227,7 @@
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
-      <c r="D486" s="31"/>
+      <c r="D486" s="32"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
       <c r="G486" s="6"/>
@@ -46192,7 +46251,7 @@
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
-      <c r="D487" s="31"/>
+      <c r="D487" s="32"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
@@ -46216,7 +46275,7 @@
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
-      <c r="D488" s="31"/>
+      <c r="D488" s="32"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -46240,7 +46299,7 @@
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
-      <c r="D489" s="31"/>
+      <c r="D489" s="32"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
@@ -46264,7 +46323,7 @@
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
-      <c r="D490" s="31"/>
+      <c r="D490" s="32"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
       <c r="G490" s="6"/>
@@ -46288,7 +46347,7 @@
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
-      <c r="D491" s="31"/>
+      <c r="D491" s="32"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
       <c r="G491" s="6"/>
@@ -46312,7 +46371,7 @@
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
-      <c r="D492" s="31"/>
+      <c r="D492" s="32"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
       <c r="G492" s="6"/>
@@ -46336,7 +46395,7 @@
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
-      <c r="D493" s="31"/>
+      <c r="D493" s="32"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
       <c r="G493" s="6"/>
@@ -46360,7 +46419,7 @@
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
-      <c r="D494" s="31"/>
+      <c r="D494" s="32"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
       <c r="G494" s="6"/>
@@ -46384,7 +46443,7 @@
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
-      <c r="D495" s="31"/>
+      <c r="D495" s="32"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -46408,7 +46467,7 @@
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
-      <c r="D496" s="31"/>
+      <c r="D496" s="32"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
       <c r="G496" s="6"/>
@@ -46432,7 +46491,7 @@
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
-      <c r="D497" s="31"/>
+      <c r="D497" s="32"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
@@ -46456,7 +46515,7 @@
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
-      <c r="D498" s="31"/>
+      <c r="D498" s="32"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
       <c r="G498" s="6"/>
@@ -46480,7 +46539,7 @@
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
-      <c r="D499" s="31"/>
+      <c r="D499" s="32"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
       <c r="G499" s="6"/>
@@ -46504,7 +46563,7 @@
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
-      <c r="D500" s="31"/>
+      <c r="D500" s="32"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
       <c r="G500" s="6"/>
@@ -46528,7 +46587,7 @@
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
-      <c r="D501" s="31"/>
+      <c r="D501" s="32"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -46552,7 +46611,7 @@
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
-      <c r="D502" s="31"/>
+      <c r="D502" s="32"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
       <c r="G502" s="6"/>
@@ -46576,7 +46635,7 @@
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
-      <c r="D503" s="31"/>
+      <c r="D503" s="32"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
@@ -46600,7 +46659,7 @@
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
-      <c r="D504" s="31"/>
+      <c r="D504" s="32"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
       <c r="G504" s="6"/>
@@ -46624,7 +46683,7 @@
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
-      <c r="D505" s="31"/>
+      <c r="D505" s="32"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
@@ -46648,7 +46707,7 @@
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
-      <c r="D506" s="31"/>
+      <c r="D506" s="32"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
       <c r="G506" s="6"/>
@@ -46672,7 +46731,7 @@
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
-      <c r="D507" s="31"/>
+      <c r="D507" s="32"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -46696,7 +46755,7 @@
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
-      <c r="D508" s="31"/>
+      <c r="D508" s="32"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -46720,7 +46779,7 @@
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
-      <c r="D509" s="31"/>
+      <c r="D509" s="32"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
@@ -46744,7 +46803,7 @@
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
-      <c r="D510" s="31"/>
+      <c r="D510" s="32"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
       <c r="G510" s="6"/>
@@ -46768,7 +46827,7 @@
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
-      <c r="D511" s="31"/>
+      <c r="D511" s="32"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
@@ -46792,7 +46851,7 @@
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
-      <c r="D512" s="31"/>
+      <c r="D512" s="32"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
       <c r="G512" s="6"/>
@@ -46816,7 +46875,7 @@
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
-      <c r="D513" s="31"/>
+      <c r="D513" s="32"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -46840,7 +46899,7 @@
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
-      <c r="D514" s="31"/>
+      <c r="D514" s="32"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
       <c r="G514" s="6"/>
@@ -46864,7 +46923,7 @@
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
-      <c r="D515" s="31"/>
+      <c r="D515" s="32"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
@@ -46888,7 +46947,7 @@
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
-      <c r="D516" s="31"/>
+      <c r="D516" s="32"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
       <c r="G516" s="6"/>
@@ -46912,7 +46971,7 @@
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
-      <c r="D517" s="31"/>
+      <c r="D517" s="32"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
@@ -46936,7 +46995,7 @@
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
-      <c r="D518" s="31"/>
+      <c r="D518" s="32"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -46960,7 +47019,7 @@
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
-      <c r="D519" s="31"/>
+      <c r="D519" s="32"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
@@ -46984,7 +47043,7 @@
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
-      <c r="D520" s="31"/>
+      <c r="D520" s="32"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -47008,7 +47067,7 @@
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
-      <c r="D521" s="31"/>
+      <c r="D521" s="32"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
@@ -47032,7 +47091,7 @@
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
-      <c r="D522" s="31"/>
+      <c r="D522" s="32"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
       <c r="G522" s="6"/>
@@ -47056,7 +47115,7 @@
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
-      <c r="D523" s="31"/>
+      <c r="D523" s="32"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
@@ -47080,7 +47139,7 @@
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
-      <c r="D524" s="31"/>
+      <c r="D524" s="32"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
       <c r="G524" s="6"/>
@@ -47104,7 +47163,7 @@
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
-      <c r="D525" s="31"/>
+      <c r="D525" s="32"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
@@ -47128,7 +47187,7 @@
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
-      <c r="D526" s="31"/>
+      <c r="D526" s="32"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
       <c r="G526" s="6"/>
@@ -47152,7 +47211,7 @@
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
-      <c r="D527" s="31"/>
+      <c r="D527" s="32"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
@@ -47176,7 +47235,7 @@
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
-      <c r="D528" s="31"/>
+      <c r="D528" s="32"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
       <c r="G528" s="6"/>
@@ -47200,7 +47259,7 @@
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
-      <c r="D529" s="31"/>
+      <c r="D529" s="32"/>
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
       <c r="G529" s="6"/>
@@ -47224,7 +47283,7 @@
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
-      <c r="D530" s="31"/>
+      <c r="D530" s="32"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
       <c r="G530" s="6"/>
@@ -47248,7 +47307,7 @@
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
-      <c r="D531" s="31"/>
+      <c r="D531" s="32"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
       <c r="G531" s="6"/>
@@ -47272,7 +47331,7 @@
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
-      <c r="D532" s="31"/>
+      <c r="D532" s="32"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
       <c r="G532" s="6"/>
@@ -47296,7 +47355,7 @@
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
-      <c r="D533" s="31"/>
+      <c r="D533" s="32"/>
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -47320,7 +47379,7 @@
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
-      <c r="D534" s="31"/>
+      <c r="D534" s="32"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
       <c r="G534" s="6"/>
@@ -47344,7 +47403,7 @@
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
-      <c r="D535" s="31"/>
+      <c r="D535" s="32"/>
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -47368,7 +47427,7 @@
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
-      <c r="D536" s="31"/>
+      <c r="D536" s="32"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
@@ -47392,7 +47451,7 @@
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
-      <c r="D537" s="31"/>
+      <c r="D537" s="32"/>
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
       <c r="G537" s="6"/>
@@ -47416,7 +47475,7 @@
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
-      <c r="D538" s="31"/>
+      <c r="D538" s="32"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
       <c r="G538" s="6"/>
@@ -47440,7 +47499,7 @@
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
-      <c r="D539" s="31"/>
+      <c r="D539" s="32"/>
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
       <c r="G539" s="6"/>
@@ -47464,7 +47523,7 @@
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
-      <c r="D540" s="31"/>
+      <c r="D540" s="32"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
       <c r="G540" s="6"/>
@@ -47488,7 +47547,7 @@
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
-      <c r="D541" s="31"/>
+      <c r="D541" s="32"/>
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
       <c r="G541" s="6"/>
@@ -47512,7 +47571,7 @@
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
-      <c r="D542" s="31"/>
+      <c r="D542" s="32"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
       <c r="G542" s="6"/>
@@ -47536,7 +47595,7 @@
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
-      <c r="D543" s="31"/>
+      <c r="D543" s="32"/>
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
       <c r="G543" s="6"/>
@@ -47560,7 +47619,7 @@
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
-      <c r="D544" s="31"/>
+      <c r="D544" s="32"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
       <c r="G544" s="6"/>
@@ -47584,7 +47643,7 @@
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
-      <c r="D545" s="31"/>
+      <c r="D545" s="32"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
       <c r="G545" s="6"/>
@@ -47608,7 +47667,7 @@
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
-      <c r="D546" s="31"/>
+      <c r="D546" s="32"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
       <c r="G546" s="6"/>
@@ -47632,7 +47691,7 @@
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
-      <c r="D547" s="31"/>
+      <c r="D547" s="32"/>
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
       <c r="G547" s="6"/>
@@ -47656,7 +47715,7 @@
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
-      <c r="D548" s="31"/>
+      <c r="D548" s="32"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
       <c r="G548" s="6"/>
@@ -47680,7 +47739,7 @@
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
-      <c r="D549" s="31"/>
+      <c r="D549" s="32"/>
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
       <c r="G549" s="6"/>
@@ -47704,7 +47763,7 @@
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
-      <c r="D550" s="31"/>
+      <c r="D550" s="32"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
       <c r="G550" s="6"/>
@@ -47728,7 +47787,7 @@
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
-      <c r="D551" s="31"/>
+      <c r="D551" s="32"/>
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -47752,7 +47811,7 @@
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
-      <c r="D552" s="31"/>
+      <c r="D552" s="32"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
       <c r="G552" s="6"/>
@@ -47776,7 +47835,7 @@
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
-      <c r="D553" s="31"/>
+      <c r="D553" s="32"/>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
       <c r="G553" s="6"/>
@@ -47800,7 +47859,7 @@
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
-      <c r="D554" s="31"/>
+      <c r="D554" s="32"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
       <c r="G554" s="6"/>
@@ -47824,7 +47883,7 @@
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
-      <c r="D555" s="31"/>
+      <c r="D555" s="32"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
@@ -47848,7 +47907,7 @@
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
-      <c r="D556" s="31"/>
+      <c r="D556" s="32"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
       <c r="G556" s="6"/>
@@ -47872,7 +47931,7 @@
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
-      <c r="D557" s="31"/>
+      <c r="D557" s="32"/>
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -47896,7 +47955,7 @@
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
-      <c r="D558" s="31"/>
+      <c r="D558" s="32"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
       <c r="G558" s="6"/>
@@ -47920,7 +47979,7 @@
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
-      <c r="D559" s="31"/>
+      <c r="D559" s="32"/>
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
@@ -47944,7 +48003,7 @@
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
-      <c r="D560" s="31"/>
+      <c r="D560" s="32"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
@@ -47968,7 +48027,7 @@
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
-      <c r="D561" s="31"/>
+      <c r="D561" s="32"/>
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
       <c r="G561" s="6"/>
@@ -47992,7 +48051,7 @@
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
-      <c r="D562" s="31"/>
+      <c r="D562" s="32"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
       <c r="G562" s="6"/>
@@ -48016,7 +48075,7 @@
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
-      <c r="D563" s="31"/>
+      <c r="D563" s="32"/>
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -48040,7 +48099,7 @@
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
-      <c r="D564" s="31"/>
+      <c r="D564" s="32"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
       <c r="G564" s="6"/>
@@ -48064,7 +48123,7 @@
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
-      <c r="D565" s="31"/>
+      <c r="D565" s="32"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
       <c r="G565" s="6"/>
@@ -48088,7 +48147,7 @@
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
-      <c r="D566" s="31"/>
+      <c r="D566" s="32"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
       <c r="G566" s="6"/>
@@ -48112,7 +48171,7 @@
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
-      <c r="D567" s="31"/>
+      <c r="D567" s="32"/>
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -48136,7 +48195,7 @@
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
-      <c r="D568" s="31"/>
+      <c r="D568" s="32"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
       <c r="G568" s="6"/>
@@ -48160,7 +48219,7 @@
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
-      <c r="D569" s="31"/>
+      <c r="D569" s="32"/>
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
       <c r="G569" s="6"/>
@@ -48184,7 +48243,7 @@
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
-      <c r="D570" s="31"/>
+      <c r="D570" s="32"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
       <c r="G570" s="6"/>
@@ -48208,7 +48267,7 @@
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
-      <c r="D571" s="31"/>
+      <c r="D571" s="32"/>
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
       <c r="G571" s="6"/>
@@ -48232,7 +48291,7 @@
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
-      <c r="D572" s="31"/>
+      <c r="D572" s="32"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
       <c r="G572" s="6"/>
@@ -48256,7 +48315,7 @@
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
-      <c r="D573" s="31"/>
+      <c r="D573" s="32"/>
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
       <c r="G573" s="6"/>
@@ -48280,7 +48339,7 @@
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
-      <c r="D574" s="31"/>
+      <c r="D574" s="32"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
       <c r="G574" s="6"/>
@@ -48304,7 +48363,7 @@
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
-      <c r="D575" s="31"/>
+      <c r="D575" s="32"/>
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
       <c r="G575" s="6"/>
@@ -48328,7 +48387,7 @@
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
-      <c r="D576" s="31"/>
+      <c r="D576" s="32"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
       <c r="G576" s="6"/>
@@ -48352,7 +48411,7 @@
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
-      <c r="D577" s="31"/>
+      <c r="D577" s="32"/>
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
       <c r="G577" s="6"/>
@@ -48376,7 +48435,7 @@
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
-      <c r="D578" s="31"/>
+      <c r="D578" s="32"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
       <c r="G578" s="6"/>
@@ -48400,7 +48459,7 @@
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
-      <c r="D579" s="31"/>
+      <c r="D579" s="32"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
       <c r="G579" s="6"/>
@@ -48424,7 +48483,7 @@
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
-      <c r="D580" s="31"/>
+      <c r="D580" s="32"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
       <c r="G580" s="6"/>
@@ -48448,7 +48507,7 @@
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
-      <c r="D581" s="31"/>
+      <c r="D581" s="32"/>
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -48472,7 +48531,7 @@
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
-      <c r="D582" s="31"/>
+      <c r="D582" s="32"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
       <c r="G582" s="6"/>
@@ -48496,7 +48555,7 @@
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
-      <c r="D583" s="31"/>
+      <c r="D583" s="32"/>
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
       <c r="G583" s="6"/>
@@ -48520,7 +48579,7 @@
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
-      <c r="D584" s="31"/>
+      <c r="D584" s="32"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
@@ -48544,7 +48603,7 @@
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
-      <c r="D585" s="31"/>
+      <c r="D585" s="32"/>
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
@@ -48568,7 +48627,7 @@
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
-      <c r="D586" s="31"/>
+      <c r="D586" s="32"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
       <c r="G586" s="6"/>
@@ -48592,7 +48651,7 @@
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
-      <c r="D587" s="31"/>
+      <c r="D587" s="32"/>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -48616,7 +48675,7 @@
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
-      <c r="D588" s="31"/>
+      <c r="D588" s="32"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
       <c r="G588" s="6"/>
@@ -48640,7 +48699,7 @@
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
-      <c r="D589" s="31"/>
+      <c r="D589" s="32"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
       <c r="G589" s="6"/>
@@ -48664,7 +48723,7 @@
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
-      <c r="D590" s="31"/>
+      <c r="D590" s="32"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
       <c r="G590" s="6"/>
@@ -48688,7 +48747,7 @@
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
-      <c r="D591" s="31"/>
+      <c r="D591" s="32"/>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
       <c r="G591" s="6"/>
@@ -48712,7 +48771,7 @@
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
-      <c r="D592" s="31"/>
+      <c r="D592" s="32"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
@@ -48736,7 +48795,7 @@
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
-      <c r="D593" s="31"/>
+      <c r="D593" s="32"/>
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
       <c r="G593" s="6"/>
@@ -48760,7 +48819,7 @@
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
-      <c r="D594" s="31"/>
+      <c r="D594" s="32"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
       <c r="G594" s="6"/>
@@ -48784,7 +48843,7 @@
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
-      <c r="D595" s="31"/>
+      <c r="D595" s="32"/>
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
       <c r="G595" s="6"/>
@@ -48808,7 +48867,7 @@
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
-      <c r="D596" s="31"/>
+      <c r="D596" s="32"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
       <c r="G596" s="6"/>
@@ -48832,7 +48891,7 @@
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
-      <c r="D597" s="31"/>
+      <c r="D597" s="32"/>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -48856,7 +48915,7 @@
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
-      <c r="D598" s="31"/>
+      <c r="D598" s="32"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
       <c r="G598" s="6"/>
@@ -48880,7 +48939,7 @@
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
-      <c r="D599" s="31"/>
+      <c r="D599" s="32"/>
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
       <c r="G599" s="6"/>
@@ -48904,7 +48963,7 @@
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
-      <c r="D600" s="31"/>
+      <c r="D600" s="32"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
       <c r="G600" s="6"/>
@@ -48928,7 +48987,7 @@
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
-      <c r="D601" s="31"/>
+      <c r="D601" s="32"/>
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
@@ -48952,7 +49011,7 @@
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
-      <c r="D602" s="31"/>
+      <c r="D602" s="32"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
       <c r="G602" s="6"/>
@@ -48976,7 +49035,7 @@
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
-      <c r="D603" s="31"/>
+      <c r="D603" s="32"/>
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
       <c r="G603" s="6"/>
@@ -49000,7 +49059,7 @@
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
-      <c r="D604" s="31"/>
+      <c r="D604" s="32"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -49024,7 +49083,7 @@
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
-      <c r="D605" s="31"/>
+      <c r="D605" s="32"/>
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
       <c r="G605" s="6"/>
@@ -49048,7 +49107,7 @@
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
-      <c r="D606" s="31"/>
+      <c r="D606" s="32"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
       <c r="G606" s="6"/>
@@ -49072,7 +49131,7 @@
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
-      <c r="D607" s="31"/>
+      <c r="D607" s="32"/>
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -49096,7 +49155,7 @@
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
-      <c r="D608" s="31"/>
+      <c r="D608" s="32"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
       <c r="G608" s="6"/>
@@ -49120,7 +49179,7 @@
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
-      <c r="D609" s="31"/>
+      <c r="D609" s="32"/>
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
       <c r="G609" s="6"/>
@@ -49144,7 +49203,7 @@
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
-      <c r="D610" s="31"/>
+      <c r="D610" s="32"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -49168,7 +49227,7 @@
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
-      <c r="D611" s="31"/>
+      <c r="D611" s="32"/>
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
       <c r="G611" s="6"/>
@@ -49192,7 +49251,7 @@
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
-      <c r="D612" s="31"/>
+      <c r="D612" s="32"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
@@ -49216,7 +49275,7 @@
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
-      <c r="D613" s="31"/>
+      <c r="D613" s="32"/>
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
       <c r="G613" s="6"/>
@@ -49240,7 +49299,7 @@
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
-      <c r="D614" s="31"/>
+      <c r="D614" s="32"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
       <c r="G614" s="6"/>
@@ -49264,7 +49323,7 @@
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
-      <c r="D615" s="31"/>
+      <c r="D615" s="32"/>
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
       <c r="G615" s="6"/>
@@ -49288,7 +49347,7 @@
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
-      <c r="D616" s="31"/>
+      <c r="D616" s="32"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
       <c r="G616" s="6"/>
@@ -49312,7 +49371,7 @@
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
-      <c r="D617" s="31"/>
+      <c r="D617" s="32"/>
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
       <c r="G617" s="6"/>
@@ -49336,7 +49395,7 @@
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
-      <c r="D618" s="31"/>
+      <c r="D618" s="32"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
       <c r="G618" s="6"/>
